--- a/MyExcel.xlsx
+++ b/MyExcel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON\2017\Parsing\WorkParsing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="4245"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -356,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="269">
   <si>
     <t>Форма - 03. "Предложения продажи"</t>
   </si>
@@ -853,12 +848,324 @@
   </si>
   <si>
     <t>Продается здание магазина (здание специализированное розничной торговли). Участок 10 соток. Продается на конкурсной основе. Хорошее транспортное сообщение. Звоните и записывайтесь на осмотр.</t>
+  </si>
+  <si>
+    <t>06.07.2017</t>
+  </si>
+  <si>
+    <t>Realt.by</t>
+  </si>
+  <si>
+    <t>+375 29 610-07-57, +375 29 317-95-42</t>
+  </si>
+  <si>
+    <t>Общественно-деловая недвижимость</t>
+  </si>
+  <si>
+    <t>Торговая недвижимость (недвижимость розничной торговли)</t>
+  </si>
+  <si>
+    <t>Магазин</t>
+  </si>
+  <si>
+    <t>84.8</t>
+  </si>
+  <si>
+    <t>9 779 руб, 196 руб/кв.м 9 779 руб, 196 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>13 103 руб, 196 руб/кв.м 14 277 руб, 196 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>+375 44 730-70-70, +375 29 730-70-70, +375 25 730-70-70</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>от 313.2 до 469</t>
+  </si>
+  <si>
+    <t>55 933 руб, 196—196 руб/кв.м 63 756 руб, 196—391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>+375 29 147-78-67</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Торговый павильон</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>1 565 руб, 196 руб/кв.м</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>86.4</t>
+  </si>
+  <si>
+    <t>21 904 руб, 391 руб/кв.м 16 819 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>16 428 руб, 391 руб/кв.м 15 450 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>25 620 руб, 391 руб/кв.м 23 664 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>Производственно-складская недвижимость</t>
+  </si>
+  <si>
+    <t>Складская недвижимость и недвижимость оптовой торговли</t>
+  </si>
+  <si>
+    <t>Склад, амбар, хранилище</t>
+  </si>
+  <si>
+    <t>от 50 до 1400</t>
+  </si>
+  <si>
+    <t>395 200 руб, 300 руб/кв.м</t>
+  </si>
+  <si>
+    <t>+375 29 724-21-94</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Административная недвижимость</t>
+  </si>
+  <si>
+    <t>Административное здание (помещение), офис</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>406 786 руб, 391 руб/кв.м</t>
+  </si>
+  <si>
+    <t>+375 29 324-84-44</t>
+  </si>
+  <si>
+    <t>от 88 до 95</t>
+  </si>
+  <si>
+    <t>32 660 руб, 391 руб/кв.м 26 989 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>Альфа-Актив</t>
+  </si>
+  <si>
+    <t>+375 29 721-38-84, +375 16 221-31-25</t>
+  </si>
+  <si>
+    <t>alfa-active@tut.by</t>
+  </si>
+  <si>
+    <t>Брест</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>11 539 руб, 391 руб/кв.м 10 756 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>+375 25 928-96-02</t>
+  </si>
+  <si>
+    <t>andreas0316@tut.by</t>
+  </si>
+  <si>
+    <t>Нарочь</t>
+  </si>
+  <si>
+    <t>от 35 до 190</t>
+  </si>
+  <si>
+    <t>69 427 руб, 391—391 руб/кв.м</t>
+  </si>
+  <si>
+    <t>Отл. вариант для размещ. магазина и т.д. на курорте Нарочь без конкурентов, - при этом можно жить в этом же доме, кол-во жит. д.М.Сырмеж - 350, летом -600, возм. обмен</t>
+  </si>
+  <si>
+    <t>Максим Николаевич</t>
+  </si>
+  <si>
+    <t>+375 29 758-77-73</t>
+  </si>
+  <si>
+    <t>r2@bmk.by</t>
+  </si>
+  <si>
+    <t>Могилевская</t>
+  </si>
+  <si>
+    <t>Могилев</t>
+  </si>
+  <si>
+    <t>Шоссе</t>
+  </si>
+  <si>
+    <t>Минское</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>79 010 руб, 391 руб/кв.м</t>
+  </si>
+  <si>
+    <t>Возможна аренда по 2 у.е. за 1 кв/м. Возможна рассрочка платежа и арендные каникулы.Зачет стоимости ремонта в счет арендной платы.</t>
+  </si>
+  <si>
+    <t>Юрий Войтехович</t>
+  </si>
+  <si>
+    <t>+375 25 692-30-08</t>
+  </si>
+  <si>
+    <t>boss@hta.by</t>
+  </si>
+  <si>
+    <t>Лепель</t>
+  </si>
+  <si>
+    <t>Чуйкова</t>
+  </si>
+  <si>
+    <t>92 113 руб, 391 руб/кв.м</t>
+  </si>
+  <si>
+    <t>Рядом с ж/д и автовокзалом. Склад - пристройка построен в 2010 г. Цена - с торговым оборудованием.</t>
+  </si>
+  <si>
+    <t>Надежда</t>
+  </si>
+  <si>
+    <t>+375 29 660-15-84</t>
+  </si>
+  <si>
+    <t>proventaminsk@gmail.com</t>
+  </si>
+  <si>
+    <t>Боровуха</t>
+  </si>
+  <si>
+    <t>Армейская</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>117 342 руб, 587 руб/кв.м</t>
+  </si>
+  <si>
+    <t>Подвальное помещение административно-торгового назначения.Вход со двора. На первом этаже здания продовольственный магазин и банк.</t>
+  </si>
+  <si>
+    <t>5 476 руб, 782 руб/кв.м 5 672 руб, 587 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>+375 29 346-98-78</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Демина</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>55 151 руб, 782 руб/кв.м</t>
+  </si>
+  <si>
+    <t>Торговое помещение, 2 этажа, автомобильная часть стройрынка.</t>
+  </si>
+  <si>
+    <t>+375 29 684-32-38</t>
+  </si>
+  <si>
+    <t>Ратомка</t>
+  </si>
+  <si>
+    <t>264.9</t>
+  </si>
+  <si>
+    <t>181 489 руб, 587 руб/кв.м</t>
+  </si>
+  <si>
+    <t>Отдельно стоящее здание специализированное под розничную торговлю и кафе.Идеально для магазина или кафе!</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>+375 29 156-36-71</t>
+  </si>
+  <si>
+    <t>silchukova@tut.by</t>
+  </si>
+  <si>
+    <t>Чечерск</t>
+  </si>
+  <si>
+    <t>Урицкого</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>от 50 до 63</t>
+  </si>
+  <si>
+    <t>27 967 руб, 782 руб/кв.м</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>7 823 руб, 587 руб/кв.м 9 387 руб, 782 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1114,9 +1421,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1164,7 +1468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1199,7 +1503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1376,7 +1680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1384,17 +1688,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG16"/>
+  <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL10" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="L46" sqref="A37:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="50.140625" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" customWidth="1"/>
+    <col min="23" max="23" width="58.5703125" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
     <col min="50" max="50" width="95.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2239,6 +2548,1324 @@
       </c>
       <c r="BF16" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17">
+        <v>1118514</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18">
+        <v>1044659</v>
+      </c>
+      <c r="H18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s">
+        <v>92</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19">
+        <v>960339</v>
+      </c>
+      <c r="H19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" t="s">
+        <v>99</v>
+      </c>
+      <c r="T19" t="s">
+        <v>176</v>
+      </c>
+      <c r="U19" t="s">
+        <v>84</v>
+      </c>
+      <c r="W19" t="s">
+        <v>169</v>
+      </c>
+      <c r="X19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20">
+        <v>1100288</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" t="s">
+        <v>108</v>
+      </c>
+      <c r="T20" t="s">
+        <v>180</v>
+      </c>
+      <c r="U20" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20" t="s">
+        <v>169</v>
+      </c>
+      <c r="X20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21">
+        <v>1118508</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s">
+        <v>115</v>
+      </c>
+      <c r="R21" t="s">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s">
+        <v>116</v>
+      </c>
+      <c r="T21" t="s">
+        <v>184</v>
+      </c>
+      <c r="U21" t="s">
+        <v>118</v>
+      </c>
+      <c r="W21" t="s">
+        <v>169</v>
+      </c>
+      <c r="X21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22">
+        <v>1118488</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s">
+        <v>123</v>
+      </c>
+      <c r="R22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" t="s">
+        <v>116</v>
+      </c>
+      <c r="T22" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" t="s">
+        <v>124</v>
+      </c>
+      <c r="W22" t="s">
+        <v>169</v>
+      </c>
+      <c r="X22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23">
+        <v>1118477</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s">
+        <v>129</v>
+      </c>
+      <c r="R23" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" t="s">
+        <v>130</v>
+      </c>
+      <c r="T23" t="s">
+        <v>189</v>
+      </c>
+      <c r="U23" t="s">
+        <v>84</v>
+      </c>
+      <c r="W23" t="s">
+        <v>169</v>
+      </c>
+      <c r="X23" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>191</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24">
+        <v>935363</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" t="s">
+        <v>73</v>
+      </c>
+      <c r="S24" t="s">
+        <v>139</v>
+      </c>
+      <c r="T24" t="s">
+        <v>140</v>
+      </c>
+      <c r="U24" t="s">
+        <v>141</v>
+      </c>
+      <c r="W24" t="s">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25">
+        <v>861386</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" t="s">
+        <v>150</v>
+      </c>
+      <c r="R25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" t="s">
+        <v>151</v>
+      </c>
+      <c r="T25" t="s">
+        <v>198</v>
+      </c>
+      <c r="U25" t="s">
+        <v>153</v>
+      </c>
+      <c r="W25" t="s">
+        <v>199</v>
+      </c>
+      <c r="X25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26">
+        <v>1015172</v>
+      </c>
+      <c r="G26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="s">
+        <v>161</v>
+      </c>
+      <c r="T26" t="s">
+        <v>176</v>
+      </c>
+      <c r="U26" t="s">
+        <v>141</v>
+      </c>
+      <c r="W26" t="s">
+        <v>169</v>
+      </c>
+      <c r="X26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27">
+        <v>1119514</v>
+      </c>
+      <c r="G27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" t="s">
+        <v>209</v>
+      </c>
+      <c r="W27" t="s">
+        <v>169</v>
+      </c>
+      <c r="X27" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28">
+        <v>992681</v>
+      </c>
+      <c r="G28" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s">
+        <v>215</v>
+      </c>
+      <c r="W28" t="s">
+        <v>169</v>
+      </c>
+      <c r="X28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>217</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29">
+        <v>940701</v>
+      </c>
+      <c r="G29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="P29" t="s">
+        <v>223</v>
+      </c>
+      <c r="R29" t="s">
+        <v>224</v>
+      </c>
+      <c r="S29" t="s">
+        <v>225</v>
+      </c>
+      <c r="T29" t="s">
+        <v>226</v>
+      </c>
+      <c r="U29" t="s">
+        <v>141</v>
+      </c>
+      <c r="W29" t="s">
+        <v>169</v>
+      </c>
+      <c r="X29" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30">
+        <v>663588</v>
+      </c>
+      <c r="G30" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>168</v>
+      </c>
+      <c r="L30" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" t="s">
+        <v>233</v>
+      </c>
+      <c r="R30" t="s">
+        <v>81</v>
+      </c>
+      <c r="S30" t="s">
+        <v>234</v>
+      </c>
+      <c r="T30" t="s">
+        <v>109</v>
+      </c>
+      <c r="W30" t="s">
+        <v>169</v>
+      </c>
+      <c r="X30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>235</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31">
+        <v>1073353</v>
+      </c>
+      <c r="G31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>168</v>
+      </c>
+      <c r="L31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="s">
+        <v>240</v>
+      </c>
+      <c r="R31" t="s">
+        <v>73</v>
+      </c>
+      <c r="S31" t="s">
+        <v>241</v>
+      </c>
+      <c r="W31" t="s">
+        <v>199</v>
+      </c>
+      <c r="X31" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32">
+        <v>1117407</v>
+      </c>
+      <c r="G32" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" t="s">
+        <v>209</v>
+      </c>
+      <c r="W32" t="s">
+        <v>169</v>
+      </c>
+      <c r="X32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33">
+        <v>435877</v>
+      </c>
+      <c r="G33" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s">
+        <v>248</v>
+      </c>
+      <c r="R33" t="s">
+        <v>81</v>
+      </c>
+      <c r="S33" t="s">
+        <v>249</v>
+      </c>
+      <c r="W33" t="s">
+        <v>199</v>
+      </c>
+      <c r="X33" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34">
+        <v>850464</v>
+      </c>
+      <c r="H34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s">
+        <v>254</v>
+      </c>
+      <c r="W34" t="s">
+        <v>169</v>
+      </c>
+      <c r="X34" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35">
+        <v>989978</v>
+      </c>
+      <c r="G35" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s">
+        <v>168</v>
+      </c>
+      <c r="L35" t="s">
+        <v>137</v>
+      </c>
+      <c r="P35" t="s">
+        <v>261</v>
+      </c>
+      <c r="R35" t="s">
+        <v>73</v>
+      </c>
+      <c r="S35" t="s">
+        <v>262</v>
+      </c>
+      <c r="T35" t="s">
+        <v>263</v>
+      </c>
+      <c r="U35" t="s">
+        <v>264</v>
+      </c>
+      <c r="W35" t="s">
+        <v>169</v>
+      </c>
+      <c r="X35" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36">
+        <v>1119223</v>
+      </c>
+      <c r="G36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" t="s">
+        <v>168</v>
+      </c>
+      <c r="L36" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" t="s">
+        <v>209</v>
+      </c>
+      <c r="W36" t="s">
+        <v>169</v>
+      </c>
+      <c r="X36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/MyExcel.xlsx
+++ b/MyExcel.xlsx
@@ -1,357 +1,358 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Предложения" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Предложения" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$BG$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Предложения!$A$3:$BG$3</definedName>
-    <definedName name="AASRA" localSheetId="0">#REF!</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
+    <definedName localSheetId="0" name="AASRA">#REF!</definedName>
     <definedName name="AASRA">#REF!</definedName>
-    <definedName name="ACKIL" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="ACKIL">#REF!</definedName>
     <definedName name="ACKIL">#REF!</definedName>
-    <definedName name="AGDMR" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="AGDMR">#REF!</definedName>
     <definedName name="AGDMR">#REF!</definedName>
-    <definedName name="ANTTQ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="ANTTQ">#REF!</definedName>
     <definedName name="ANTTQ">#REF!</definedName>
-    <definedName name="ASLKJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="ASLKJ">#REF!</definedName>
     <definedName name="ASLKJ">#REF!</definedName>
-    <definedName name="AYPYI" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="AYPYI">#REF!</definedName>
     <definedName name="AYPYI">#REF!</definedName>
-    <definedName name="BBESC" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="BBESC">#REF!</definedName>
     <definedName name="BBESC">#REF!</definedName>
-    <definedName name="BNUIH" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="BNUIH">#REF!</definedName>
     <definedName name="BNUIH">#REF!</definedName>
-    <definedName name="CANUU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="CANUU">#REF!</definedName>
     <definedName name="CANUU">#REF!</definedName>
-    <definedName name="CDQCY" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="CDQCY">#REF!</definedName>
     <definedName name="CDQCY">#REF!</definedName>
-    <definedName name="CFULS" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="CFULS">#REF!</definedName>
     <definedName name="CFULS">#REF!</definedName>
-    <definedName name="CGSPG" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="CGSPG">#REF!</definedName>
     <definedName name="CGSPG">#REF!</definedName>
-    <definedName name="CLQXN" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="CLQXN">#REF!</definedName>
     <definedName name="CLQXN">#REF!</definedName>
-    <definedName name="CLYEI" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="CLYEI">#REF!</definedName>
     <definedName name="CLYEI">#REF!</definedName>
-    <definedName name="CPCWO" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="CPCWO">#REF!</definedName>
     <definedName name="CPCWO">#REF!</definedName>
-    <definedName name="CYLVP" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="CYLVP">#REF!</definedName>
     <definedName name="CYLVP">#REF!</definedName>
-    <definedName name="DCEWY" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="DCEWY">#REF!</definedName>
     <definedName name="DCEWY">#REF!</definedName>
-    <definedName name="DFFHB" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="DFFHB">#REF!</definedName>
     <definedName name="DFFHB">#REF!</definedName>
-    <definedName name="DHGUV" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="DHGUV">#REF!</definedName>
     <definedName name="DHGUV">#REF!</definedName>
-    <definedName name="DMUET" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="DMUET">#REF!</definedName>
     <definedName name="DMUET">#REF!</definedName>
-    <definedName name="DUVDE" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="DUVDE">#REF!</definedName>
     <definedName name="DUVDE">#REF!</definedName>
-    <definedName name="DVBQP" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="DVBQP">#REF!</definedName>
     <definedName name="DVBQP">#REF!</definedName>
-    <definedName name="ECNTR" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="ECNTR">#REF!</definedName>
     <definedName name="ECNTR">#REF!</definedName>
-    <definedName name="EHCUH" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="EHCUH">#REF!</definedName>
     <definedName name="EHCUH">#REF!</definedName>
-    <definedName name="EOKHF" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="EOKHF">#REF!</definedName>
     <definedName name="EOKHF">#REF!</definedName>
-    <definedName name="EQCIG" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="EQCIG">#REF!</definedName>
     <definedName name="EQCIG">#REF!</definedName>
-    <definedName name="ETCJQ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="ETCJQ">#REF!</definedName>
     <definedName name="ETCJQ">#REF!</definedName>
-    <definedName name="FASWP" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="FASWP">#REF!</definedName>
     <definedName name="FASWP">#REF!</definedName>
-    <definedName name="FEDHD" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="FEDHD">#REF!</definedName>
     <definedName name="FEDHD">#REF!</definedName>
-    <definedName name="FMLOT" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="FMLOT">#REF!</definedName>
     <definedName name="FMLOT">#REF!</definedName>
-    <definedName name="FNGGJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="FNGGJ">#REF!</definedName>
     <definedName name="FNGGJ">#REF!</definedName>
-    <definedName name="FOCKC" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="FOCKC">#REF!</definedName>
     <definedName name="FOCKC">#REF!</definedName>
-    <definedName name="FPRYL" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="FPRYL">#REF!</definedName>
     <definedName name="FPRYL">#REF!</definedName>
-    <definedName name="FREKA" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="FREKA">#REF!</definedName>
     <definedName name="FREKA">#REF!</definedName>
-    <definedName name="FTLXN" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="FTLXN">#REF!</definedName>
     <definedName name="FTLXN">#REF!</definedName>
-    <definedName name="GAUAU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="GAUAU">#REF!</definedName>
     <definedName name="GAUAU">#REF!</definedName>
-    <definedName name="GHUJN" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="GHUJN">#REF!</definedName>
     <definedName name="GHUJN">#REF!</definedName>
-    <definedName name="GITWY" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="GITWY">#REF!</definedName>
     <definedName name="GITWY">#REF!</definedName>
-    <definedName name="GLFTT" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="GLFTT">#REF!</definedName>
     <definedName name="GLFTT">#REF!</definedName>
-    <definedName name="GLRSX" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="GLRSX">#REF!</definedName>
     <definedName name="GLRSX">#REF!</definedName>
-    <definedName name="GMJHN" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="GMJHN">#REF!</definedName>
     <definedName name="GMJHN">#REF!</definedName>
-    <definedName name="GNWTB" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="GNWTB">#REF!</definedName>
     <definedName name="GNWTB">#REF!</definedName>
-    <definedName name="GTBTG" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="GTBTG">#REF!</definedName>
     <definedName name="GTBTG">#REF!</definedName>
-    <definedName name="HDMTB" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="HDMTB">#REF!</definedName>
     <definedName name="HDMTB">#REF!</definedName>
-    <definedName name="HULKN" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="HULKN">#REF!</definedName>
     <definedName name="HULKN">#REF!</definedName>
-    <definedName name="HWEJA" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="HWEJA">#REF!</definedName>
     <definedName name="HWEJA">#REF!</definedName>
-    <definedName name="IMYJP" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="IMYJP">#REF!</definedName>
     <definedName name="IMYJP">#REF!</definedName>
-    <definedName name="IQFNC" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="IQFNC">#REF!</definedName>
     <definedName name="IQFNC">#REF!</definedName>
-    <definedName name="IUBTX" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="IUBTX">#REF!</definedName>
     <definedName name="IUBTX">#REF!</definedName>
-    <definedName name="IUKFT" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="IUKFT">#REF!</definedName>
     <definedName name="IUKFT">#REF!</definedName>
-    <definedName name="IWKAU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="IWKAU">#REF!</definedName>
     <definedName name="IWKAU">#REF!</definedName>
-    <definedName name="JIKSV" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="JIKSV">#REF!</definedName>
     <definedName name="JIKSV">#REF!</definedName>
-    <definedName name="JWEDM" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="JWEDM">#REF!</definedName>
     <definedName name="JWEDM">#REF!</definedName>
-    <definedName name="KBGAR" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="KBGAR">#REF!</definedName>
     <definedName name="KBGAR">#REF!</definedName>
-    <definedName name="KBVTX" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="KBVTX">#REF!</definedName>
     <definedName name="KBVTX">#REF!</definedName>
-    <definedName name="KFIAX" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="KFIAX">#REF!</definedName>
     <definedName name="KFIAX">#REF!</definedName>
-    <definedName name="KLSJV" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="KLSJV">#REF!</definedName>
     <definedName name="KLSJV">#REF!</definedName>
-    <definedName name="KQOKC" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="KQOKC">#REF!</definedName>
     <definedName name="KQOKC">#REF!</definedName>
-    <definedName name="LGLFE" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="LGLFE">#REF!</definedName>
     <definedName name="LGLFE">#REF!</definedName>
-    <definedName name="LJUNW" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="LJUNW">#REF!</definedName>
     <definedName name="LJUNW">#REF!</definedName>
-    <definedName name="LLXSS" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="LLXSS">#REF!</definedName>
     <definedName name="LLXSS">#REF!</definedName>
-    <definedName name="LMBCV" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="LMBCV">#REF!</definedName>
     <definedName name="LMBCV">#REF!</definedName>
-    <definedName name="LYXCF" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="LYXCF">#REF!</definedName>
     <definedName name="LYXCF">#REF!</definedName>
-    <definedName name="MCFPV" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="MCFPV">#REF!</definedName>
     <definedName name="MCFPV">#REF!</definedName>
-    <definedName name="MGXCI" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="MGXCI">#REF!</definedName>
     <definedName name="MGXCI">#REF!</definedName>
-    <definedName name="MHHFA" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="MHHFA">#REF!</definedName>
     <definedName name="MHHFA">#REF!</definedName>
-    <definedName name="MSBWS" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="MSBWS">#REF!</definedName>
     <definedName name="MSBWS">#REF!</definedName>
-    <definedName name="MSGHC" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="MSGHC">#REF!</definedName>
     <definedName name="MSGHC">#REF!</definedName>
-    <definedName name="MVVEG" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="MVVEG">#REF!</definedName>
     <definedName name="MVVEG">#REF!</definedName>
-    <definedName name="NJBMY" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="NJBMY">#REF!</definedName>
     <definedName name="NJBMY">#REF!</definedName>
-    <definedName name="NLWVG" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="NLWVG">#REF!</definedName>
     <definedName name="NLWVG">#REF!</definedName>
-    <definedName name="NPJAJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="NPJAJ">#REF!</definedName>
     <definedName name="NPJAJ">#REF!</definedName>
-    <definedName name="NWMTX" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="NWMTX">#REF!</definedName>
     <definedName name="NWMTX">#REF!</definedName>
-    <definedName name="OHHXQ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="OHHXQ">#REF!</definedName>
     <definedName name="OHHXQ">#REF!</definedName>
-    <definedName name="OHKMK" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="OHKMK">#REF!</definedName>
     <definedName name="OHKMK">#REF!</definedName>
-    <definedName name="OKXMI" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="OKXMI">#REF!</definedName>
     <definedName name="OKXMI">#REF!</definedName>
-    <definedName name="ONOKX" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="ONOKX">#REF!</definedName>
     <definedName name="ONOKX">#REF!</definedName>
-    <definedName name="OOPRS" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="OOPRS">#REF!</definedName>
     <definedName name="OOPRS">#REF!</definedName>
-    <definedName name="OPICS" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="OPICS">#REF!</definedName>
     <definedName name="OPICS">#REF!</definedName>
-    <definedName name="OVTUQ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="OVTUQ">#REF!</definedName>
     <definedName name="OVTUQ">#REF!</definedName>
-    <definedName name="OYKCJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="OYKCJ">#REF!</definedName>
     <definedName name="OYKCJ">#REF!</definedName>
-    <definedName name="PBWND" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="PBWND">#REF!</definedName>
     <definedName name="PBWND">#REF!</definedName>
-    <definedName name="PCPAV" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="PCPAV">#REF!</definedName>
     <definedName name="PCPAV">#REF!</definedName>
-    <definedName name="PJUCO" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="PJUCO">#REF!</definedName>
     <definedName name="PJUCO">#REF!</definedName>
-    <definedName name="PJVEF" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="PJVEF">#REF!</definedName>
     <definedName name="PJVEF">#REF!</definedName>
-    <definedName name="PNXJL" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="PNXJL">#REF!</definedName>
     <definedName name="PNXJL">#REF!</definedName>
-    <definedName name="PUCWL" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="PUCWL">#REF!</definedName>
     <definedName name="PUCWL">#REF!</definedName>
-    <definedName name="QGCTP" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="QGCTP">#REF!</definedName>
     <definedName name="QGCTP">#REF!</definedName>
-    <definedName name="QIQWA" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="QIQWA">#REF!</definedName>
     <definedName name="QIQWA">#REF!</definedName>
-    <definedName name="QRBHQ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="QRBHQ">#REF!</definedName>
     <definedName name="QRBHQ">#REF!</definedName>
-    <definedName name="QRUCF" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="QRUCF">#REF!</definedName>
     <definedName name="QRUCF">#REF!</definedName>
-    <definedName name="QSSXY" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="QSSXY">#REF!</definedName>
     <definedName name="QSSXY">#REF!</definedName>
-    <definedName name="QYFVU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="QYFVU">#REF!</definedName>
     <definedName name="QYFVU">#REF!</definedName>
-    <definedName name="RACRJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="RACRJ">#REF!</definedName>
     <definedName name="RACRJ">#REF!</definedName>
-    <definedName name="RAKUQ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="RAKUQ">#REF!</definedName>
     <definedName name="RAKUQ">#REF!</definedName>
-    <definedName name="RFGME" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="RFGME">#REF!</definedName>
     <definedName name="RFGME">#REF!</definedName>
-    <definedName name="RJPVI" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="RJPVI">#REF!</definedName>
     <definedName name="RJPVI">#REF!</definedName>
-    <definedName name="RWVIW" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="RWVIW">#REF!</definedName>
     <definedName name="RWVIW">#REF!</definedName>
-    <definedName name="SDDHJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="SDDHJ">#REF!</definedName>
     <definedName name="SDDHJ">#REF!</definedName>
-    <definedName name="SGTLL" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="SGTLL">#REF!</definedName>
     <definedName name="SGTLL">#REF!</definedName>
-    <definedName name="SNNSA" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="SNNSA">#REF!</definedName>
     <definedName name="SNNSA">#REF!</definedName>
-    <definedName name="SQMHO" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="SQMHO">#REF!</definedName>
     <definedName name="SQMHO">#REF!</definedName>
-    <definedName name="SRXMB" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="SRXMB">#REF!</definedName>
     <definedName name="SRXMB">#REF!</definedName>
-    <definedName name="STRMF" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="STRMF">#REF!</definedName>
     <definedName name="STRMF">#REF!</definedName>
-    <definedName name="SYTRE" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="SYTRE">#REF!</definedName>
     <definedName name="SYTRE">#REF!</definedName>
-    <definedName name="TBYCK" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="TBYCK">#REF!</definedName>
     <definedName name="TBYCK">#REF!</definedName>
-    <definedName name="TFQLL" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="TFQLL">#REF!</definedName>
     <definedName name="TFQLL">#REF!</definedName>
-    <definedName name="TLYVF" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="TLYVF">#REF!</definedName>
     <definedName name="TLYVF">#REF!</definedName>
-    <definedName name="TNMDH" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="TNMDH">#REF!</definedName>
     <definedName name="TNMDH">#REF!</definedName>
-    <definedName name="TOBDY" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="TOBDY">#REF!</definedName>
     <definedName name="TOBDY">#REF!</definedName>
-    <definedName name="TRKTJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="TRKTJ">#REF!</definedName>
     <definedName name="TRKTJ">#REF!</definedName>
-    <definedName name="TTCET" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="TTCET">#REF!</definedName>
     <definedName name="TTCET">#REF!</definedName>
-    <definedName name="UETLU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="UETLU">#REF!</definedName>
     <definedName name="UETLU">#REF!</definedName>
-    <definedName name="ULRNI" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="ULRNI">#REF!</definedName>
     <definedName name="ULRNI">#REF!</definedName>
-    <definedName name="UMNKA" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="UMNKA">#REF!</definedName>
     <definedName name="UMNKA">#REF!</definedName>
-    <definedName name="UQTPW" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="UQTPW">#REF!</definedName>
     <definedName name="UQTPW">#REF!</definedName>
-    <definedName name="URMOO" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="URMOO">#REF!</definedName>
     <definedName name="URMOO">#REF!</definedName>
-    <definedName name="UVNXH" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="UVNXH">#REF!</definedName>
     <definedName name="UVNXH">#REF!</definedName>
-    <definedName name="VBFLA" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="VBFLA">#REF!</definedName>
     <definedName name="VBFLA">#REF!</definedName>
-    <definedName name="VHIIK" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="VHIIK">#REF!</definedName>
     <definedName name="VHIIK">#REF!</definedName>
-    <definedName name="VLOXH" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="VLOXH">#REF!</definedName>
     <definedName name="VLOXH">#REF!</definedName>
-    <definedName name="WCYHT" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="WCYHT">#REF!</definedName>
     <definedName name="WCYHT">#REF!</definedName>
-    <definedName name="WDKQU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="WDKQU">#REF!</definedName>
     <definedName name="WDKQU">#REF!</definedName>
-    <definedName name="WFHIE" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="WFHIE">#REF!</definedName>
     <definedName name="WFHIE">#REF!</definedName>
-    <definedName name="WGSDL" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="WGSDL">#REF!</definedName>
     <definedName name="WGSDL">#REF!</definedName>
-    <definedName name="WJSBB" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="WJSBB">#REF!</definedName>
     <definedName name="WJSBB">#REF!</definedName>
-    <definedName name="WSTML" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="WSTML">#REF!</definedName>
     <definedName name="WSTML">#REF!</definedName>
-    <definedName name="WUKCJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="WUKCJ">#REF!</definedName>
     <definedName name="WUKCJ">#REF!</definedName>
-    <definedName name="WWUCJ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="WWUCJ">#REF!</definedName>
     <definedName name="WWUCJ">#REF!</definedName>
-    <definedName name="XADEO" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="XADEO">#REF!</definedName>
     <definedName name="XADEO">#REF!</definedName>
-    <definedName name="XCVKB" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="XCVKB">#REF!</definedName>
     <definedName name="XCVKB">#REF!</definedName>
-    <definedName name="XHOBI" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="XHOBI">#REF!</definedName>
     <definedName name="XHOBI">#REF!</definedName>
-    <definedName name="XISSU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="XISSU">#REF!</definedName>
     <definedName name="XISSU">#REF!</definedName>
-    <definedName name="XOYIQ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="XOYIQ">#REF!</definedName>
     <definedName name="XOYIQ">#REF!</definedName>
-    <definedName name="XSRJL" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="XSRJL">#REF!</definedName>
     <definedName name="XSRJL">#REF!</definedName>
-    <definedName name="XUYWB" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="XUYWB">#REF!</definedName>
     <definedName name="XUYWB">#REF!</definedName>
-    <definedName name="YEHCB" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="YEHCB">#REF!</definedName>
     <definedName name="YEHCB">#REF!</definedName>
-    <definedName name="YGWHC" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="YGWHC">#REF!</definedName>
     <definedName name="YGWHC">#REF!</definedName>
-    <definedName name="YRTKU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="YRTKU">#REF!</definedName>
     <definedName name="YRTKU">#REF!</definedName>
-    <definedName name="YTRAA" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="YTRAA">#REF!</definedName>
     <definedName name="YTRAA">#REF!</definedName>
-    <definedName name="YUWDU" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="YUWDU">#REF!</definedName>
     <definedName name="YUWDU">#REF!</definedName>
-    <definedName name="ВН_ОТ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="ВН_ОТ">#REF!</definedName>
     <definedName name="ВН_ОТ">#REF!</definedName>
-    <definedName name="Внутренняя_отделка_дома" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Внутренняя_отделка_дома">#REF!</definedName>
     <definedName name="Внутренняя_отделка_дома">#REF!</definedName>
-    <definedName name="Высота_потолка" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Высота_потолка">#REF!</definedName>
     <definedName name="Высота_потолка">#REF!</definedName>
-    <definedName name="Год_постройки_дома" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Год_постройки_дома">#REF!</definedName>
     <definedName name="Год_постройки_дома">#REF!</definedName>
-    <definedName name="Да_Нет" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Да_Нет">#REF!</definedName>
     <definedName name="Да_Нет">#REF!</definedName>
-    <definedName name="Количество_надземных_этажей" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Количество_надземных_этажей">#REF!</definedName>
     <definedName name="Количество_надземных_этажей">#REF!</definedName>
-    <definedName name="Количество_подземных_этажей" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Количество_подземных_этажей">#REF!</definedName>
     <definedName name="Количество_подземных_этажей">#REF!</definedName>
-    <definedName name="Кондиционаирование_и_вентиляция" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Кондиционаирование_и_вентиляция">#REF!</definedName>
     <definedName name="Кондиционаирование_и_вентиляция">#REF!</definedName>
-    <definedName name="Конструкция_здания" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Конструкция_здания">#REF!</definedName>
     <definedName name="Конструкция_здания">#REF!</definedName>
-    <definedName name="Материал_каркаса" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Материал_каркаса">#REF!</definedName>
     <definedName name="Материал_каркаса">#REF!</definedName>
-    <definedName name="Материал_кровли" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Материал_кровли">#REF!</definedName>
     <definedName name="Материал_кровли">#REF!</definedName>
-    <definedName name="Материал_стен" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Материал_стен">#REF!</definedName>
     <definedName name="Материал_стен">#REF!</definedName>
-    <definedName name="Материал_стен_ЕГРНИ" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Материал_стен_ЕГРНИ">#REF!</definedName>
     <definedName name="Материал_стен_ЕГРНИ">#REF!</definedName>
-    <definedName name="Назначение1" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Назначение1">#REF!</definedName>
     <definedName name="Назначение1">#REF!</definedName>
-    <definedName name="Назначение3" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Назначение3">#REF!</definedName>
     <definedName name="Назначение3">#REF!</definedName>
-    <definedName name="Наружная_отделка" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Наружная_отделка">#REF!</definedName>
     <definedName name="Наружная_отделка">#REF!</definedName>
-    <definedName name="Обновление" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Обновление">#REF!</definedName>
     <definedName name="Обновление">#REF!</definedName>
-    <definedName name="Отопление" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Отопление">#REF!</definedName>
     <definedName name="Отопление">#REF!</definedName>
-    <definedName name="Пролет" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Пролет">#REF!</definedName>
     <definedName name="Пролет">#REF!</definedName>
-    <definedName name="Санузлы" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Санузлы">#REF!</definedName>
     <definedName name="Санузлы">#REF!</definedName>
-    <definedName name="Снабжение" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Снабжение">#REF!</definedName>
     <definedName name="Снабжение">#REF!</definedName>
-    <definedName name="Строительная_готовность_дома" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Строительная_готовность_дома">#REF!</definedName>
     <definedName name="Строительная_готовность_дома">#REF!</definedName>
-    <definedName name="Тип_объекта" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Тип_объекта">#REF!</definedName>
     <definedName name="Тип_объекта">#REF!</definedName>
-    <definedName name="Тип_строения" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Тип_строения">#REF!</definedName>
     <definedName name="Тип_строения">#REF!</definedName>
-    <definedName name="Шаг_колонн" localSheetId="0">#REF!</definedName>
+    <definedName localSheetId="0" name="Шаг_колонн">#REF!</definedName>
     <definedName name="Шаг_колонн">#REF!</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>Форма - 03. "Предложения продажи"</t>
   </si>
@@ -396,6 +397,9 @@
   </si>
   <si>
     <t>№ Объявления</t>
+  </si>
+  <si>
+    <t>Цена предложения, USD/кв. м</t>
   </si>
   <si>
     <t>Контактное лицо</t>
@@ -523,9 +527,6 @@
     <t>Цена предложения, USD</t>
   </si>
   <si>
-    <t>Цена предложения, USD/кв. м</t>
-  </si>
-  <si>
     <t>НДС в цене сделки</t>
   </si>
   <si>
@@ -586,6 +587,9 @@
     <t>Продажа</t>
   </si>
   <si>
+    <t>11 471 руб, 194 руб/кв.м 10 304 руб, 194 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
     <t>Татьяна</t>
   </si>
   <si>
@@ -619,15 +623,15 @@
     <t xml:space="preserve">Да </t>
   </si>
   <si>
-    <t>11 471 руб, 194 руб/кв.м 10 304 руб, 194 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
-  </si>
-  <si>
     <t>НДС есть</t>
   </si>
   <si>
     <t>Подробнее на сайте http://www.cpo.by/services/aukciony-po-realizacii-nedvizhimosti/magazin15</t>
   </si>
   <si>
+    <t>13 221 руб, 194 руб/кв.м 11 276 руб, 194 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
     <t>+375 29 657-10-07, +375 29 317-42-95</t>
   </si>
   <si>
@@ -637,12 +641,12 @@
     <t>106 м²</t>
   </si>
   <si>
-    <t>13 221 руб, 194 руб/кв.м 11 276 руб, 194 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
-  </si>
-  <si>
     <t>Подробнее на сайте http://www.cpo.by/services/aukciony-po-realizacii-nedvizhimosti/zdanie-magazina4</t>
   </si>
   <si>
+    <t>63 381 руб, 194—194 руб/кв.м 65 520 руб, 194—389 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
     <t>+375 44 770-30-70, +375 29 770-70-30, +375 25 770-30-70</t>
   </si>
   <si>
@@ -664,12 +668,12 @@
     <t>Кирпич</t>
   </si>
   <si>
-    <t>63 381 руб, 194—194 руб/кв.м 65 520 руб, 194—389 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
-  </si>
-  <si>
     <t>Оживленный автотрафик. Идеально под магазин, СТО и другие услуги. Открыты к диалогу, в т.ч. по вопросу аренды. Готовы произвести ремонт под любой бизнес-проект.</t>
   </si>
   <si>
+    <t>1 555 руб, 194 руб/кв.м</t>
+  </si>
+  <si>
     <t>Денис</t>
   </si>
   <si>
@@ -691,15 +695,15 @@
     <t>7.5 м²</t>
   </si>
   <si>
-    <t>1 555 руб, 194 руб/кв.м</t>
-  </si>
-  <si>
     <t>НДС нет</t>
   </si>
   <si>
     <t>Торговый павильон (бокс) 7.5 метров квадратных продам или сдам в аренду! Рынок Свелта!</t>
   </si>
   <si>
+    <t>14 776 руб, 194 руб/кв.м 15 942 руб, 194 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
     <t>Синча</t>
   </si>
   <si>
@@ -715,12 +719,12 @@
     <t>86.4 м²</t>
   </si>
   <si>
-    <t>14 776 руб, 194 руб/кв.м 15 942 руб, 194 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
-  </si>
-  <si>
     <t>Подробнее на сайте http://www.cpo.by/services/aukciony-po-realizacii-nedvizhimosti/magazin14</t>
   </si>
   <si>
+    <t>11 860 руб, 389 руб/кв.м 12 832 руб, 389 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
     <t>+375 29 610-07-57, +375 29 342-95-17</t>
   </si>
   <si>
@@ -733,12 +737,12 @@
     <t>60.3 м²</t>
   </si>
   <si>
-    <t>11 860 руб, 389 руб/кв.м 12 832 руб, 389 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
-  </si>
-  <si>
     <t>Подробнее на сайте http://www.cpo.by/services/aukciony-po-realizacii-nedvizhimosti/zdanie-nezhiloe13</t>
   </si>
   <si>
+    <t>22 164 руб, 389 руб/кв.м 26 441 руб, 389 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
     <t>+375 29 607-57-10, +375 29 342-17-95</t>
   </si>
   <si>
@@ -751,12 +755,12 @@
     <t>90 м²</t>
   </si>
   <si>
-    <t>22 164 руб, 389 руб/кв.м 26 441 руб, 389 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
-  </si>
-  <si>
     <t>Подробнее на сайте http://www.cpo.by/services/aukciony-po-realizacii-nedvizhimosti/magazin12</t>
   </si>
   <si>
+    <t>334 400 руб, 400 руб/кв.м</t>
+  </si>
+  <si>
     <t>Пётр</t>
   </si>
   <si>
@@ -787,12 +791,12 @@
     <t>Нет</t>
   </si>
   <si>
-    <t>334 400 руб, 400 руб/кв.м</t>
-  </si>
-  <si>
     <t>Продажа (аренда) Здание от 50 до 1400 м.кв. под магазин, склад, СТО, производство, потолок 5м., все коммуникаци, 42 сот. Реконструкция под ваши цели за счёт собственника.</t>
   </si>
   <si>
+    <t>322 737 руб, 389 руб/кв.м</t>
+  </si>
+  <si>
     <t>Сергей</t>
   </si>
   <si>
@@ -823,12 +827,12 @@
     <t>Сборный железобетон (панели)</t>
   </si>
   <si>
-    <t>322 737 руб, 389 руб/кв.м</t>
-  </si>
-  <si>
     <t>Рядом ж/д пути.</t>
   </si>
   <si>
+    <t>25 080 руб, 389 руб/кв.м 34 996 руб, 389 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
     <t>Риабай</t>
   </si>
   <si>
@@ -844,9 +848,6 @@
     <t>от 88 до 95 м²</t>
   </si>
   <si>
-    <t>25 080 руб, 389 руб/кв.м 34 996 руб, 389 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
-  </si>
-  <si>
     <t>Продается здание магазина (здание специализированное розничной торговли). Участок 10 соток. Продается на конкурсной основе. Хорошее транспортное сообщение. Звоните и записывайтесь на осмотр.</t>
   </si>
   <si>
@@ -856,6 +857,9 @@
     <t>Realt.by</t>
   </si>
   <si>
+    <t>9 779 руб, 196 руб/кв.м 9 779 руб, 196 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
     <t>+375 29 610-07-57, +375 29 317-95-42</t>
   </si>
   <si>
@@ -871,13 +875,13 @@
     <t>84.8</t>
   </si>
   <si>
-    <t>9 779 руб, 196 руб/кв.м 9 779 руб, 196 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>13 103 руб, 196 руб/кв.м 14 277 руб, 196 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>13 103 руб, 196 руб/кв.м 14 277 руб, 196 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>55 933 руб, 196—196 руб/кв.м 63 756 руб, 196—391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
     <t>+375 44 730-70-70, +375 29 730-70-70, +375 25 730-70-70</t>
@@ -889,7 +893,7 @@
     <t>от 313.2 до 469</t>
   </si>
   <si>
-    <t>55 933 руб, 196—196 руб/кв.м 63 756 руб, 196—391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>1 565 руб, 196 руб/кв.м</t>
   </si>
   <si>
     <t>+375 29 147-78-67</t>
@@ -904,7 +908,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>1 565 руб, 196 руб/кв.м</t>
+    <t>21 904 руб, 391 руб/кв.м 16 819 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
     <t>50</t>
@@ -913,13 +917,13 @@
     <t>86.4</t>
   </si>
   <si>
-    <t>21 904 руб, 391 руб/кв.м 16 819 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>16 428 руб, 391 руб/кв.м 15 450 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
     <t>60.3</t>
   </si>
   <si>
-    <t>16 428 руб, 391 руб/кв.м 15 450 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>25 620 руб, 391 руб/кв.м 23 664 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
     <t>3</t>
@@ -928,7 +932,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>25 620 руб, 391 руб/кв.м 23 664 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>395 200 руб, 300 руб/кв.м</t>
   </si>
   <si>
     <t>Производственно-складская недвижимость</t>
@@ -943,7 +947,7 @@
     <t>от 50 до 1400</t>
   </si>
   <si>
-    <t>395 200 руб, 300 руб/кв.м</t>
+    <t>406 786 руб, 391 руб/кв.м</t>
   </si>
   <si>
     <t>+375 29 724-21-94</t>
@@ -961,7 +965,7 @@
     <t>1320</t>
   </si>
   <si>
-    <t>406 786 руб, 391 руб/кв.м</t>
+    <t>32 660 руб, 391 руб/кв.м 26 989 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
     <t>+375 29 324-84-44</t>
@@ -970,7 +974,7 @@
     <t>от 88 до 95</t>
   </si>
   <si>
-    <t>32 660 руб, 391 руб/кв.м 26 989 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>11 539 руб, 391 руб/кв.м 10 756 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
     <t>Альфа-Актив</t>
@@ -988,7 +992,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>11 539 руб, 391 руб/кв.м 10 756 руб, 391 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>69 427 руб, 391—391 руб/кв.м</t>
   </si>
   <si>
     <t>Андрей</t>
@@ -1006,12 +1010,12 @@
     <t>от 35 до 190</t>
   </si>
   <si>
-    <t>69 427 руб, 391—391 руб/кв.м</t>
-  </si>
-  <si>
     <t>Отл. вариант для размещ. магазина и т.д. на курорте Нарочь без конкурентов, - при этом можно жить в этом же доме, кол-во жит. д.М.Сырмеж - 350, летом -600, возм. обмен</t>
   </si>
   <si>
+    <t>79 010 руб, 391 руб/кв.м</t>
+  </si>
+  <si>
     <t>Максим Николаевич</t>
   </si>
   <si>
@@ -1039,12 +1043,12 @@
     <t>260</t>
   </si>
   <si>
-    <t>79 010 руб, 391 руб/кв.м</t>
-  </si>
-  <si>
     <t>Возможна аренда по 2 у.е. за 1 кв/м. Возможна рассрочка платежа и арендные каникулы.Зачет стоимости ремонта в счет арендной платы.</t>
   </si>
   <si>
+    <t>92 113 руб, 391 руб/кв.м</t>
+  </si>
+  <si>
     <t>Юрий Войтехович</t>
   </si>
   <si>
@@ -1060,12 +1064,12 @@
     <t>Чуйкова</t>
   </si>
   <si>
-    <t>92 113 руб, 391 руб/кв.м</t>
-  </si>
-  <si>
     <t>Рядом с ж/д и автовокзалом. Склад - пристройка построен в 2010 г. Цена - с торговым оборудованием.</t>
   </si>
   <si>
+    <t>117 342 руб, 587 руб/кв.м</t>
+  </si>
+  <si>
     <t>Надежда</t>
   </si>
   <si>
@@ -1084,15 +1088,15 @@
     <t>375</t>
   </si>
   <si>
-    <t>117 342 руб, 587 руб/кв.м</t>
-  </si>
-  <si>
     <t>Подвальное помещение административно-торгового назначения.Вход со двора. На первом этаже здания продовольственный магазин и банк.</t>
   </si>
   <si>
     <t>5 476 руб, 782 руб/кв.м 5 672 руб, 587 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
+    <t>55 151 руб, 782 руб/кв.м</t>
+  </si>
+  <si>
     <t>Дмитрий</t>
   </si>
   <si>
@@ -1108,12 +1112,12 @@
     <t>100</t>
   </si>
   <si>
-    <t>55 151 руб, 782 руб/кв.м</t>
-  </si>
-  <si>
     <t>Торговое помещение, 2 этажа, автомобильная часть стройрынка.</t>
   </si>
   <si>
+    <t>181 489 руб, 587 руб/кв.м</t>
+  </si>
+  <si>
     <t>+375 29 684-32-38</t>
   </si>
   <si>
@@ -1123,12 +1127,12 @@
     <t>264.9</t>
   </si>
   <si>
-    <t>181 489 руб, 587 руб/кв.м</t>
-  </si>
-  <si>
     <t>Отдельно стоящее здание специализированное под розничную торговлю и кафе.Идеально для магазина или кафе!</t>
   </si>
   <si>
+    <t>27 967 руб, 782 руб/кв.м</t>
+  </si>
+  <si>
     <t>Александр</t>
   </si>
   <si>
@@ -1153,62 +1157,252 @@
     <t>от 50 до 63</t>
   </si>
   <si>
-    <t>27 967 руб, 782 руб/кв.м</t>
+    <t>7 823 руб, 587 руб/кв.м 9 387 руб, 782 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
   </si>
   <si>
     <t>12.8</t>
   </si>
   <si>
-    <t>7 823 руб, 587 руб/кв.м 9 387 руб, 782 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+    <t>07.07.2017</t>
+  </si>
+  <si>
+    <t>11 728 руб, 118 руб/кв.м 11 728 руб, 118 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>Едлино</t>
+  </si>
+  <si>
+    <t>Раздольная</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>99.7</t>
+  </si>
+  <si>
+    <t>Подробнее на сайте http://www.cpo.by/services/aukciony-po-realizacii-nedvizhimosti/magazin19</t>
+  </si>
+  <si>
+    <t>10 663 руб, 126 руб/кв.м 10 663 руб, 126 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>13 916 руб, 132 руб/кв.м 13 916 руб, 132 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>56 776 руб, 168—187 руб/кв.м 56 776 руб, 168—187 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.61 м</t>
+  </si>
+  <si>
+    <t>1 380 руб, 185 руб/кв.м</t>
+  </si>
+  <si>
+    <t>18 630 руб, 215 руб/кв.м 18 630 руб, 215 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>13 863 руб, 231 руб/кв.м 13 863 руб, 231 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>380 000 руб, 260 руб/кв.м</t>
+  </si>
+  <si>
+    <t>5 м</t>
+  </si>
+  <si>
+    <t>23 460 руб, 260 руб/кв.м 23 460 руб, 260 руб/кв.м  Цена сделки определяется по соглашению сторон. Расчеты осуществляются в белорусских рублях в соответствии с законодательством Республики Беларусь.</t>
+  </si>
+  <si>
+    <t>394 280 руб, 299 руб/кв.м</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3 м</t>
+  </si>
+  <si>
+    <t>647</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Здание капитальное, 5.5 х 9.3 х 4 м., ворота 4м., возле дороги, асфальт, рядом все коммуникации, возможно с подсобными помещениями.</t>
+  </si>
+  <si>
+    <t>690—759</t>
+  </si>
+  <si>
+    <t>+375 29 663-22-23, +375 33 623-17-30, +375 1592 322-23-00, +375 1592 226-03-00</t>
+  </si>
+  <si>
+    <t>zhuravinka@gmail.com</t>
+  </si>
+  <si>
+    <t>Гродненская</t>
+  </si>
+  <si>
+    <t>Сморгонь</t>
+  </si>
+  <si>
+    <t>пер</t>
+  </si>
+  <si>
+    <t>Школьный</t>
+  </si>
+  <si>
+    <t>от 34 до 903.3</t>
+  </si>
+  <si>
+    <t>2.7 м</t>
+  </si>
+  <si>
+    <t>Здание одноэтажное с мансардой, помещения которой сдается в аренду ИП под торговлю промышленными товарами, первый этаж - продовольственный магазин.</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>+375 29 672-47-34</t>
+  </si>
+  <si>
+    <t>rdmitr1409@mail.ru</t>
+  </si>
+  <si>
+    <t>Есенина</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>от 920 до 940</t>
+  </si>
+  <si>
+    <t>2.6 м</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>720—750</t>
+  </si>
+  <si>
+    <t>+375 29 735-84-20</t>
+  </si>
+  <si>
+    <t>profi2014@mail.ru</t>
+  </si>
+  <si>
+    <t>8-я</t>
+  </si>
+  <si>
+    <t>Иногородняя</t>
+  </si>
+  <si>
+    <t>я ул., 2</t>
+  </si>
+  <si>
+    <t>от 6 до 70</t>
+  </si>
+  <si>
+    <t>2.5 м</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>+375 29 682-14-42</t>
+  </si>
+  <si>
+    <t>6821442@mail.ru</t>
+  </si>
+  <si>
+    <t>Кричев</t>
+  </si>
+  <si>
+    <t>Фрунзе</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>+375 29 222-22-77, +375 16 221-31-25</t>
+  </si>
+  <si>
+    <t>16.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
-      <i/>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1333,95 +1527,89 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment textRotation="90" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
     <cellStyle name="Обычный 3" xfId="1"/>
+    <cellStyle builtinId="8" name="Гиперссылка" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1680,115 +1868,120 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG36"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" workbookViewId="0">
-      <selection activeCell="L46" sqref="A37:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="50.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" customWidth="1"/>
-    <col min="23" max="23" width="58.5703125" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="50" max="50" width="95.42578125" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" width="16.28515625"/>
+    <col customWidth="1" max="6" min="6" width="21.42578125"/>
+    <col customWidth="1" max="7" min="7" width="95.42578125"/>
+    <col customWidth="1" max="9" min="9" width="50.140625"/>
+    <col customWidth="1" max="10" min="10" width="19.140625"/>
+    <col customWidth="1" max="12" min="12" width="28.28515625"/>
+    <col customWidth="1" max="13" min="13" width="17"/>
+    <col customWidth="1" max="20" min="20" width="27.7109375"/>
+    <col customWidth="1" max="24" min="24" width="58.5703125"/>
+    <col customWidth="1" max="25" min="25" width="20.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="12.75" r="2" s="10" spans="1:69">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="1" t="s">
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="4" t="s">
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="2" t="n"/>
+      <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="22" t="s">
+      <c r="AA2" s="4" t="n"/>
+      <c r="AB2" s="4" t="n"/>
+      <c r="AC2" s="4" t="n"/>
+      <c r="AD2" s="4" t="n"/>
+      <c r="AE2" s="4" t="n"/>
+      <c r="AF2" s="4" t="n"/>
+      <c r="AG2" s="4" t="n"/>
+      <c r="AH2" s="5" t="n"/>
+      <c r="AI2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="6" t="s">
+      <c r="AJ2" s="4" t="n"/>
+      <c r="AK2" s="4" t="n"/>
+      <c r="AL2" s="5" t="n"/>
+      <c r="AM2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="7" t="s">
+      <c r="AN2" s="4" t="n"/>
+      <c r="AO2" s="4" t="n"/>
+      <c r="AP2" s="4" t="n"/>
+      <c r="AQ2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="7" t="s">
+      <c r="AS2" s="8" t="n"/>
+      <c r="AT2" s="8" t="n"/>
+      <c r="AU2" s="8" t="n"/>
+      <c r="AV2" s="8" t="n"/>
+      <c r="AW2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="9"/>
-    </row>
-    <row r="3" spans="1:59" s="21" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AX2" s="8" t="n"/>
+      <c r="AY2" s="8" t="n"/>
+      <c r="AZ2" s="8" t="n"/>
+      <c r="BA2" s="8" t="n"/>
+      <c r="BB2" s="24" t="n"/>
+      <c r="BC2" s="8" t="n"/>
+      <c r="BD2" s="8" t="n"/>
+      <c r="BE2" s="8" t="n"/>
+      <c r="BF2" s="9" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="21" spans="1:69">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1807,13 +2000,13 @@
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -1870,7 +2063,7 @@
       <c r="AA3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="AC3" s="14" t="s">
@@ -1879,7 +2072,7 @@
       <c r="AD3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="AF3" s="15" t="s">
@@ -1888,19 +2081,19 @@
       <c r="AG3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="23" t="s">
+      <c r="AH3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AI3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AJ3" s="17" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>44</v>
       </c>
       <c r="AK3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AL3" s="16" t="s">
+      <c r="AL3" s="17" t="s">
         <v>46</v>
       </c>
       <c r="AM3" s="16" t="s">
@@ -1912,10 +2105,10 @@
       <c r="AO3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="19" t="s">
+      <c r="AP3" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="AQ3" s="18" t="n"/>
       <c r="AR3" s="19" t="s">
         <v>51</v>
       </c>
@@ -1928,10 +2121,10 @@
       <c r="AU3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="16" t="s">
+      <c r="AV3" s="19" t="s">
         <v>55</v>
       </c>
+      <c r="AW3" s="18" t="n"/>
       <c r="AX3" s="16" t="s">
         <v>56</v>
       </c>
@@ -1963,91 +2156,91 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:69">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="25" t="n">
         <v>42907</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>48465</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>69</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>70</v>
       </c>
-      <c r="Q4">
+      <c r="R4" t="n">
         <v>21325</v>
       </c>
       <c r="BG4" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:69">
+      <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="25" t="n">
         <v>42915</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>55665</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>72</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>72</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>73</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>74</v>
       </c>
       <c r="BG5" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:69">
+      <c r="A6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="25" t="n">
         <v>42915</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>134124</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>72</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>72</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>73</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>75</v>
       </c>
       <c r="BG6" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69">
       <c r="D7" t="s">
         <v>76</v>
       </c>
@@ -2060,13 +2253,13 @@
       <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="L7" t="s">
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
         <v>66</v>
       </c>
-      <c r="P7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>81</v>
       </c>
       <c r="S7" t="s">
@@ -2078,16 +2271,16 @@
       <c r="U7" t="s">
         <v>84</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="V7" t="s">
         <v>85</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AI7" t="s">
         <v>86</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AM7" t="s">
         <v>87</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AR7" t="s">
         <v>88</v>
       </c>
       <c r="AY7" t="s">
@@ -2097,26 +2290,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69">
       <c r="D8" t="s">
         <v>76</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
         <v>66</v>
       </c>
-      <c r="P8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="Q8" t="s">
         <v>93</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AI8" t="s">
         <v>94</v>
       </c>
       <c r="AY8" t="s">
@@ -2126,60 +2319,60 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69">
       <c r="D9" t="s">
         <v>76</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>96</v>
       </c>
-      <c r="L9" t="s">
+      <c r="I9" t="s">
         <v>97</v>
       </c>
-      <c r="P9" t="s">
+      <c r="M9" t="s">
         <v>98</v>
       </c>
-      <c r="R9" t="s">
-        <v>81</v>
+      <c r="Q9" t="s">
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s">
         <v>100</v>
       </c>
       <c r="U9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH9" t="s">
         <v>101</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="V9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI9" t="s">
         <v>102</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>87</v>
+      <c r="AM9" t="s">
+        <v>103</v>
       </c>
       <c r="AR9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>88</v>
       </c>
       <c r="BF9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69">
       <c r="D10" t="s">
         <v>76</v>
       </c>
@@ -2192,17 +2385,17 @@
       <c r="I10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" t="s">
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="s">
         <v>66</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>72</v>
       </c>
-      <c r="R10" t="s">
-        <v>81</v>
-      </c>
       <c r="S10" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
         <v>109</v>
@@ -2210,14 +2403,14 @@
       <c r="U10" t="s">
         <v>110</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="V10" t="s">
         <v>111</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX10" t="s">
+      <c r="AI10" t="s">
         <v>112</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>88</v>
       </c>
       <c r="AY10" t="s">
         <v>113</v>
@@ -2226,30 +2419,30 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69">
       <c r="D11" t="s">
         <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
         <v>66</v>
       </c>
-      <c r="P11" t="s">
-        <v>115</v>
-      </c>
-      <c r="R11" t="s">
-        <v>81</v>
+      <c r="Q11" t="s">
+        <v>116</v>
       </c>
       <c r="S11" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
         <v>117</v>
@@ -2257,17 +2450,17 @@
       <c r="U11" t="s">
         <v>118</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="V11" t="s">
         <v>119</v>
       </c>
-      <c r="AL11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX11" t="s">
+      <c r="AI11" t="s">
         <v>120</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>88</v>
       </c>
       <c r="AY11" t="s">
         <v>89</v>
@@ -2276,45 +2469,45 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69">
       <c r="D12" t="s">
         <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
         <v>66</v>
       </c>
-      <c r="P12" t="s">
-        <v>123</v>
-      </c>
-      <c r="R12" t="s">
-        <v>81</v>
+      <c r="Q12" t="s">
+        <v>124</v>
       </c>
       <c r="S12" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="U12" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" t="s">
         <v>125</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX12" t="s">
+      <c r="AI12" t="s">
         <v>126</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>88</v>
       </c>
       <c r="AY12" t="s">
         <v>89</v>
@@ -2323,51 +2516,51 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69">
       <c r="D13" t="s">
         <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" t="s">
         <v>66</v>
       </c>
-      <c r="P13" t="s">
-        <v>129</v>
-      </c>
-      <c r="R13" t="s">
-        <v>81</v>
+      <c r="Q13" t="s">
+        <v>130</v>
       </c>
       <c r="S13" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="U13" t="s">
         <v>84</v>
       </c>
-      <c r="AH13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX13" t="s">
+      <c r="V13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s">
         <v>132</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>88</v>
       </c>
       <c r="AY13" t="s">
         <v>89</v>
@@ -2376,7 +2569,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69">
       <c r="D14" t="s">
         <v>76</v>
       </c>
@@ -2389,17 +2582,17 @@
       <c r="I14" t="s">
         <v>136</v>
       </c>
-      <c r="L14" t="s">
+      <c r="J14" t="s">
         <v>137</v>
       </c>
-      <c r="P14" t="s">
+      <c r="M14" t="s">
         <v>138</v>
       </c>
-      <c r="R14" t="s">
-        <v>81</v>
+      <c r="Q14" t="s">
+        <v>139</v>
       </c>
       <c r="S14" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
         <v>140</v>
@@ -2407,35 +2600,35 @@
       <c r="U14" t="s">
         <v>141</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="V14" t="s">
         <v>142</v>
       </c>
-      <c r="AL14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>87</v>
+      <c r="AI14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>103</v>
       </c>
       <c r="AR14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS14" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="AT14" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="AU14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>144</v>
+        <v>88</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>88</v>
       </c>
       <c r="BF14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69">
       <c r="D15" t="s">
         <v>76</v>
       </c>
@@ -2448,17 +2641,17 @@
       <c r="I15" t="s">
         <v>148</v>
       </c>
-      <c r="L15" t="s">
+      <c r="J15" t="s">
         <v>149</v>
       </c>
-      <c r="P15" t="s">
+      <c r="M15" t="s">
         <v>150</v>
       </c>
-      <c r="R15" t="s">
-        <v>81</v>
+      <c r="Q15" t="s">
+        <v>151</v>
       </c>
       <c r="S15" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s">
         <v>152</v>
@@ -2466,29 +2659,29 @@
       <c r="U15" t="s">
         <v>153</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="V15" t="s">
         <v>154</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AI15" t="s">
         <v>155</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>87</v>
+      <c r="AM15" t="s">
+        <v>156</v>
       </c>
       <c r="AR15" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="AS15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AT15" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="AU15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>156</v>
+        <v>88</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>88</v>
       </c>
       <c r="AY15" t="s">
         <v>113</v>
@@ -2497,7 +2690,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69">
       <c r="D16" t="s">
         <v>76</v>
       </c>
@@ -2510,47 +2703,47 @@
       <c r="I16" t="s">
         <v>160</v>
       </c>
-      <c r="L16" t="s">
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" t="s">
-        <v>161</v>
-      </c>
-      <c r="T16" t="s">
-        <v>100</v>
+      <c r="Q16" t="s">
+        <v>162</v>
       </c>
       <c r="U16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="V16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>103</v>
       </c>
       <c r="AR16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>163</v>
+        <v>88</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>88</v>
       </c>
       <c r="BF16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69">
       <c r="C17" t="s">
         <v>165</v>
       </c>
@@ -2560,32 +2753,32 @@
       <c r="E17" t="s">
         <v>166</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>1118514</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" t="s">
         <v>168</v>
       </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
       <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="Q17" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" t="s">
         <v>73</v>
-      </c>
-      <c r="S17" t="s">
-        <v>82</v>
       </c>
       <c r="T17" t="s">
         <v>83</v>
@@ -2593,23 +2786,23 @@
       <c r="U17" t="s">
         <v>84</v>
       </c>
-      <c r="W17" t="s">
-        <v>169</v>
+      <c r="V17" t="s">
+        <v>85</v>
       </c>
       <c r="X17" t="s">
         <v>170</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="Y17" t="s">
         <v>171</v>
       </c>
-      <c r="AL17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ17" t="s">
+      <c r="AI17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM17" t="s">
         <v>87</v>
       </c>
-      <c r="AX17" t="s">
-        <v>172</v>
+      <c r="AR17" t="s">
+        <v>88</v>
       </c>
       <c r="AY17" t="s">
         <v>89</v>
@@ -2618,7 +2811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69">
       <c r="C18" t="s">
         <v>165</v>
       </c>
@@ -2628,34 +2821,34 @@
       <c r="E18" t="s">
         <v>166</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>1044659</v>
       </c>
-      <c r="H18" t="s">
-        <v>167</v>
+      <c r="G18" t="s">
+        <v>173</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" t="s">
         <v>168</v>
       </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
       <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="s">
         <v>66</v>
       </c>
-      <c r="P18" t="s">
-        <v>92</v>
-      </c>
-      <c r="W18" t="s">
-        <v>169</v>
+      <c r="Q18" t="s">
+        <v>93</v>
       </c>
       <c r="X18" t="s">
         <v>170</v>
       </c>
-      <c r="AH18" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX18" t="s">
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI18" t="s">
         <v>174</v>
       </c>
       <c r="AY18" t="s">
@@ -2665,7 +2858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69">
       <c r="C19" t="s">
         <v>165</v>
       </c>
@@ -2675,68 +2868,68 @@
       <c r="E19" t="s">
         <v>166</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>960339</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>175</v>
       </c>
-      <c r="K19" t="s">
-        <v>168</v>
+      <c r="I19" t="s">
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="s">
         <v>98</v>
       </c>
-      <c r="R19" t="s">
+      <c r="Q19" t="s">
+        <v>99</v>
+      </c>
+      <c r="S19" t="s">
         <v>73</v>
       </c>
-      <c r="S19" t="s">
-        <v>99</v>
-      </c>
       <c r="T19" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="U19" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19" t="s">
-        <v>169</v>
+        <v>177</v>
+      </c>
+      <c r="V19" t="s">
+        <v>85</v>
       </c>
       <c r="X19" t="s">
         <v>170</v>
       </c>
-      <c r="AH19" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>87</v>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>103</v>
       </c>
       <c r="AR19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>178</v>
+        <v>88</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>88</v>
       </c>
       <c r="BF19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69">
       <c r="C20" t="s">
         <v>165</v>
       </c>
@@ -2746,53 +2939,53 @@
       <c r="E20" t="s">
         <v>166</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>1100288</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" t="s">
-        <v>168</v>
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
       </c>
       <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="s">
         <v>66</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>72</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>73</v>
       </c>
-      <c r="S20" t="s">
-        <v>108</v>
-      </c>
       <c r="T20" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="U20" t="s">
-        <v>141</v>
-      </c>
-      <c r="W20" t="s">
-        <v>169</v>
+        <v>181</v>
+      </c>
+      <c r="V20" t="s">
+        <v>142</v>
       </c>
       <c r="X20" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH20" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="s">
         <v>182</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX20" t="s">
+      <c r="AI20" t="s">
         <v>183</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>88</v>
       </c>
       <c r="AY20" t="s">
         <v>113</v>
@@ -2801,7 +2994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69">
       <c r="C21" t="s">
         <v>165</v>
       </c>
@@ -2811,56 +3004,56 @@
       <c r="E21" t="s">
         <v>166</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>1118508</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" t="s">
         <v>168</v>
       </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
       <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="s">
         <v>66</v>
       </c>
-      <c r="P21" t="s">
-        <v>115</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="Q21" t="s">
+        <v>116</v>
+      </c>
+      <c r="S21" t="s">
         <v>73</v>
       </c>
-      <c r="S21" t="s">
-        <v>116</v>
-      </c>
       <c r="T21" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="U21" t="s">
-        <v>118</v>
-      </c>
-      <c r="W21" t="s">
-        <v>169</v>
+        <v>185</v>
+      </c>
+      <c r="V21" t="s">
+        <v>119</v>
       </c>
       <c r="X21" t="s">
         <v>170</v>
       </c>
-      <c r="AH21" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX21" t="s">
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI21" t="s">
         <v>186</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>88</v>
       </c>
       <c r="AY21" t="s">
         <v>89</v>
@@ -2869,7 +3062,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69">
       <c r="C22" t="s">
         <v>165</v>
       </c>
@@ -2879,53 +3072,53 @@
       <c r="E22" t="s">
         <v>166</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>1118488</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" t="s">
         <v>168</v>
       </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
       <c r="L22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="s">
         <v>66</v>
       </c>
-      <c r="P22" t="s">
-        <v>123</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="Q22" t="s">
+        <v>124</v>
+      </c>
+      <c r="S22" t="s">
         <v>73</v>
       </c>
-      <c r="S22" t="s">
-        <v>116</v>
-      </c>
       <c r="T22" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="U22" t="s">
-        <v>124</v>
-      </c>
-      <c r="W22" t="s">
-        <v>169</v>
+        <v>84</v>
+      </c>
+      <c r="V22" t="s">
+        <v>125</v>
       </c>
       <c r="X22" t="s">
         <v>170</v>
       </c>
-      <c r="AH22" t="s">
-        <v>187</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX22" t="s">
+      <c r="Y22" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI22" t="s">
         <v>188</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>88</v>
       </c>
       <c r="AY22" t="s">
         <v>89</v>
@@ -2934,7 +3127,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69">
       <c r="C23" t="s">
         <v>165</v>
       </c>
@@ -2944,59 +3137,59 @@
       <c r="E23" t="s">
         <v>166</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>1118477</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="H23" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" t="s">
         <v>168</v>
       </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
       <c r="L23" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" t="s">
         <v>66</v>
       </c>
-      <c r="P23" t="s">
-        <v>129</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="Q23" t="s">
+        <v>130</v>
+      </c>
+      <c r="S23" t="s">
         <v>73</v>
       </c>
-      <c r="S23" t="s">
-        <v>130</v>
-      </c>
       <c r="T23" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="U23" t="s">
-        <v>84</v>
-      </c>
-      <c r="W23" t="s">
-        <v>169</v>
+        <v>190</v>
+      </c>
+      <c r="V23" t="s">
+        <v>85</v>
       </c>
       <c r="X23" t="s">
         <v>170</v>
       </c>
-      <c r="AH23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX23" t="s">
+      <c r="Y23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI23" t="s">
         <v>191</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>88</v>
       </c>
       <c r="AY23" t="s">
         <v>89</v>
@@ -3005,7 +3198,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69">
       <c r="C24" t="s">
         <v>165</v>
       </c>
@@ -3015,11 +3208,11 @@
       <c r="E24" t="s">
         <v>166</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>935363</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="H24" t="s">
         <v>135</v>
@@ -3027,20 +3220,20 @@
       <c r="I24" t="s">
         <v>136</v>
       </c>
-      <c r="K24" t="s">
-        <v>192</v>
+      <c r="J24" t="s">
+        <v>137</v>
       </c>
       <c r="L24" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="s">
         <v>138</v>
       </c>
-      <c r="R24" t="s">
+      <c r="Q24" t="s">
+        <v>139</v>
+      </c>
+      <c r="S24" t="s">
         <v>73</v>
-      </c>
-      <c r="S24" t="s">
-        <v>139</v>
       </c>
       <c r="T24" t="s">
         <v>140</v>
@@ -3048,41 +3241,41 @@
       <c r="U24" t="s">
         <v>141</v>
       </c>
-      <c r="W24" t="s">
-        <v>193</v>
+      <c r="V24" t="s">
+        <v>142</v>
       </c>
       <c r="X24" t="s">
         <v>194</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="Y24" t="s">
         <v>195</v>
       </c>
-      <c r="AL24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>87</v>
+      <c r="AI24" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>103</v>
       </c>
       <c r="AR24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS24" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="AT24" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="AU24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>196</v>
+        <v>88</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>88</v>
       </c>
       <c r="BF24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69">
       <c r="C25" t="s">
         <v>165</v>
       </c>
@@ -3092,68 +3285,68 @@
       <c r="E25" t="s">
         <v>166</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>861386</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="H25" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25" t="s">
-        <v>168</v>
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>149</v>
       </c>
       <c r="L25" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" t="s">
+        <v>169</v>
+      </c>
+      <c r="M25" t="s">
         <v>150</v>
       </c>
-      <c r="R25" t="s">
-        <v>81</v>
+      <c r="Q25" t="s">
+        <v>151</v>
       </c>
       <c r="S25" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="U25" t="s">
-        <v>153</v>
-      </c>
-      <c r="W25" t="s">
         <v>199</v>
+      </c>
+      <c r="V25" t="s">
+        <v>154</v>
       </c>
       <c r="X25" t="s">
         <v>200</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="Y25" t="s">
         <v>201</v>
       </c>
-      <c r="AL25" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>87</v>
+      <c r="AI25" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>156</v>
       </c>
       <c r="AR25" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="AS25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AT25" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="AU25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>202</v>
+        <v>88</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>88</v>
       </c>
       <c r="AY25" t="s">
         <v>113</v>
@@ -3162,7 +3355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69">
       <c r="C26" t="s">
         <v>165</v>
       </c>
@@ -3172,68 +3365,68 @@
       <c r="E26" t="s">
         <v>166</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>1015172</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="H26" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="I26" t="s">
-        <v>160</v>
-      </c>
-      <c r="K26" t="s">
-        <v>168</v>
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>161</v>
       </c>
       <c r="L26" t="s">
+        <v>169</v>
+      </c>
+      <c r="M26" t="s">
         <v>66</v>
       </c>
-      <c r="P26" t="s">
-        <v>161</v>
-      </c>
-      <c r="T26" t="s">
-        <v>176</v>
+      <c r="Q26" t="s">
+        <v>162</v>
       </c>
       <c r="U26" t="s">
-        <v>141</v>
-      </c>
-      <c r="W26" t="s">
-        <v>169</v>
+        <v>177</v>
+      </c>
+      <c r="V26" t="s">
+        <v>142</v>
       </c>
       <c r="X26" t="s">
         <v>170</v>
       </c>
-      <c r="AH26" t="s">
-        <v>204</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>87</v>
+      <c r="Y26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>103</v>
       </c>
       <c r="AR26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>205</v>
+        <v>88</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>88</v>
       </c>
       <c r="BF26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69">
       <c r="C27" t="s">
         <v>165</v>
       </c>
@@ -3243,7 +3436,7 @@
       <c r="E27" t="s">
         <v>166</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>1119514</v>
       </c>
       <c r="G27" t="s">
@@ -3255,29 +3448,29 @@
       <c r="I27" t="s">
         <v>208</v>
       </c>
-      <c r="K27" t="s">
-        <v>168</v>
+      <c r="J27" t="s">
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
-      </c>
-      <c r="P27" t="s">
-        <v>209</v>
-      </c>
-      <c r="W27" t="s">
         <v>169</v>
       </c>
+      <c r="M27" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>210</v>
+      </c>
       <c r="X27" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX27" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69">
       <c r="C28" t="s">
         <v>165</v>
       </c>
@@ -3287,7 +3480,7 @@
       <c r="E28" t="s">
         <v>166</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>992681</v>
       </c>
       <c r="G28" t="s">
@@ -3299,44 +3492,44 @@
       <c r="I28" t="s">
         <v>214</v>
       </c>
-      <c r="K28" t="s">
-        <v>168</v>
+      <c r="J28" t="s">
+        <v>215</v>
       </c>
       <c r="L28" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" t="s">
         <v>66</v>
       </c>
-      <c r="P28" t="s">
-        <v>215</v>
-      </c>
-      <c r="W28" t="s">
-        <v>169</v>
+      <c r="Q28" t="s">
+        <v>216</v>
       </c>
       <c r="X28" t="s">
         <v>170</v>
       </c>
-      <c r="AH28" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>87</v>
+      <c r="Y28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>103</v>
       </c>
       <c r="AR28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>217</v>
+        <v>88</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>88</v>
       </c>
       <c r="AY28" t="s">
         <v>113</v>
@@ -3345,7 +3538,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69">
       <c r="C29" t="s">
         <v>165</v>
       </c>
@@ -3355,7 +3548,7 @@
       <c r="E29" t="s">
         <v>166</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>940701</v>
       </c>
       <c r="G29" t="s">
@@ -3367,16 +3560,16 @@
       <c r="I29" t="s">
         <v>221</v>
       </c>
-      <c r="K29" t="s">
-        <v>168</v>
+      <c r="J29" t="s">
+        <v>222</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
-      </c>
-      <c r="P29" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" t="s">
         <v>223</v>
       </c>
-      <c r="R29" t="s">
+      <c r="Q29" t="s">
         <v>224</v>
       </c>
       <c r="S29" t="s">
@@ -3386,37 +3579,37 @@
         <v>226</v>
       </c>
       <c r="U29" t="s">
-        <v>141</v>
-      </c>
-      <c r="W29" t="s">
-        <v>169</v>
+        <v>227</v>
+      </c>
+      <c r="V29" t="s">
+        <v>142</v>
       </c>
       <c r="X29" t="s">
         <v>170</v>
       </c>
-      <c r="AH29" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>87</v>
+      <c r="Y29" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>103</v>
       </c>
       <c r="AR29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>228</v>
+        <v>88</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>88</v>
       </c>
       <c r="AY29" t="s">
         <v>113</v>
@@ -3425,7 +3618,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69">
       <c r="C30" t="s">
         <v>165</v>
       </c>
@@ -3435,7 +3628,7 @@
       <c r="E30" t="s">
         <v>166</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>663588</v>
       </c>
       <c r="G30" t="s">
@@ -3447,53 +3640,53 @@
       <c r="I30" t="s">
         <v>232</v>
       </c>
-      <c r="K30" t="s">
-        <v>168</v>
+      <c r="J30" t="s">
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>97</v>
-      </c>
-      <c r="P30" t="s">
-        <v>233</v>
-      </c>
-      <c r="R30" t="s">
-        <v>81</v>
+        <v>169</v>
+      </c>
+      <c r="M30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>234</v>
       </c>
       <c r="S30" t="s">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s">
-        <v>109</v>
-      </c>
-      <c r="W30" t="s">
-        <v>169</v>
+        <v>235</v>
+      </c>
+      <c r="U30" t="s">
+        <v>110</v>
       </c>
       <c r="X30" t="s">
         <v>170</v>
       </c>
-      <c r="AH30" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>87</v>
+      <c r="Y30" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>103</v>
       </c>
       <c r="AR30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>235</v>
+        <v>88</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>88</v>
       </c>
       <c r="AY30" t="s">
         <v>113</v>
@@ -3502,7 +3695,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69">
       <c r="C31" t="s">
         <v>165</v>
       </c>
@@ -3512,7 +3705,7 @@
       <c r="E31" t="s">
         <v>166</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>1073353</v>
       </c>
       <c r="G31" t="s">
@@ -3524,50 +3717,50 @@
       <c r="I31" t="s">
         <v>239</v>
       </c>
-      <c r="K31" t="s">
-        <v>168</v>
+      <c r="J31" t="s">
+        <v>240</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
-      </c>
-      <c r="P31" t="s">
-        <v>240</v>
-      </c>
-      <c r="R31" t="s">
+        <v>169</v>
+      </c>
+      <c r="M31" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>241</v>
+      </c>
+      <c r="S31" t="s">
         <v>73</v>
       </c>
-      <c r="S31" t="s">
-        <v>241</v>
-      </c>
-      <c r="W31" t="s">
-        <v>199</v>
+      <c r="T31" t="s">
+        <v>242</v>
       </c>
       <c r="X31" t="s">
         <v>200</v>
       </c>
-      <c r="AH31" t="s">
-        <v>242</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>87</v>
+      <c r="Y31" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>103</v>
       </c>
       <c r="AR31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>243</v>
+        <v>88</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>88</v>
       </c>
       <c r="AY31" t="s">
         <v>113</v>
@@ -3576,7 +3769,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69">
       <c r="C32" t="s">
         <v>165</v>
       </c>
@@ -3586,11 +3779,11 @@
       <c r="E32" t="s">
         <v>166</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>1117407</v>
       </c>
       <c r="G32" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="H32" t="s">
         <v>207</v>
@@ -3598,29 +3791,29 @@
       <c r="I32" t="s">
         <v>208</v>
       </c>
-      <c r="K32" t="s">
-        <v>168</v>
+      <c r="J32" t="s">
+        <v>209</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32" t="s">
-        <v>209</v>
-      </c>
-      <c r="W32" t="s">
         <v>169</v>
       </c>
+      <c r="M32" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>210</v>
+      </c>
       <c r="X32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>226</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="3:58" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:69">
       <c r="C33" t="s">
         <v>165</v>
       </c>
@@ -3630,7 +3823,7 @@
       <c r="E33" t="s">
         <v>166</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>435877</v>
       </c>
       <c r="G33" t="s">
@@ -3639,56 +3832,56 @@
       <c r="H33" t="s">
         <v>247</v>
       </c>
-      <c r="K33" t="s">
-        <v>168</v>
+      <c r="I33" t="s">
+        <v>248</v>
       </c>
       <c r="L33" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" t="s">
         <v>66</v>
       </c>
-      <c r="P33" t="s">
-        <v>248</v>
-      </c>
-      <c r="R33" t="s">
-        <v>81</v>
+      <c r="Q33" t="s">
+        <v>249</v>
       </c>
       <c r="S33" t="s">
-        <v>249</v>
-      </c>
-      <c r="W33" t="s">
-        <v>199</v>
+        <v>82</v>
+      </c>
+      <c r="T33" t="s">
+        <v>250</v>
       </c>
       <c r="X33" t="s">
         <v>200</v>
       </c>
-      <c r="AH33" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>87</v>
+      <c r="Y33" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>103</v>
       </c>
       <c r="AR33" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="AS33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AT33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AU33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>251</v>
+        <v>144</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>144</v>
       </c>
       <c r="BF33" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69">
       <c r="C34" t="s">
         <v>165</v>
       </c>
@@ -3698,50 +3891,50 @@
       <c r="E34" t="s">
         <v>166</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>850464</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="K34" t="s">
-        <v>168</v>
+      <c r="I34" t="s">
+        <v>254</v>
       </c>
       <c r="L34" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" t="s">
         <v>66</v>
       </c>
-      <c r="P34" t="s">
-        <v>254</v>
-      </c>
-      <c r="W34" t="s">
-        <v>169</v>
+      <c r="Q34" t="s">
+        <v>255</v>
       </c>
       <c r="X34" t="s">
         <v>170</v>
       </c>
-      <c r="AH34" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>87</v>
+      <c r="Y34" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>103</v>
       </c>
       <c r="AR34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>256</v>
+        <v>88</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>88</v>
       </c>
       <c r="AY34" t="s">
         <v>113</v>
@@ -3750,7 +3943,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69">
       <c r="C35" t="s">
         <v>165</v>
       </c>
@@ -3760,7 +3953,7 @@
       <c r="E35" t="s">
         <v>166</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>989978</v>
       </c>
       <c r="G35" t="s">
@@ -3772,20 +3965,20 @@
       <c r="I35" t="s">
         <v>260</v>
       </c>
-      <c r="K35" t="s">
-        <v>168</v>
+      <c r="J35" t="s">
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>137</v>
-      </c>
-      <c r="P35" t="s">
-        <v>261</v>
-      </c>
-      <c r="R35" t="s">
+        <v>169</v>
+      </c>
+      <c r="M35" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>262</v>
+      </c>
+      <c r="S35" t="s">
         <v>73</v>
-      </c>
-      <c r="S35" t="s">
-        <v>262</v>
       </c>
       <c r="T35" t="s">
         <v>263</v>
@@ -3793,38 +3986,38 @@
       <c r="U35" t="s">
         <v>264</v>
       </c>
-      <c r="W35" t="s">
-        <v>169</v>
+      <c r="V35" t="s">
+        <v>265</v>
       </c>
       <c r="X35" t="s">
         <v>170</v>
       </c>
-      <c r="AH35" t="s">
-        <v>265</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>87</v>
+      <c r="Y35" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>103</v>
       </c>
       <c r="AR35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU35" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="3:58" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:69">
       <c r="C36" t="s">
         <v>165</v>
       </c>
@@ -3834,11 +4027,11 @@
       <c r="E36" t="s">
         <v>166</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>1119223</v>
       </c>
       <c r="G36" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="H36" t="s">
         <v>207</v>
@@ -3846,26 +4039,1353 @@
       <c r="I36" t="s">
         <v>208</v>
       </c>
-      <c r="K36" t="s">
+      <c r="J36" t="s">
+        <v>209</v>
+      </c>
+      <c r="L36" t="s">
+        <v>169</v>
+      </c>
+      <c r="M36" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>210</v>
+      </c>
+      <c r="X36" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:69">
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1118583</v>
+      </c>
+      <c r="G37" t="s">
+        <v>270</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s">
         <v>168</v>
       </c>
-      <c r="L36" t="s">
+      <c r="J37" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" t="s">
+        <v>169</v>
+      </c>
+      <c r="M37" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>271</v>
+      </c>
+      <c r="S37" t="s">
+        <v>82</v>
+      </c>
+      <c r="T37" t="s">
+        <v>272</v>
+      </c>
+      <c r="U37" t="s">
+        <v>273</v>
+      </c>
+      <c r="X37" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:69">
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1118514</v>
+      </c>
+      <c r="G38" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" t="s">
+        <v>80</v>
+      </c>
+      <c r="L38" t="s">
+        <v>169</v>
+      </c>
+      <c r="M38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T38" t="s">
+        <v>83</v>
+      </c>
+      <c r="U38" t="s">
+        <v>154</v>
+      </c>
+      <c r="V38" t="s">
+        <v>85</v>
+      </c>
+      <c r="X38" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:69">
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1044659</v>
+      </c>
+      <c r="G39" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L39" t="s">
+        <v>169</v>
+      </c>
+      <c r="M39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>93</v>
+      </c>
+      <c r="X39" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:69">
+      <c r="C40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="n">
+        <v>960339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L40" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>99</v>
+      </c>
+      <c r="S40" t="s">
+        <v>73</v>
+      </c>
+      <c r="T40" t="s">
+        <v>100</v>
+      </c>
+      <c r="U40" t="s">
+        <v>279</v>
+      </c>
+      <c r="V40" t="s">
+        <v>85</v>
+      </c>
+      <c r="X40" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:69">
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1100288</v>
+      </c>
+      <c r="G41" t="s">
+        <v>281</v>
+      </c>
+      <c r="H41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+      <c r="L41" t="s">
+        <v>169</v>
+      </c>
+      <c r="M41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>72</v>
+      </c>
+      <c r="S41" t="s">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s">
+        <v>109</v>
+      </c>
+      <c r="U41" t="s">
+        <v>110</v>
+      </c>
+      <c r="V41" t="s">
+        <v>111</v>
+      </c>
+      <c r="X41" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:69">
+      <c r="C42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1118508</v>
+      </c>
+      <c r="G42" t="s">
+        <v>282</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" t="s">
+        <v>169</v>
+      </c>
+      <c r="M42" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>116</v>
+      </c>
+      <c r="S42" t="s">
+        <v>73</v>
+      </c>
+      <c r="T42" t="s">
+        <v>117</v>
+      </c>
+      <c r="U42" t="s">
+        <v>185</v>
+      </c>
+      <c r="V42" t="s">
+        <v>119</v>
+      </c>
+      <c r="X42" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:69">
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1118488</v>
+      </c>
+      <c r="G43" t="s">
+        <v>283</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+      <c r="L43" t="s">
+        <v>169</v>
+      </c>
+      <c r="M43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>124</v>
+      </c>
+      <c r="S43" t="s">
+        <v>73</v>
+      </c>
+      <c r="T43" t="s">
+        <v>117</v>
+      </c>
+      <c r="U43" t="s">
+        <v>84</v>
+      </c>
+      <c r="V43" t="s">
+        <v>125</v>
+      </c>
+      <c r="X43" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:69">
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" t="n">
+        <v>935363</v>
+      </c>
+      <c r="G44" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44" t="s">
+        <v>137</v>
+      </c>
+      <c r="L44" t="s">
+        <v>193</v>
+      </c>
+      <c r="M44" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>139</v>
+      </c>
+      <c r="S44" t="s">
+        <v>73</v>
+      </c>
+      <c r="T44" t="s">
+        <v>140</v>
+      </c>
+      <c r="U44" t="s">
+        <v>141</v>
+      </c>
+      <c r="V44" t="s">
+        <v>142</v>
+      </c>
+      <c r="X44" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:69">
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1118477</v>
+      </c>
+      <c r="G45" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s">
+        <v>168</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+      <c r="L45" t="s">
+        <v>169</v>
+      </c>
+      <c r="M45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>130</v>
+      </c>
+      <c r="S45" t="s">
+        <v>73</v>
+      </c>
+      <c r="T45" t="s">
+        <v>131</v>
+      </c>
+      <c r="U45" t="s">
+        <v>154</v>
+      </c>
+      <c r="V45" t="s">
+        <v>85</v>
+      </c>
+      <c r="X45" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:69">
+      <c r="C46" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" t="n">
+        <v>861386</v>
+      </c>
+      <c r="G46" t="s">
+        <v>287</v>
+      </c>
+      <c r="H46" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" t="s">
         <v>149</v>
       </c>
-      <c r="P36" t="s">
+      <c r="L46" t="s">
+        <v>169</v>
+      </c>
+      <c r="M46" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>151</v>
+      </c>
+      <c r="S46" t="s">
+        <v>82</v>
+      </c>
+      <c r="T46" t="s">
+        <v>152</v>
+      </c>
+      <c r="U46" t="s">
+        <v>199</v>
+      </c>
+      <c r="V46" t="s">
+        <v>154</v>
+      </c>
+      <c r="X46" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:69">
+      <c r="C47" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" t="n">
+        <v>850464</v>
+      </c>
+      <c r="G47" t="s">
+        <v>288</v>
+      </c>
+      <c r="I47" t="s">
+        <v>254</v>
+      </c>
+      <c r="L47" t="s">
+        <v>169</v>
+      </c>
+      <c r="M47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>255</v>
+      </c>
+      <c r="X47" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:69">
+      <c r="C48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" t="n">
+        <v>989978</v>
+      </c>
+      <c r="G48" t="s">
+        <v>289</v>
+      </c>
+      <c r="H48" t="s">
+        <v>259</v>
+      </c>
+      <c r="I48" t="s">
+        <v>260</v>
+      </c>
+      <c r="J48" t="s">
+        <v>261</v>
+      </c>
+      <c r="L48" t="s">
+        <v>169</v>
+      </c>
+      <c r="M48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>262</v>
+      </c>
+      <c r="S48" t="s">
+        <v>73</v>
+      </c>
+      <c r="T48" t="s">
+        <v>263</v>
+      </c>
+      <c r="U48" t="s">
+        <v>290</v>
+      </c>
+      <c r="V48" t="s">
+        <v>265</v>
+      </c>
+      <c r="X48" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>266</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:69">
+      <c r="C49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1119223</v>
+      </c>
+      <c r="G49" t="s">
+        <v>292</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" t="s">
         <v>209</v>
       </c>
-      <c r="W36" t="s">
+      <c r="L49" t="s">
         <v>169</v>
       </c>
-      <c r="X36" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX36" t="s">
+      <c r="M49" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>210</v>
+      </c>
+      <c r="X49" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI49" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:69">
+      <c r="C50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" t="n">
+        <v>935357</v>
+      </c>
+      <c r="G50" t="s">
+        <v>293</v>
+      </c>
+      <c r="H50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" t="s">
+        <v>137</v>
+      </c>
+      <c r="L50" t="s">
+        <v>169</v>
+      </c>
+      <c r="M50" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>139</v>
+      </c>
+      <c r="S50" t="s">
+        <v>73</v>
+      </c>
+      <c r="T50" t="s">
+        <v>140</v>
+      </c>
+      <c r="U50" t="s">
+        <v>141</v>
+      </c>
+      <c r="V50" t="s">
+        <v>142</v>
+      </c>
+      <c r="X50" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:69">
+      <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1056834</v>
+      </c>
+      <c r="G51" t="s">
+        <v>296</v>
+      </c>
+      <c r="H51" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" t="s">
+        <v>298</v>
+      </c>
+      <c r="L51" t="s">
+        <v>169</v>
+      </c>
+      <c r="M51" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>300</v>
+      </c>
+      <c r="S51" t="s">
+        <v>301</v>
+      </c>
+      <c r="T51" t="s">
+        <v>302</v>
+      </c>
+      <c r="U51" t="s">
+        <v>141</v>
+      </c>
+      <c r="X51" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:69">
+      <c r="C52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1091779</v>
+      </c>
+      <c r="G52" t="s">
+        <v>306</v>
+      </c>
+      <c r="H52" t="s">
+        <v>307</v>
+      </c>
+      <c r="I52" t="s">
+        <v>308</v>
+      </c>
+      <c r="J52" t="s">
+        <v>309</v>
+      </c>
+      <c r="L52" t="s">
+        <v>169</v>
+      </c>
+      <c r="M52" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s">
+        <v>73</v>
+      </c>
+      <c r="T52" t="s">
+        <v>310</v>
+      </c>
+      <c r="U52" t="s">
+        <v>311</v>
+      </c>
+      <c r="X52" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:69">
+      <c r="C53" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1119071</v>
+      </c>
+      <c r="G53" t="s">
+        <v>314</v>
+      </c>
+      <c r="H53" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" t="s">
+        <v>209</v>
+      </c>
+      <c r="L53" t="s">
+        <v>169</v>
+      </c>
+      <c r="M53" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>210</v>
+      </c>
+      <c r="X53" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:69">
+      <c r="C54" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" t="n">
+        <v>936308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" t="s">
+        <v>317</v>
+      </c>
+      <c r="J54" t="s">
+        <v>318</v>
+      </c>
+      <c r="L54" t="s">
+        <v>169</v>
+      </c>
+      <c r="M54" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>139</v>
+      </c>
+      <c r="S54" t="s">
+        <v>319</v>
+      </c>
+      <c r="T54" t="s">
+        <v>320</v>
+      </c>
+      <c r="U54" t="s">
+        <v>154</v>
+      </c>
+      <c r="V54" t="s">
+        <v>321</v>
+      </c>
+      <c r="X54" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:69">
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" t="n">
+        <v>605123</v>
+      </c>
+      <c r="G55" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" t="s">
+        <v>325</v>
+      </c>
+      <c r="J55" t="s">
+        <v>326</v>
+      </c>
+      <c r="L55" t="s">
+        <v>169</v>
+      </c>
+      <c r="M55" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>327</v>
+      </c>
+      <c r="S55" t="s">
+        <v>73</v>
+      </c>
+      <c r="T55" t="s">
+        <v>328</v>
+      </c>
+      <c r="U55" t="s">
+        <v>84</v>
+      </c>
+      <c r="X55" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:69">
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1119709</v>
+      </c>
+      <c r="G56" t="s">
+        <v>330</v>
+      </c>
+      <c r="H56" t="s">
+        <v>207</v>
+      </c>
+      <c r="I56" t="s">
+        <v>331</v>
+      </c>
+      <c r="J56" t="s">
+        <v>209</v>
+      </c>
+      <c r="L56" t="s">
+        <v>169</v>
+      </c>
+      <c r="M56" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>210</v>
+      </c>
+      <c r="X56" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3875,103 +5395,106 @@
     <hyperlink ref="BG5" r:id="rId2"/>
     <hyperlink ref="BG6" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Лист2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BG6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" customHeight="1" ht="12.75" r="2" s="10" spans="1:59">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="3" t="n"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="2" t="n"/>
+      <c r="X2" s="2" t="n"/>
       <c r="Y2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="5"/>
+      <c r="Z2" s="4" t="n"/>
+      <c r="AA2" s="4" t="n"/>
+      <c r="AB2" s="4" t="n"/>
+      <c r="AC2" s="4" t="n"/>
+      <c r="AD2" s="4" t="n"/>
+      <c r="AE2" s="4" t="n"/>
+      <c r="AF2" s="4" t="n"/>
+      <c r="AG2" s="5" t="n"/>
       <c r="AH2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="5"/>
+      <c r="AI2" s="4" t="n"/>
+      <c r="AJ2" s="4" t="n"/>
+      <c r="AK2" s="5" t="n"/>
       <c r="AL2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
+      <c r="AM2" s="4" t="n"/>
+      <c r="AN2" s="4" t="n"/>
+      <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="AQ2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
+      <c r="AR2" s="8" t="n"/>
+      <c r="AS2" s="8" t="n"/>
+      <c r="AT2" s="8" t="n"/>
+      <c r="AU2" s="8" t="n"/>
       <c r="AV2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="9"/>
-    </row>
-    <row r="3" spans="1:59" s="21" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW2" s="8" t="n"/>
+      <c r="AX2" s="8" t="n"/>
+      <c r="AY2" s="8" t="n"/>
+      <c r="AZ2" s="8" t="n"/>
+      <c r="BA2" s="8" t="n"/>
+      <c r="BB2" s="24" t="n"/>
+      <c r="BC2" s="8" t="n"/>
+      <c r="BD2" s="8" t="n"/>
+      <c r="BE2" s="8" t="n"/>
+      <c r="BF2" s="9" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="99" r="3" s="21" spans="1:59">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -3991,132 +5514,132 @@
         <v>14</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="18" t="n"/>
+      <c r="AQ3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV3" s="18" t="n"/>
+      <c r="AW3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX3" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX3" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="AY3" s="16" t="s">
         <v>57</v>
@@ -4146,14 +5669,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:59">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="25" t="n">
         <v>42907</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>48465</v>
       </c>
       <c r="L4" t="s">
@@ -4171,21 +5694,21 @@
       <c r="P4" t="s">
         <v>70</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>21325</v>
       </c>
       <c r="BG4" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:59">
+      <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="25" t="n">
         <v>42915</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>55665</v>
       </c>
       <c r="L5" t="s">
@@ -4204,14 +5727,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:59">
+      <c r="A6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="25" t="n">
         <v>42915</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>134124</v>
       </c>
       <c r="L6" t="s">
@@ -4237,6 +5760,6 @@
     <hyperlink ref="BG5" r:id="rId2"/>
     <hyperlink ref="BG6" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/MyExcel.xlsx
+++ b/MyExcel.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Предложения" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$4</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
     <definedName localSheetId="0" name="AASRA">#REF!</definedName>
     <definedName name="AASRA">#REF!</definedName>
@@ -344,17 +344,7 @@
     <definedName name="Тип_строения">#REF!</definedName>
     <definedName localSheetId="0" name="Шаг_колонн">#REF!</definedName>
     <definedName name="Шаг_колонн">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$3</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$4</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -362,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
   <si>
     <t>Форма - 03. "Предложения продажи"</t>
   </si>
@@ -587,598 +577,610 @@
     <t>Ссылка на пдф</t>
   </si>
   <si>
-    <t>12.07.2017</t>
+    <t>13.07.2017</t>
+  </si>
+  <si>
+    <t>Аренда</t>
+  </si>
+  <si>
+    <t>Realt.by</t>
+  </si>
+  <si>
+    <t>Цена договорная</t>
+  </si>
+  <si>
+    <t>+375 17 269-32-79</t>
+  </si>
+  <si>
+    <t>Общественно-деловая недвижимость</t>
+  </si>
+  <si>
+    <t>Минск</t>
+  </si>
+  <si>
+    <t>Проспект</t>
+  </si>
+  <si>
+    <t>Независимости</t>
+  </si>
+  <si>
+    <t>Административная недвижимость</t>
+  </si>
+  <si>
+    <t>Административное здание (помещение), офис</t>
+  </si>
+  <si>
+    <t>1 - 11 этажей</t>
+  </si>
+  <si>
+    <t>Блоки легкобетонные (газосиликатные, керамзитобетонные)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>HTMLs/562928.html</t>
+  </si>
+  <si>
+    <t>53.932790000</t>
+  </si>
+  <si>
+    <t>27.649952000</t>
+  </si>
+  <si>
+    <t>+375 17 215-00-90, +375 29 688-88-11</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1 - 3 этажей</t>
+  </si>
+  <si>
+    <t>Кирпич</t>
+  </si>
+  <si>
+    <t>HTMLs/1032405.html</t>
+  </si>
+  <si>
+    <t>53.917204000</t>
+  </si>
+  <si>
+    <t>27.590227000</t>
+  </si>
+  <si>
+    <t>+375 44 737-65-24, +375 17 362-28-07</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>Кудревича</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1 - 7 этажей</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Железобетон монолитный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  От 20.5 евро с НДС за м2</t>
+  </si>
+  <si>
+    <t>HTMLs/354937.html</t>
+  </si>
+  <si>
+    <t>53.927664000</t>
+  </si>
+  <si>
+    <t>27.683375000</t>
+  </si>
+  <si>
+    <t>продажа или аренда - не из классификатора</t>
+  </si>
+  <si>
+    <t>+375 29 307-10-10, +375 29 105-85-20</t>
+  </si>
+  <si>
+    <t>Скрыганова</t>
+  </si>
+  <si>
+    <t>6 этажей</t>
+  </si>
+  <si>
+    <t>HTMLs/724390.html</t>
+  </si>
+  <si>
+    <t>53.908961000</t>
+  </si>
+  <si>
+    <t>27.522073000</t>
+  </si>
+  <si>
+    <t>+375 17 240-19-64, +375 29 182-01-11</t>
+  </si>
+  <si>
+    <t>Толстого</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>HTMLs/559794.html</t>
+  </si>
+  <si>
+    <t>54.307738000</t>
+  </si>
+  <si>
+    <t>26.840397000</t>
+  </si>
+  <si>
+    <t>долевое строительство - не из классификатора</t>
+  </si>
+  <si>
+    <t>+375 29 389-81-44, +375 17 292-12-86</t>
+  </si>
+  <si>
+    <t>Дзержинского</t>
+  </si>
+  <si>
+    <t>8 этажей</t>
+  </si>
+  <si>
+    <t>HTMLs/557365.html</t>
+  </si>
+  <si>
+    <t>53.891556000</t>
+  </si>
+  <si>
+    <t>27.527126000</t>
+  </si>
+  <si>
+    <t>+375 29 660-46-05, +375 44 574-80-50</t>
+  </si>
+  <si>
+    <t>Прушинских</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Сборный железобетон (панели)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Телефонная сеть, компьютерная сеть, евроремонт, вентиляция, кондиционирование, охрана, парковка</t>
+  </si>
+  <si>
+    <t>HTMLs/509461.html</t>
+  </si>
+  <si>
+    <t>53.834269000</t>
+  </si>
+  <si>
+    <t>27.580451000</t>
+  </si>
+  <si>
+    <t>+375 44 770-67-06, +375 17 202-43-71</t>
+  </si>
+  <si>
+    <t>Победителей</t>
+  </si>
+  <si>
+    <t>1 - 6 этажей</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Помещения с отделкой под ключ, чистовые полы. Цена с отделкой.</t>
+  </si>
+  <si>
+    <t>HTMLs/527820.html</t>
+  </si>
+  <si>
+    <t>53.940093000</t>
+  </si>
+  <si>
+    <t>27.478932000</t>
+  </si>
+  <si>
+    <t>+375 29 681-00-38</t>
+  </si>
+  <si>
+    <t>С - не из классификатора</t>
+  </si>
+  <si>
+    <t>Ковалевского</t>
+  </si>
+  <si>
+    <t>1 - 9 этажей</t>
+  </si>
+  <si>
+    <t>HTMLs/759901.html</t>
+  </si>
+  <si>
+    <t>53.866901000</t>
+  </si>
+  <si>
+    <t>27.509434000</t>
+  </si>
+  <si>
+    <t>+375 17 234-28-91, +375 29 365-76-57, +375 29 670-77-97</t>
+  </si>
+  <si>
+    <t>Тарасово</t>
+  </si>
+  <si>
+    <t>Ратомская</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>4 - 5 этажей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  КРЕДИТ ПОД 15%! РАССРОЧКА ДО ЯНВАРЯ 2019г. Льготы предусмотренные Декретом Президента Республики Беларусь №6 от 07.05.2012 г. ЦЕНА С НДС.</t>
+  </si>
+  <si>
+    <t>HTMLs/565702.html</t>
+  </si>
+  <si>
+    <t>53.914873000</t>
+  </si>
+  <si>
+    <t>27.391408000</t>
+  </si>
+  <si>
+    <t>+375 29 621-10-42</t>
+  </si>
+  <si>
+    <t>Ольшевского</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14 этажей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Имеется помещение 301,6 кв.м. на 1-ом этаже с двумя отдельными входами!</t>
+  </si>
+  <si>
+    <t>HTMLs/875220.html</t>
+  </si>
+  <si>
+    <t>53.917692000</t>
+  </si>
+  <si>
+    <t>27.503207000</t>
+  </si>
+  <si>
+    <t>+375 29 681-76-06, +375 29 334-01-01</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>4 - 26 этажей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Аренда, продажа офисов от 50 кв.м</t>
+  </si>
+  <si>
+    <t>HTMLs/546555.html</t>
+  </si>
+  <si>
+    <t>53.861169000</t>
+  </si>
+  <si>
+    <t>27.479346000</t>
+  </si>
+  <si>
+    <t>+375 29 303-00-33, +375 17 393-07-00</t>
+  </si>
+  <si>
+    <t>Ложинская</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Современные инженерные системыТелефонная сеть, компьютерная сеть, евроремонт, вентиляция, кондиционирование, бесшумные лифты, охрана, видео-наблюдение, гаражи, парковка, свободная планировка</t>
+  </si>
+  <si>
+    <t>HTMLs/553221.html</t>
+  </si>
+  <si>
+    <t>53.946609000</t>
+  </si>
+  <si>
+    <t>27.684748000</t>
+  </si>
+  <si>
+    <t>+375 29 664-30-59</t>
+  </si>
+  <si>
+    <t>Немига</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>HTMLs/1106361.html</t>
+  </si>
+  <si>
+    <t>53.902400000</t>
+  </si>
+  <si>
+    <t>27.550200000</t>
+  </si>
+  <si>
+    <t>+375 29 688-66-84</t>
+  </si>
+  <si>
+    <t>Бяд - не из классификатора</t>
+  </si>
+  <si>
+    <t>12 этажей</t>
+  </si>
+  <si>
+    <t>HTMLs/659501.html</t>
+  </si>
+  <si>
+    <t>53.903769000</t>
+  </si>
+  <si>
+    <t>27.585672000</t>
+  </si>
+  <si>
+    <t>+375 17 200-86-23, +375 29 603-17-00</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>7 этажей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Телефонная сеть, компьютерная сеть (оптоволокно), евроремонт, вентиляция, кондиционирование, бесшумные лифты, охрана, видео - наблюдение, парковка.</t>
+  </si>
+  <si>
+    <t>HTMLs/166126.html</t>
+  </si>
+  <si>
+    <t>53.895280000</t>
+  </si>
+  <si>
+    <t>27.540729000</t>
+  </si>
+  <si>
+    <t>+375 29 772-40-45, +375 29 128-29-40</t>
+  </si>
+  <si>
+    <t>2 - 3 этажей</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>HTMLs/857627.html</t>
+  </si>
+  <si>
+    <t>53.917233000</t>
+  </si>
+  <si>
+    <t>27.590123000</t>
+  </si>
+  <si>
+    <t>+375 17 261-44-56, +375 17 261-44-65, +375 17 261-44-73</t>
+  </si>
+  <si>
+    <t>Машерова</t>
+  </si>
+  <si>
+    <t>4 этажей</t>
+  </si>
+  <si>
+    <t>HTMLs/1000121.html</t>
+  </si>
+  <si>
+    <t>53.913210000</t>
+  </si>
+  <si>
+    <t>27.533867000</t>
+  </si>
+  <si>
+    <t>+375 29 651-59-13, +375 17 508-13-30</t>
+  </si>
+  <si>
+    <t>Колодищи</t>
+  </si>
+  <si>
+    <t>HTMLs/1095042.html</t>
+  </si>
+  <si>
+    <t>53.955315000</t>
+  </si>
+  <si>
+    <t>27.778226000</t>
+  </si>
+  <si>
+    <t>+375 29 152-77-97, +375 29 194-70-94</t>
+  </si>
+  <si>
+    <t>Кальварийская</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>HTMLs/438023.html</t>
+  </si>
+  <si>
+    <t>53.908334000</t>
+  </si>
+  <si>
+    <t>27.516302000</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>33 этажей</t>
+  </si>
+  <si>
+    <t>HTMLs/556757.html</t>
+  </si>
+  <si>
+    <t>53.907588000</t>
+  </si>
+  <si>
+    <t>27.549894000</t>
+  </si>
+  <si>
+    <t>+375 29 603-17-00, +375 17 200-86-23</t>
+  </si>
+  <si>
+    <t>Притыцкого</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5 этажей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Телефонная сеть, компьютерная сеть, евроремонт, вентиляция, кондиционирование, бесшумные лифты, видео-наблюдение, парковка</t>
+  </si>
+  <si>
+    <t>HTMLs/858700.html</t>
+  </si>
+  <si>
+    <t>53.910569000</t>
+  </si>
+  <si>
+    <t>27.505372000</t>
   </si>
   <si>
     <t>Продажа</t>
   </si>
   <si>
-    <t>Realt.by</t>
-  </si>
-  <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>+375 29 690-59-09</t>
-  </si>
-  <si>
-    <t>Сильван</t>
-  </si>
-  <si>
-    <t>Общественно-деловая недвижимость</t>
-  </si>
-  <si>
-    <t>Минский</t>
-  </si>
-  <si>
-    <t>Минск</t>
-  </si>
-  <si>
-    <t>Улица</t>
-  </si>
-  <si>
-    <t>Янковского</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>Торговая недвижимость (недвижимость розничной торговли)</t>
-  </si>
-  <si>
-    <t>Торговый павильон</t>
-  </si>
-  <si>
-    <t>Новое, отличное</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>1 / 9</t>
-  </si>
-  <si>
-    <t>от 72.7 до 340.4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Блоки легкобетонные (газосиликатные, керамзитобетонные)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да </t>
-  </si>
-  <si>
-    <t>НДС есть</t>
-  </si>
-  <si>
-    <t>Продаются 4 отдельных торговых помещения, каждое с отдельным входом, выполнена качественная отделка. Возможен обмен на 125 BTC.</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/1106690.html</t>
-  </si>
-  <si>
-    <t>53.878000000</t>
-  </si>
-  <si>
-    <t>27.454100000</t>
-  </si>
-  <si>
-    <t>ГОРИЗОНТПРОЕКТСТРОЙ</t>
-  </si>
-  <si>
-    <t>+375 17 284-91-51, +375 29 578-77-84, +375 44 557-85-78</t>
-  </si>
-  <si>
-    <t>Нововиленская</t>
-  </si>
-  <si>
-    <t>Условно пригодное</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>1 / 13</t>
-  </si>
-  <si>
-    <t>от 30 до 272</t>
-  </si>
-  <si>
-    <t>Железобетон монолитный</t>
-  </si>
-  <si>
-    <t>Офисное помещение изолированное, с собственным туалетом. С арендаторами готовый бизнес. Приточная вентиляция. На центральной улице в Боровлянах. Остановка общественного транспорта 50 м.</t>
-  </si>
-  <si>
-    <t>53.936854000</t>
-  </si>
-  <si>
-    <t>27.535214000</t>
-  </si>
-  <si>
-    <t>+375 17 215-00-90, +375 29 688-88-11</t>
-  </si>
-  <si>
-    <t>ТВОЯ СТОЛИЦАконсалт</t>
-  </si>
-  <si>
-    <t>Мележа</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Магазин</t>
-  </si>
-  <si>
-    <t>Хорошее</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1 / 6</t>
-  </si>
-  <si>
-    <t>685.6</t>
-  </si>
-  <si>
-    <t>Панел - не из классификатора</t>
-  </si>
-  <si>
-    <t>Торговое помещение на 1-м этажебизнес-центра в Советском районе.Имеется отдельный вход, подъезд автомобилей для погрузочно-разгрузочных работ и рампа. Расположено на ул.Мележа.</t>
-  </si>
-  <si>
-    <t>53.940500000</t>
-  </si>
-  <si>
-    <t>27.597800000</t>
-  </si>
-  <si>
-    <t>Цена договорная</t>
-  </si>
-  <si>
-    <t>ГлавИндустияСтрой</t>
-  </si>
-  <si>
-    <t>+375 29 603-22-10</t>
-  </si>
-  <si>
-    <t>Ангарская</t>
-  </si>
-  <si>
-    <t>Торговый центр</t>
-  </si>
-  <si>
-    <t>1 / 1</t>
-  </si>
-  <si>
-    <t>от 6 до 1200</t>
-  </si>
-  <si>
-    <t>Приглашаем заинтересованных участников. Проектирование торгового центра под конкретные потребности арендаторов</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/1104301.html</t>
-  </si>
-  <si>
-    <t>53.880957000</t>
-  </si>
-  <si>
-    <t>27.679312000</t>
-  </si>
-  <si>
-    <t>+375 44 780-08-63, +375 29 780-08-63</t>
-  </si>
-  <si>
-    <t>Маяковского</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1 / 23</t>
-  </si>
-  <si>
-    <t>Победы (Московская линия).</t>
-  </si>
-  <si>
-    <t>Покупатель не оплачивает услуги риэлтерской организации!</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/527235.html</t>
-  </si>
-  <si>
-    <t>53.883500000</t>
-  </si>
-  <si>
-    <t>27.569000000</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>+375 44 590-95-50</t>
-  </si>
-  <si>
-    <t>Проспект</t>
-  </si>
-  <si>
-    <t>Победителей</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Очень хорошее</t>
-  </si>
-  <si>
-    <t>2 / 5</t>
-  </si>
-  <si>
-    <t>от 516 до 1100</t>
-  </si>
-  <si>
-    <t>НДС нет</t>
-  </si>
-  <si>
-    <t>2 отдельных помещения 516 кв. м. и 580 кв. м., возможно объединение в одно помещение, площадью 1.100 кв. м.Заключены договоры Аренды!</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/647873.html</t>
-  </si>
-  <si>
-    <t>53.932722000</t>
-  </si>
-  <si>
-    <t>27.504246000</t>
-  </si>
-  <si>
-    <t>Алексей Вячеславович</t>
-  </si>
-  <si>
-    <t>+375 29 379-14-09</t>
-  </si>
-  <si>
-    <t>Прушинских</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>997.7</t>
-  </si>
-  <si>
-    <t>Сборный железобетон (панели)</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/644078.html</t>
-  </si>
-  <si>
-    <t>53.838739000</t>
-  </si>
-  <si>
-    <t>27.565024000</t>
-  </si>
-  <si>
-    <t>+375 29 358-00-19</t>
-  </si>
-  <si>
-    <t>Кальварийская</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2 / 32</t>
-  </si>
-  <si>
-    <t>от 280.6 до 567.4</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/879058.html</t>
-  </si>
-  <si>
-    <t>53.906800000</t>
-  </si>
-  <si>
-    <t>27.532500000</t>
-  </si>
-  <si>
-    <t>Заславль</t>
-  </si>
-  <si>
-    <t>Студенецкая</t>
-  </si>
-  <si>
-    <t>от 10 до 2400</t>
-  </si>
-  <si>
-    <t>Новый торговый центр. Раннее бронирование торговых помещений на этапе проектирования. Приглашаем заинтересованных участников. Проектирование торгового центра под конкретные потребности арендаторов</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/1105967.html</t>
-  </si>
-  <si>
-    <t>54.008112000</t>
-  </si>
-  <si>
-    <t>27.262962000</t>
-  </si>
-  <si>
-    <t>Александр Николаевич</t>
-  </si>
-  <si>
-    <t>+375 29 110-44-44</t>
-  </si>
-  <si>
-    <t>Тимирязева</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>1 / 14</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>Орговое помещение в здании жилого дома возле ТЦ `Корона`, напротив `Сквирел`. Отдельный вход с улицы. Очень выгодное месторасположение! Рядом квартал элитной застройки. Центр, большая проходимость</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/1120615.html</t>
-  </si>
-  <si>
-    <t>53.910900000</t>
-  </si>
-  <si>
-    <t>27.527800000</t>
-  </si>
-  <si>
-    <t>Отдел продаж</t>
-  </si>
-  <si>
-    <t>+375 17 234-28-91, +375 29 365-76-57, +375 29 670-77-97</t>
-  </si>
-  <si>
-    <t>Тарасово</t>
-  </si>
-  <si>
-    <t>Ратомская</t>
-  </si>
-  <si>
-    <t>1 / 5</t>
-  </si>
-  <si>
-    <t>от 93 до 346</t>
-  </si>
-  <si>
-    <t>КРЕДИТ под 15%. РАССРОЧКА. Льготы предусмотренные Декретом Президента Республики Беларусь № 6 от 07.05.2012 г. ЦЕНА С НДС. WWW. DOBRODEEVO. COM</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/565675.html</t>
-  </si>
-  <si>
-    <t>53.914873000</t>
-  </si>
-  <si>
-    <t>27.391279000</t>
-  </si>
-  <si>
-    <t>Яков Борисович, Андрей Сергеевич</t>
-  </si>
-  <si>
-    <t>+375 29 388-84-08, +375 29 325-29-99</t>
-  </si>
-  <si>
-    <t>Ваупшасова</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>4 этажа</t>
-  </si>
-  <si>
-    <t>от 10 до 260</t>
-  </si>
-  <si>
-    <t>Продаются торговые площади в цокальном этаже ТЦ`Автоиндустрия` по ул.Ваупшасова,10. Удобный подъезд, второе транспортное кольцо. Охрана здания 24 часа. В помещениях есть платежеспособные арендаторы.</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/1017294.html</t>
-  </si>
-  <si>
-    <t>53.894677000</t>
-  </si>
-  <si>
-    <t>27.646143000</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>+375 29 606-77-77</t>
-  </si>
-  <si>
-    <t>Ждановичи</t>
-  </si>
-  <si>
-    <t>Заречная</t>
-  </si>
-  <si>
-    <t>Базар, рынок</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/697095.html</t>
-  </si>
-  <si>
-    <t>53.946004000</t>
-  </si>
-  <si>
-    <t>27.432073000</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/1091311.html</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/492168.html</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>+375 29 654-56-54, +375 29 111-11-81</t>
-  </si>
-  <si>
-    <t>Боровляны</t>
-  </si>
-  <si>
-    <t>40 Лет Победы - не из классификатора</t>
-  </si>
-  <si>
-    <t>от 65 до 250</t>
-  </si>
-  <si>
-    <t>Кирпич</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/298986.html</t>
-  </si>
-  <si>
-    <t>53.988046000</t>
-  </si>
-  <si>
-    <t>27.666262000</t>
-  </si>
-  <si>
-    <t>ЗАО</t>
-  </si>
-  <si>
-    <t>+375 17 363-16-15, +375 17 365-00-05</t>
-  </si>
-  <si>
-    <t>Алибегова</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>от 49 до 114</t>
-  </si>
-  <si>
-    <t>От 1100 у. е. Планы на сайте tze. by</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/584833.html</t>
-  </si>
-  <si>
-    <t>53.872369000</t>
-  </si>
-  <si>
-    <t>27.477350000</t>
-  </si>
-  <si>
-    <t>420000 !Цена указана за весь участок</t>
-  </si>
-  <si>
-    <t>Виктор Чеславович</t>
-  </si>
-  <si>
-    <t>+375 29 337-13-90</t>
-  </si>
-  <si>
-    <t>Квартирный вопрос</t>
-  </si>
-  <si>
-    <t>Семково</t>
-  </si>
-  <si>
-    <t>Дроздовича</t>
-  </si>
-  <si>
-    <t>Недвижимость общественного питания</t>
-  </si>
-  <si>
-    <t>Кафе</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>участка 10.6 соток</t>
-  </si>
-  <si>
-    <t>Кафе - гостиница "Корсар", в верхних этажах гостевые комнаты</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/495538.html</t>
-  </si>
-  <si>
-    <t>54.018060000</t>
-  </si>
-  <si>
-    <t>27.441620000</t>
-  </si>
-  <si>
-    <t>9899 !Цена указана за весь участок</t>
-  </si>
-  <si>
-    <t>+375 29 620-09-32, +375 33 391-05-24</t>
-  </si>
-  <si>
-    <t>ЗемРеалт</t>
-  </si>
-  <si>
-    <t>пер - не из классификатора</t>
-  </si>
-  <si>
-    <t>Нововиленский</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1 / 3</t>
-  </si>
-  <si>
-    <t>от 184.8 до 361</t>
-  </si>
-  <si>
-    <t>В помещении 2-а отдельных входа, начат ремонт, имеются витрины. Звоните! Готовы обсуждать условия и торговаться!</t>
-  </si>
-  <si>
-    <t>D:/PYTHON/NCA 03072017/WorkNew/WorkParsing/HTMLs/1054855.html</t>
-  </si>
-  <si>
-    <t>53.926700000</t>
-  </si>
-  <si>
-    <t>27.542500000</t>
+    <t>+375 17 269-31-00, +375 29 654-94-45, +375 29 648-34-06</t>
+  </si>
+  <si>
+    <t>Тиражная</t>
+  </si>
+  <si>
+    <t>1 - 8 этажей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Помещения с возможностью проживания!</t>
+  </si>
+  <si>
+    <t>HTMLs/1092592.html</t>
+  </si>
+  <si>
+    <t>53.938130000</t>
+  </si>
+  <si>
+    <t>27.596628000</t>
+  </si>
+  <si>
+    <t>+375 29 688-22-00</t>
+  </si>
+  <si>
+    <t>HTMLs/1124850.html</t>
+  </si>
+  <si>
+    <t>Орловская</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>HTMLs/1124669.html</t>
+  </si>
+  <si>
+    <t>53.932700000</t>
+  </si>
+  <si>
+    <t>27.555800000</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Оптоволокно, газовая котельная, паркинг</t>
+  </si>
+  <si>
+    <t>HTMLs/277947.html</t>
+  </si>
+  <si>
+    <t>53.955600000</t>
+  </si>
+  <si>
+    <t>27.620200000</t>
+  </si>
+  <si>
+    <t>+375 29 142-44-21, +375 44 731-54-28, +375 17 336-01-32</t>
+  </si>
+  <si>
+    <t>Толбухина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Круглосуточная охрана,доступ в помещение 24ч,openspace,потолки 4м, Класс А,высококачественная отделка, су, лифты, телефонные линии, высокоскоростной интернет, метро, ресторан на цокольном этаже центра</t>
+  </si>
+  <si>
+    <t>HTMLs/853459.html</t>
+  </si>
+  <si>
+    <t>53.926054000</t>
+  </si>
+  <si>
+    <t>27.614670000</t>
+  </si>
+  <si>
+    <t>Переулок</t>
+  </si>
+  <si>
+    <t>Кольцова 4-й</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9 этажей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Предусмотрена возможность долгосрочной аренды с правом выкупа.</t>
+  </si>
+  <si>
+    <t>HTMLs/1056614.html</t>
+  </si>
+  <si>
+    <t>53.953169000</t>
+  </si>
+  <si>
+    <t>27.600315000</t>
   </si>
   <si>
     <t>Год
@@ -1192,6 +1194,618 @@
   </si>
   <si>
     <t>Смолячкова</t>
+  </si>
+  <si>
+    <t>ТВОЯ СТОЛИЦАконсалт</t>
+  </si>
+  <si>
+    <t>Зыбицкая</t>
+  </si>
+  <si>
+    <t>строй. - не из классификатора</t>
+  </si>
+  <si>
+    <t>4 этажа</t>
+  </si>
+  <si>
+    <t>от 68.2 до 226.5</t>
+  </si>
+  <si>
+    <t>Блоки - не из классификатора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да </t>
+  </si>
+  <si>
+    <t>НДС есть</t>
+  </si>
+  <si>
+    <t>Офисы в продажу в современном многофункциональном комплексе «На Торговой набережной», расположенном в самом центре культурно-деловой жизни столицы в Верхнем городе.</t>
+  </si>
+  <si>
+    <t>Отдел продаж</t>
+  </si>
+  <si>
+    <t>+375 17 393-82-28, +375 29 199-79-98</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Условно пригодное</t>
+  </si>
+  <si>
+    <t>1 / 16</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>+375 29 269-66-20</t>
+  </si>
+  <si>
+    <t>Марьевская</t>
+  </si>
+  <si>
+    <t>Новое, отличное</t>
+  </si>
+  <si>
+    <t>1 / 1</t>
+  </si>
+  <si>
+    <t>от 341 до 824</t>
+  </si>
+  <si>
+    <t>НДС не выделен</t>
+  </si>
+  <si>
+    <t>+375 44 780-08-63, +375 29 780-08-63</t>
+  </si>
+  <si>
+    <t>Сильван</t>
+  </si>
+  <si>
+    <t>Козлова</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>от 15 до 8000</t>
+  </si>
+  <si>
+    <t>Покупатель не оплачивает услуги риэлтерской организации!</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Очень хорошее</t>
+  </si>
+  <si>
+    <t>1 / 6</t>
+  </si>
+  <si>
+    <t>от 140 до 7000</t>
+  </si>
+  <si>
+    <t>от 100 до 1200</t>
+  </si>
+  <si>
+    <t>Многофункциональный Бизнес - Центр `Riviera Spa&amp;Business`</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>+375 29 652-07-98</t>
+  </si>
+  <si>
+    <t>Минский</t>
+  </si>
+  <si>
+    <t>5 / 6</t>
+  </si>
+  <si>
+    <t>от 33.6 до 141.8</t>
+  </si>
+  <si>
+    <t>от 17 до 94</t>
+  </si>
+  <si>
+    <t>+375 29 679-78-22, +375 29 545-10-32, +375 29 699-40-93, +375 17 220-40-43</t>
+  </si>
+  <si>
+    <t>Щорса</t>
+  </si>
+  <si>
+    <t>7 / 8</t>
+  </si>
+  <si>
+    <t>от 250 до 500</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>2 этажа в офисном здании. сделан ремонт. Все помещения в хорошем состоянии. Возможна продажа вместе с арендаторами. Все подробности по телефону или в офисе Щорса 1а, 6-ой этаж, отдел продаж.</t>
+  </si>
+  <si>
+    <t>+375 17 222-79-80, +375 17 222-85-09, +375 29 640-74-07, +375 29 122-52-25</t>
+  </si>
+  <si>
+    <t>Панфилова</t>
+  </si>
+  <si>
+    <t>от 17 до 88</t>
+  </si>
+  <si>
+    <t>Маяковского</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>от 1184.7 до 5833.2</t>
+  </si>
+  <si>
+    <t>НДС нет</t>
+  </si>
+  <si>
+    <t>+375 44 777-99-11</t>
+  </si>
+  <si>
+    <t>от 126 до 556</t>
+  </si>
+  <si>
+    <t>Продажа офисного блока. Возмождна аренда от 430 до 556 м²</t>
+  </si>
+  <si>
+    <t>+375 44 581-17-77</t>
+  </si>
+  <si>
+    <t>Гамарника</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>6 / 7</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>Продажа офиса в рассрочку</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>+375 44 590-95-50</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>2 / 5</t>
+  </si>
+  <si>
+    <t>от 400 до 1100</t>
+  </si>
+  <si>
+    <t>Продается помещение свободной планировки с отдельным входом с пр.Победителей, возможна продажи части помещения с отдельным входом .</t>
+  </si>
+  <si>
+    <t>Яков Борисович</t>
+  </si>
+  <si>
+    <t>+375 29 388-84-08</t>
+  </si>
+  <si>
+    <t>Машиностроителей</t>
+  </si>
+  <si>
+    <t>от 10 до 675</t>
+  </si>
+  <si>
+    <t>Продаются помещения следующего назначения:-офис; -склад; -мастерская Общая S=675 кв.м.(9 помещений 10-260 кв.м). Территория огорожена, имеется собственная парковка. Удобные подъездные пути.</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>+375 29 311-13-76</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>от 130 до 500</t>
+  </si>
+  <si>
+    <t>Продажа офисов от застройщика, рассрочка на 2 года, отдельный вход с проспекта, подземный паркинг, рядом наземная парковка, оживленное место, возможна сдача в аренду.</t>
+  </si>
+  <si>
+    <t>Андрей / Василий</t>
+  </si>
+  <si>
+    <t>+375 29 654-64-22, +375 44 701-97-98</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Хорошее</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>75576 !Цена указана за весь участок</t>
+  </si>
+  <si>
+    <t>Larisa</t>
+  </si>
+  <si>
+    <t>+375 29 673-72-69, +375 29 611-12-89</t>
+  </si>
+  <si>
+    <t>Короля</t>
+  </si>
+  <si>
+    <t>6 / 6</t>
+  </si>
+  <si>
+    <t>62.6</t>
+  </si>
+  <si>
+    <t>110000 !Цена указана за весь участок</t>
+  </si>
+  <si>
+    <t>Отличное место для Вашего бизнеса! Рассрочка платежа, удобная парковка, возможность подключения водопровода. Есть наличие других офисов для продажи и аренды от 30 м.кв.</t>
+  </si>
+  <si>
+    <t>+375 29 861-43-49, +375 29 158-76-27</t>
+  </si>
+  <si>
+    <t>Удовлетворительное</t>
+  </si>
+  <si>
+    <t>4 / 4</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t>+375 29 610-32-63</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>+375 29 337-77-87</t>
+  </si>
+  <si>
+    <t>Пономаренко</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1 / 9</t>
+  </si>
+  <si>
+    <t>от 62 до 62.7</t>
+  </si>
+  <si>
+    <t>Продается административное помещение, общей площадью 62 м.кв.,с отдельным входом, состоящее из трех комнат площадью 46 м. кв., двух вспомогательных помещений площадью 4,1 м.кв.,отдельный санузел.</t>
+  </si>
+  <si>
+    <t>Павел Михайлович</t>
+  </si>
+  <si>
+    <t>+375 17 281-63-71, +375 29 668-80-50</t>
+  </si>
+  <si>
+    <t>Партизанский</t>
+  </si>
+  <si>
+    <t>3 / 15</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>+375 29 666-36-61, +375 44 501-10-80</t>
+  </si>
+  <si>
+    <t>Центр недвижимости «ПАКОДАН»</t>
+  </si>
+  <si>
+    <t>Ждановичи</t>
+  </si>
+  <si>
+    <t>Звездная</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>Административное здание в Ждановичах 257 метров, 6 соток, все коммуникации, своя стоянка, рядом съезд с кольцевой.</t>
+  </si>
+  <si>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>+375 44 735-67-23</t>
+  </si>
+  <si>
+    <t>Ваньковича - не из классификатора</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>1 / 5</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>45000 !Цена указана за весь участок</t>
+  </si>
+  <si>
+    <t>Римма Леонидовна</t>
+  </si>
+  <si>
+    <t>+375 44 711-01-03, +375 29 771-01-03, +375 17 336-07-06, +375 17 336-07-08</t>
+  </si>
+  <si>
+    <t>АссистансХэлс</t>
+  </si>
+  <si>
+    <t>К.Либкнехта</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>1 / 12</t>
+  </si>
+  <si>
+    <t>от 28 до 180</t>
+  </si>
+  <si>
+    <t>Специальное предложение прямо от застройщика!</t>
+  </si>
+  <si>
+    <t>Kiroff</t>
+  </si>
+  <si>
+    <t>+375 17 300-99-25</t>
+  </si>
+  <si>
+    <t>Кирова</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>от 80 до 525</t>
+  </si>
+  <si>
+    <t>Офисные и торговые помещения от 80 кв. м до 525 кв. м. Собственная надземная (57 мест) и подземная парковка (44 места), шлагбаум при въезде.</t>
+  </si>
+  <si>
+    <t>АН</t>
+  </si>
+  <si>
+    <t>+375 29 776-94-90, +375 29 751-72-70</t>
+  </si>
+  <si>
+    <t>Юриэлт</t>
+  </si>
+  <si>
+    <t>Большое Стиклево</t>
+  </si>
+  <si>
+    <t>4 / 15</t>
+  </si>
+  <si>
+    <t>113.2</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>Продается офис в новом бизнес центре, с отделкой на 4ом этаже, все коммуникации центральные, отдельный с/у, интернет, охрана</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>+375 29 340-68-56, +375 29 340-05-40, +375 29 323-23-64</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>15 / 15</t>
+  </si>
+  <si>
+    <t>от 49 до 69.6</t>
+  </si>
+  <si>
+    <t>Творчекие мастерские в ЖК Мегаполис: аренда компактных офисных помещений на выгодных условиях</t>
+  </si>
+  <si>
+    <t>+375 29 654-56-54</t>
+  </si>
+  <si>
+    <t>Боровляны</t>
+  </si>
+  <si>
+    <t>40 Лет Победы - не из классификатора</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>от 65 до 250</t>
+  </si>
+  <si>
+    <t>Офисное помещение изолированное, с собственным туалетом. С арендаторами (можно без) готовый бизнес. Приточная вентиляция. На центральной улице в Боровлянах. Остановка общественного транспорта 50 м.</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>+375 29 623-04-74</t>
+  </si>
+  <si>
+    <t>Захарова</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>245000 !Цена указана за весь участок</t>
+  </si>
+  <si>
+    <t>Евроремонт.</t>
+  </si>
+  <si>
+    <t>+375 29 662-67-55</t>
+  </si>
+  <si>
+    <t>Привольный</t>
+  </si>
+  <si>
+    <t>729.5</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>2 уровня - цоколь 448.8 кв. м. / 1 - ый этаж 281 кв. м., газ по улице, котельная</t>
+  </si>
+  <si>
+    <t>+375 17 238-98-17, +375 29 103-98-18</t>
+  </si>
+  <si>
+    <t>БизнесХаус</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>от 330 до 1000</t>
+  </si>
+  <si>
+    <t>Офисные и торговые помещения в жилом комплексе бизнес - класса на проспекте Победителей, 119</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>+375 29 115-03-23</t>
+  </si>
+  <si>
+    <t>от 51.7 до 104</t>
+  </si>
+  <si>
+    <t>Продаются пять административных помещений на первом этаже жилого дома (ЖК `Мегаполис`), с отдельным входом (70,5 м.,104 м., 51,7 м.,57,6 м.,104 м.) Физ. лицо.</t>
+  </si>
+  <si>
+    <t>+375 29 578-77-84, +375 17 284-91-51, +375 44 557-85-78</t>
+  </si>
+  <si>
+    <t>Нововиленская</t>
+  </si>
+  <si>
+    <t>1 / 13</t>
+  </si>
+  <si>
+    <t>от 30 до 1350</t>
+  </si>
+  <si>
+    <t>от 17 до 350</t>
+  </si>
+  <si>
+    <t>Кредит под 15%. Рассрочка. Льготы предусмотренные Декретом Президента Республики Беларусь № 6 от 07.05.2012 г. ЦЕНА С НДС.</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>+375 29 171-02-40</t>
+  </si>
+  <si>
+    <t>Тимирязева</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>6 / 14</t>
+  </si>
+  <si>
+    <t>от 91.8 до 155.5</t>
+  </si>
+  <si>
+    <t>+375 17 269-31-00, +375 29 648-34-06, +375 29 654-94-45</t>
+  </si>
+  <si>
+    <t>Кольцова</t>
+  </si>
+  <si>
+    <t>1 / 18</t>
+  </si>
+  <si>
+    <t>249.9</t>
+  </si>
+  <si>
+    <t>Продается два административных помещения с отдельным входом площадью 249,9 кв.м. Наличие сан. узлов. Помещения без выполнения отделочных работ.</t>
+  </si>
+  <si>
+    <t>+375 29 340-68-56, +375 29 340-05-40</t>
+  </si>
+  <si>
+    <t>16 / 16</t>
+  </si>
+  <si>
+    <t>от 46 до 140</t>
+  </si>
+  <si>
+    <t>Творческая мастерская</t>
+  </si>
+  <si>
+    <t>Торговая недвижимость (недвижимость розничной торговли)</t>
+  </si>
+  <si>
+    <t>Торговый центр</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +2341,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1739,10 +2353,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ23"/>
+  <dimension ref="A1:BQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1760,7 +2374,7 @@
     <col customWidth="1" max="24" min="24" width="58.5703125"/>
     <col customWidth="1" max="25" min="25" width="20.85546875"/>
     <col customWidth="1" max="35" min="35" width="22.5703125"/>
-    <col customWidth="1" max="58" min="58" width="32.85546875"/>
+    <col customWidth="1" max="58" min="58" width="90.42578125"/>
     <col customWidth="1" max="59" min="59" width="40.7109375"/>
     <col customWidth="1" max="60" min="60" width="16.140625"/>
     <col customWidth="1" max="61" min="61" width="19.85546875"/>
@@ -2071,97 +2685,52 @@
         <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>1091311</v>
-      </c>
-      <c r="G5" t="n">
-        <v>849</v>
-      </c>
-      <c r="H5" t="s">
+        <v>562928</v>
+      </c>
+      <c r="G5" t="s">
         <v>77</v>
       </c>
       <c r="I5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
       <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="S5" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
         <v>82</v>
       </c>
-      <c r="S5" t="s">
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="T5" t="s">
+      <c r="Y5" t="s">
         <v>84</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AF5" t="s">
         <v>85</v>
       </c>
-      <c r="V5" t="s">
+      <c r="AM5" t="s">
         <v>86</v>
       </c>
-      <c r="X5" t="s">
+      <c r="BF5" t="s">
         <v>87</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="BG5" t="s">
         <v>88</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="BH5" t="s">
         <v>89</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="BI5" t="s">
         <v>90</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:69">
@@ -2175,97 +2744,58 @@
         <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>492168</v>
+        <v>1032405</v>
       </c>
       <c r="G6" t="n">
-        <v>759</v>
-      </c>
-      <c r="H6" t="s">
-        <v>101</v>
+        <v>13.75</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" t="s">
         <v>80</v>
       </c>
-      <c r="M6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="S6" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>82</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
         <v>83</v>
       </c>
-      <c r="T6" t="s">
-        <v>103</v>
-      </c>
-      <c r="U6" t="s">
-        <v>85</v>
-      </c>
-      <c r="V6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF6" t="s">
         <v>87</v>
       </c>
-      <c r="Y6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="BG6" t="s">
         <v>96</v>
       </c>
-      <c r="BF6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG6" t="s">
+      <c r="BH6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BI6" t="s">
         <v>98</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:69">
@@ -2279,88 +2809,58 @@
         <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>1106690</v>
+        <v>354937</v>
       </c>
       <c r="G7" t="n">
-        <v>849</v>
+        <v>19.46</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" t="s">
         <v>80</v>
       </c>
-      <c r="M7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>82</v>
-      </c>
       <c r="S7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
         <v>83</v>
       </c>
-      <c r="T7" t="s">
-        <v>114</v>
-      </c>
-      <c r="U7" t="s">
-        <v>115</v>
-      </c>
-      <c r="V7" t="s">
-        <v>116</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
       <c r="Y7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>104</v>
       </c>
       <c r="AM7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="BF7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="BG7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="BH7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="BI7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:69">
@@ -2368,67 +2868,58 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>1104301</v>
+        <v>724390</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" t="s">
         <v>80</v>
       </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>82</v>
-      </c>
       <c r="S8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" t="s">
+        <v>112</v>
+      </c>
+      <c r="X8" t="s">
         <v>83</v>
       </c>
-      <c r="T8" t="s">
-        <v>129</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF8" t="s">
         <v>87</v>
       </c>
-      <c r="Y8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>133</v>
-      </c>
       <c r="BG8" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="BH8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="BI8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:69">
@@ -2442,76 +2933,46 @@
         <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>527235</v>
-      </c>
-      <c r="G9" t="n">
-        <v>949</v>
+        <v>559794</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>82</v>
-      </c>
       <c r="S9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>118</v>
+      </c>
+      <c r="U9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
         <v>83</v>
       </c>
-      <c r="T9" t="s">
-        <v>138</v>
-      </c>
-      <c r="U9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X9" t="s">
-        <v>87</v>
-      </c>
       <c r="Y9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="BG9" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="BH9" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="BI9" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:69">
@@ -2519,88 +2980,58 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10" t="n">
-        <v>647873</v>
+        <v>557365</v>
       </c>
       <c r="G10" t="n">
-        <v>1499</v>
-      </c>
-      <c r="H10" t="s">
-        <v>146</v>
+        <v>699.1900000000001</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" t="s">
         <v>80</v>
       </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>82</v>
-      </c>
       <c r="S10" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="U10" t="s">
-        <v>150</v>
-      </c>
-      <c r="V10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF10" t="s">
         <v>87</v>
       </c>
-      <c r="Y10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>154</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>155</v>
-      </c>
       <c r="BG10" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="BH10" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="BI10" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:69">
@@ -2608,88 +3039,64 @@
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>644078</v>
+        <v>509461</v>
       </c>
       <c r="G11" t="n">
-        <v>650</v>
-      </c>
-      <c r="H11" t="s">
-        <v>159</v>
+        <v>7.99</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
         <v>80</v>
       </c>
-      <c r="M11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>82</v>
-      </c>
       <c r="S11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T11" t="s">
+        <v>131</v>
+      </c>
+      <c r="U11" t="s">
+        <v>132</v>
+      </c>
+      <c r="V11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
         <v>83</v>
       </c>
-      <c r="T11" t="s">
-        <v>161</v>
-      </c>
-      <c r="U11" t="s">
-        <v>162</v>
-      </c>
-      <c r="X11" t="s">
-        <v>87</v>
-      </c>
       <c r="Y11" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AM11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>96</v>
+        <v>134</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>135</v>
       </c>
       <c r="BG11" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="BH11" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="BI11" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:69">
@@ -2697,79 +3104,61 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>879058</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1199</v>
+        <v>527820</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" t="s">
         <v>80</v>
       </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>82</v>
-      </c>
       <c r="S12" t="s">
+        <v>81</v>
+      </c>
+      <c r="T12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
         <v>83</v>
       </c>
-      <c r="T12" t="s">
-        <v>170</v>
-      </c>
-      <c r="U12" t="s">
-        <v>171</v>
-      </c>
-      <c r="X12" t="s">
-        <v>87</v>
-      </c>
       <c r="Y12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="AF12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>96</v>
+        <v>141</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>143</v>
       </c>
       <c r="BG12" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="BH12" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="BI12" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:69">
@@ -2777,64 +3166,58 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
       </c>
       <c r="F13" t="n">
-        <v>1105967</v>
-      </c>
-      <c r="G13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" t="s">
-        <v>127</v>
+        <v>759901</v>
+      </c>
+      <c r="G13" t="n">
+        <v>669.87</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" t="s">
         <v>80</v>
       </c>
-      <c r="M13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>178</v>
-      </c>
       <c r="S13" t="s">
+        <v>148</v>
+      </c>
+      <c r="T13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
         <v>83</v>
       </c>
-      <c r="T13" t="s">
-        <v>179</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF13" t="s">
         <v>87</v>
       </c>
-      <c r="Y13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>181</v>
-      </c>
       <c r="BG13" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="BH13" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="BI13" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:69">
@@ -2842,85 +3225,67 @@
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
       </c>
       <c r="F14" t="n">
-        <v>1120615</v>
+        <v>565702</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
         <v>68</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="S14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" t="s">
+        <v>156</v>
+      </c>
+      <c r="U14" t="s">
+        <v>157</v>
+      </c>
+      <c r="V14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
         <v>83</v>
       </c>
-      <c r="T14" t="s">
-        <v>187</v>
-      </c>
-      <c r="U14" t="s">
-        <v>188</v>
-      </c>
-      <c r="X14" t="s">
-        <v>87</v>
-      </c>
       <c r="Y14" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="AF14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>95</v>
+        <v>159</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>86</v>
       </c>
       <c r="BF14" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="BG14" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="BH14" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="BI14" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:69">
@@ -2934,91 +3299,61 @@
         <v>76</v>
       </c>
       <c r="F15" t="n">
-        <v>565675</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" t="s">
-        <v>196</v>
+        <v>875220</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.48</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>198</v>
-      </c>
       <c r="S15" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" t="s">
+        <v>165</v>
+      </c>
+      <c r="U15" t="s">
+        <v>166</v>
+      </c>
+      <c r="V15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
         <v>83</v>
       </c>
-      <c r="T15" t="s">
-        <v>199</v>
-      </c>
-      <c r="U15" t="s">
-        <v>116</v>
-      </c>
-      <c r="V15" t="s">
-        <v>86</v>
-      </c>
-      <c r="X15" t="s">
-        <v>87</v>
-      </c>
       <c r="Y15" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AF15" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="AK15" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="AM15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="BF15" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="BG15" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="BH15" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="BI15" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:69">
@@ -3032,85 +3367,58 @@
         <v>76</v>
       </c>
       <c r="F16" t="n">
-        <v>1017294</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1498</v>
-      </c>
-      <c r="H16" t="s">
-        <v>206</v>
+        <v>546555</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" t="s">
         <v>80</v>
       </c>
-      <c r="M16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>82</v>
-      </c>
       <c r="S16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
         <v>83</v>
       </c>
-      <c r="T16" t="s">
-        <v>208</v>
-      </c>
-      <c r="U16" t="s">
-        <v>209</v>
-      </c>
-      <c r="X16" t="s">
-        <v>87</v>
-      </c>
       <c r="Y16" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>212</v>
+        <v>175</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>102</v>
       </c>
       <c r="AM16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="BF16" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="BG16" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="BH16" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="BI16" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:69">
@@ -3124,52 +3432,58 @@
         <v>76</v>
       </c>
       <c r="F17" t="n">
-        <v>697095</v>
-      </c>
-      <c r="G17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" t="s">
-        <v>217</v>
+        <v>553221</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.71</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>219</v>
-      </c>
       <c r="S17" t="s">
+        <v>100</v>
+      </c>
+      <c r="T17" t="s">
+        <v>181</v>
+      </c>
+      <c r="U17" t="s">
+        <v>182</v>
+      </c>
+      <c r="X17" t="s">
         <v>83</v>
       </c>
-      <c r="T17" t="s">
-        <v>220</v>
-      </c>
-      <c r="X17" t="s">
-        <v>87</v>
-      </c>
       <c r="Y17" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>222</v>
+        <v>84</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>183</v>
       </c>
       <c r="BG17" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="BH17" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="BI17" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:69">
@@ -3177,91 +3491,64 @@
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
       </c>
       <c r="F18" t="n">
-        <v>1091311</v>
-      </c>
-      <c r="G18" t="n">
-        <v>849</v>
-      </c>
-      <c r="H18" t="s">
+        <v>1106361</v>
+      </c>
+      <c r="G18" t="s">
         <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" t="s">
         <v>80</v>
       </c>
-      <c r="M18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>82</v>
-      </c>
       <c r="S18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" t="s">
+        <v>188</v>
+      </c>
+      <c r="U18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
         <v>83</v>
       </c>
-      <c r="T18" t="s">
+      <c r="Y18" t="s">
         <v>84</v>
       </c>
-      <c r="U18" t="s">
-        <v>85</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="AF18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF18" t="s">
         <v>87</v>
       </c>
-      <c r="Y18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>97</v>
-      </c>
       <c r="BG18" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="BH18" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="BI18" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:69">
@@ -3275,79 +3562,52 @@
         <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>492168</v>
-      </c>
-      <c r="G19" t="n">
-        <v>759</v>
-      </c>
-      <c r="H19" t="s">
-        <v>101</v>
+        <v>659501</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" t="s">
         <v>80</v>
       </c>
-      <c r="M19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>82</v>
-      </c>
       <c r="S19" t="s">
+        <v>100</v>
+      </c>
+      <c r="T19" t="s">
+        <v>194</v>
+      </c>
+      <c r="U19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" t="s">
         <v>83</v>
       </c>
-      <c r="T19" t="s">
-        <v>103</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF19" t="s">
         <v>87</v>
       </c>
-      <c r="Y19" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>96</v>
-      </c>
       <c r="BG19" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="BH19" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="BI19" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:69">
@@ -3361,88 +3621,46 @@
         <v>76</v>
       </c>
       <c r="F20" t="n">
-        <v>298986</v>
-      </c>
-      <c r="G20" t="n">
-        <v>998</v>
-      </c>
-      <c r="H20" t="s">
-        <v>228</v>
+        <v>166126</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" t="s">
         <v>80</v>
       </c>
-      <c r="M20" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>230</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" t="s">
         <v>83</v>
       </c>
-      <c r="T20" t="s">
-        <v>231</v>
-      </c>
-      <c r="U20" t="s">
-        <v>85</v>
-      </c>
-      <c r="X20" t="s">
-        <v>87</v>
-      </c>
       <c r="Y20" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="AF20" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="BF20" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="BG20" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="BH20" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="BI20" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:69">
@@ -3456,85 +3674,61 @@
         <v>76</v>
       </c>
       <c r="F21" t="n">
-        <v>584833</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1099</v>
-      </c>
-      <c r="H21" t="s">
-        <v>237</v>
+        <v>857627</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
+        <v>79</v>
+      </c>
+      <c r="M21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" t="s">
         <v>80</v>
       </c>
-      <c r="M21" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s">
         <v>82</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
+        <v>92</v>
+      </c>
+      <c r="V21" t="s">
+        <v>93</v>
+      </c>
+      <c r="X21" t="s">
         <v>83</v>
       </c>
-      <c r="T21" t="s">
-        <v>239</v>
-      </c>
-      <c r="U21" t="s">
-        <v>240</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF21" t="s">
         <v>87</v>
       </c>
-      <c r="Y21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>242</v>
-      </c>
       <c r="BG21" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="BH21" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="BI21" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:69">
@@ -3548,88 +3742,55 @@
         <v>76</v>
       </c>
       <c r="F22" t="n">
-        <v>613758</v>
+        <v>1000121</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
-      </c>
-      <c r="H22" t="s">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>248</v>
-      </c>
-      <c r="J22" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" t="s">
         <v>80</v>
       </c>
-      <c r="M22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="S22" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" t="s">
-        <v>250</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
         <v>83</v>
       </c>
-      <c r="T22" t="s">
-        <v>251</v>
-      </c>
-      <c r="X22" t="s">
-        <v>252</v>
-      </c>
       <c r="Y22" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="AF22" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>255</v>
+        <v>214</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>102</v>
       </c>
       <c r="AM22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="BF22" t="s">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="BG22" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="BH22" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="BI22" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:69">
@@ -3643,80 +3804,594 @@
         <v>76</v>
       </c>
       <c r="F23" t="n">
-        <v>1054855</v>
-      </c>
-      <c r="G23" t="s">
+        <v>1095042</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>219</v>
+      </c>
+      <c r="S23" t="s">
+        <v>100</v>
+      </c>
+      <c r="T23" t="s">
+        <v>68</v>
+      </c>
+      <c r="U23" t="s">
+        <v>189</v>
+      </c>
+      <c r="X23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>220</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>221</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:69">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="n">
+        <v>438023</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>80</v>
+      </c>
+      <c r="S24" t="s">
+        <v>100</v>
+      </c>
+      <c r="T24" t="s">
+        <v>224</v>
+      </c>
+      <c r="U24" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>227</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:69">
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>556757</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" t="s">
+        <v>81</v>
+      </c>
+      <c r="T25" t="s">
+        <v>140</v>
+      </c>
+      <c r="U25" t="s">
+        <v>93</v>
+      </c>
+      <c r="V25" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:69">
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="n">
+        <v>858700</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s">
+        <v>100</v>
+      </c>
+      <c r="T26" t="s">
+        <v>235</v>
+      </c>
+      <c r="U26" t="s">
+        <v>236</v>
+      </c>
+      <c r="V26" t="s">
+        <v>102</v>
+      </c>
+      <c r="X26" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>240</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:69">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1092592</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" t="s">
+        <v>100</v>
+      </c>
+      <c r="T27" t="s">
+        <v>244</v>
+      </c>
+      <c r="X27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>246</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>247</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>248</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:69">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1124850</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:69">
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1124669</v>
+      </c>
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" t="s">
+        <v>100</v>
+      </c>
+      <c r="T29" t="s">
+        <v>252</v>
+      </c>
+      <c r="U29" t="s">
+        <v>253</v>
+      </c>
+      <c r="X29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>254</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>255</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:69">
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="n">
+        <v>277947</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>80</v>
+      </c>
+      <c r="U30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>258</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>259</v>
+      </c>
+      <c r="BH30" t="s">
         <v>260</v>
       </c>
-      <c r="I23" t="s">
+      <c r="BI30" t="s">
         <v>261</v>
       </c>
-      <c r="J23" t="s">
+    </row>
+    <row r="31" spans="1:69">
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="n">
+        <v>853459</v>
+      </c>
+      <c r="G31" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I31" t="s">
         <v>262</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q31" t="s">
         <v>80</v>
       </c>
-      <c r="M23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>82</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="S31" t="s">
+        <v>100</v>
+      </c>
+      <c r="T31" t="s">
         <v>263</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U31" t="s">
+        <v>236</v>
+      </c>
+      <c r="X31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF31" t="s">
         <v>264</v>
       </c>
-      <c r="U23" t="s">
+      <c r="BG31" t="s">
         <v>265</v>
       </c>
-      <c r="X23" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF23" t="s">
+      <c r="BH31" t="s">
         <v>266</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="BI31" t="s">
         <v>267</v>
       </c>
-      <c r="AM23" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF23" t="s">
+    </row>
+    <row r="32" spans="1:69">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1056614</v>
+      </c>
+      <c r="G32" t="n">
+        <v>949.95</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32" t="s">
         <v>268</v>
       </c>
-      <c r="BG23" t="s">
+      <c r="T32" t="s">
         <v>269</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="U32" t="s">
         <v>270</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="X32" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF32" t="s">
         <v>271</v>
       </c>
+      <c r="AM32" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>272</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:BG3"/>
+  <autoFilter ref="A3:BG4"/>
   <hyperlinks>
     <hyperlink ref="BG4" r:id="rId1"/>
     <hyperlink ref="BG5" r:id="rId2"/>
@@ -3738,6 +4413,15 @@
     <hyperlink ref="BG21" r:id="rId18"/>
     <hyperlink ref="BG22" r:id="rId19"/>
     <hyperlink ref="BG23" r:id="rId20"/>
+    <hyperlink ref="BG24" r:id="rId21"/>
+    <hyperlink ref="BG25" r:id="rId22"/>
+    <hyperlink ref="BG26" r:id="rId23"/>
+    <hyperlink ref="BG27" r:id="rId24"/>
+    <hyperlink ref="BG28" r:id="rId25"/>
+    <hyperlink ref="BG29" r:id="rId26"/>
+    <hyperlink ref="BG30" r:id="rId27"/>
+    <hyperlink ref="BG31" r:id="rId28"/>
+    <hyperlink ref="BG32" r:id="rId29"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
@@ -3750,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG6"/>
+  <dimension ref="A1:BG71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
@@ -3925,7 +4609,7 @@
         <v>37</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AD3" s="14" t="s">
         <v>39</v>
@@ -4011,7 +4695,7 @@
         <v>64</v>
       </c>
       <c r="BG3" s="11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -4057,16 +4741,16 @@
         <v>55665</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="S5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="BG5" s="26" t="s">
         <v>73</v>
@@ -4083,19 +4767,4238 @@
         <v>134124</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="BG6" s="26" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1087691</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" t="s">
+        <v>281</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1035344</v>
+      </c>
+      <c r="G8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" t="s">
+        <v>291</v>
+      </c>
+      <c r="W8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>994</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1048364</v>
+      </c>
+      <c r="G9" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" t="s">
+        <v>296</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" t="s">
+        <v>297</v>
+      </c>
+      <c r="T9" t="s">
+        <v>93</v>
+      </c>
+      <c r="U9" t="s">
+        <v>133</v>
+      </c>
+      <c r="W9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>799</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1073820</v>
+      </c>
+      <c r="H10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" t="s">
+        <v>303</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" t="s">
+        <v>268</v>
+      </c>
+      <c r="S10" t="s">
+        <v>304</v>
+      </c>
+      <c r="T10" t="s">
+        <v>305</v>
+      </c>
+      <c r="W10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>306</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>1079</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1106434</v>
+      </c>
+      <c r="G11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H11" t="s">
+        <v>187</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" t="s">
+        <v>188</v>
+      </c>
+      <c r="T11" t="s">
+        <v>189</v>
+      </c>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="n">
+        <v>527833</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" t="s">
+        <v>140</v>
+      </c>
+      <c r="W12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1023736</v>
+      </c>
+      <c r="G13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" t="s">
+        <v>315</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>316</v>
+      </c>
+      <c r="P13" t="s">
+        <v>219</v>
+      </c>
+      <c r="R13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>750</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="n">
+        <v>712024</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>268</v>
+      </c>
+      <c r="S14" t="s">
+        <v>149</v>
+      </c>
+      <c r="W14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>319</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>669</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59">
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1057467</v>
+      </c>
+      <c r="G15" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" t="s">
+        <v>320</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>100</v>
+      </c>
+      <c r="S15" t="s">
+        <v>321</v>
+      </c>
+      <c r="T15" t="s">
+        <v>157</v>
+      </c>
+      <c r="U15" t="s">
+        <v>229</v>
+      </c>
+      <c r="W15" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1105963</v>
+      </c>
+      <c r="H16" t="s">
+        <v>327</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" t="s">
+        <v>328</v>
+      </c>
+      <c r="T16" t="s">
+        <v>236</v>
+      </c>
+      <c r="W16" t="s">
+        <v>83</v>
+      </c>
+      <c r="X16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59">
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="n">
+        <v>345710</v>
+      </c>
+      <c r="H17" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" t="s">
+        <v>330</v>
+      </c>
+      <c r="T17" t="s">
+        <v>331</v>
+      </c>
+      <c r="U17" t="s">
+        <v>133</v>
+      </c>
+      <c r="W17" t="s">
+        <v>83</v>
+      </c>
+      <c r="X17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>332</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59">
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1116372</v>
+      </c>
+      <c r="H18" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18" t="s">
+        <v>140</v>
+      </c>
+      <c r="W18" t="s">
+        <v>83</v>
+      </c>
+      <c r="X18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>335</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="n">
+        <v>901600</v>
+      </c>
+      <c r="H19" t="s">
+        <v>337</v>
+      </c>
+      <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" t="s">
+        <v>338</v>
+      </c>
+      <c r="T19" t="s">
+        <v>339</v>
+      </c>
+      <c r="W19" t="s">
+        <v>83</v>
+      </c>
+      <c r="X19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59">
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="n">
+        <v>907741</v>
+      </c>
+      <c r="G20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H20" t="s">
+        <v>344</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" t="s">
+        <v>140</v>
+      </c>
+      <c r="T20" t="s">
+        <v>345</v>
+      </c>
+      <c r="U20" t="s">
+        <v>346</v>
+      </c>
+      <c r="W20" t="s">
+        <v>83</v>
+      </c>
+      <c r="X20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>348</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1038178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" t="s">
+        <v>351</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21" t="s">
+        <v>352</v>
+      </c>
+      <c r="W21" t="s">
+        <v>83</v>
+      </c>
+      <c r="X21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>353</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>528</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1118465</v>
+      </c>
+      <c r="G22" t="s">
+        <v>355</v>
+      </c>
+      <c r="H22" t="s">
+        <v>356</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" t="s">
+        <v>140</v>
+      </c>
+      <c r="T22" t="s">
+        <v>357</v>
+      </c>
+      <c r="W22" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59">
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1054296</v>
+      </c>
+      <c r="G23" t="s">
+        <v>360</v>
+      </c>
+      <c r="H23" t="s">
+        <v>361</v>
+      </c>
+      <c r="K23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s">
+        <v>362</v>
+      </c>
+      <c r="W23" t="s">
+        <v>83</v>
+      </c>
+      <c r="X23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>366</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="n">
+        <v>949353</v>
+      </c>
+      <c r="G24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H24" t="s">
+        <v>368</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" t="s">
+        <v>68</v>
+      </c>
+      <c r="P24" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" t="s">
+        <v>369</v>
+      </c>
+      <c r="T24" t="s">
+        <v>291</v>
+      </c>
+      <c r="W24" t="s">
+        <v>83</v>
+      </c>
+      <c r="X24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>372</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59">
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="n">
+        <v>961185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" t="s">
+        <v>374</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" t="s">
+        <v>82</v>
+      </c>
+      <c r="T25" t="s">
+        <v>92</v>
+      </c>
+      <c r="W25" t="s">
+        <v>83</v>
+      </c>
+      <c r="X25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59">
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="n">
+        <v>690600</v>
+      </c>
+      <c r="G26" t="s">
+        <v>377</v>
+      </c>
+      <c r="H26" t="s">
+        <v>378</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" t="s">
+        <v>125</v>
+      </c>
+      <c r="T26" t="s">
+        <v>102</v>
+      </c>
+      <c r="W26" t="s">
+        <v>83</v>
+      </c>
+      <c r="X26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59">
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="n">
+        <v>994003</v>
+      </c>
+      <c r="G27" t="s">
+        <v>380</v>
+      </c>
+      <c r="H27" t="s">
+        <v>381</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27" t="s">
+        <v>382</v>
+      </c>
+      <c r="T27" t="s">
+        <v>383</v>
+      </c>
+      <c r="W27" t="s">
+        <v>83</v>
+      </c>
+      <c r="X27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1050</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59">
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="n">
+        <v>635059</v>
+      </c>
+      <c r="G28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H28" t="s">
+        <v>388</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" t="s">
+        <v>81</v>
+      </c>
+      <c r="S28" t="s">
+        <v>389</v>
+      </c>
+      <c r="W28" t="s">
+        <v>83</v>
+      </c>
+      <c r="X28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59">
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="n">
+        <v>933491</v>
+      </c>
+      <c r="G29" t="s">
+        <v>392</v>
+      </c>
+      <c r="H29" t="s">
+        <v>393</v>
+      </c>
+      <c r="I29" t="s">
+        <v>394</v>
+      </c>
+      <c r="K29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" t="s">
+        <v>316</v>
+      </c>
+      <c r="P29" t="s">
+        <v>395</v>
+      </c>
+      <c r="R29" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" t="s">
+        <v>396</v>
+      </c>
+      <c r="T29" t="s">
+        <v>397</v>
+      </c>
+      <c r="U29" t="s">
+        <v>133</v>
+      </c>
+      <c r="W29" t="s">
+        <v>83</v>
+      </c>
+      <c r="X29" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>583</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59">
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="n">
+        <v>885343</v>
+      </c>
+      <c r="G30" t="s">
+        <v>400</v>
+      </c>
+      <c r="H30" t="s">
+        <v>401</v>
+      </c>
+      <c r="K30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" t="s">
+        <v>100</v>
+      </c>
+      <c r="S30" t="s">
+        <v>402</v>
+      </c>
+      <c r="T30" t="s">
+        <v>403</v>
+      </c>
+      <c r="W30" t="s">
+        <v>83</v>
+      </c>
+      <c r="X30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>405</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>406</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59">
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="n">
+        <v>744502</v>
+      </c>
+      <c r="G31" t="s">
+        <v>407</v>
+      </c>
+      <c r="H31" t="s">
+        <v>408</v>
+      </c>
+      <c r="I31" t="s">
+        <v>409</v>
+      </c>
+      <c r="K31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31" t="s">
+        <v>100</v>
+      </c>
+      <c r="S31" t="s">
+        <v>410</v>
+      </c>
+      <c r="T31" t="s">
+        <v>411</v>
+      </c>
+      <c r="W31" t="s">
+        <v>83</v>
+      </c>
+      <c r="X31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>413</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>849</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="n">
+        <v>679802</v>
+      </c>
+      <c r="G32" t="s">
+        <v>415</v>
+      </c>
+      <c r="H32" t="s">
+        <v>416</v>
+      </c>
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" t="s">
+        <v>100</v>
+      </c>
+      <c r="S32" t="s">
+        <v>417</v>
+      </c>
+      <c r="T32" t="s">
+        <v>418</v>
+      </c>
+      <c r="U32" t="s">
+        <v>182</v>
+      </c>
+      <c r="W32" t="s">
+        <v>83</v>
+      </c>
+      <c r="X32" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>419</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="n">
+        <v>984916</v>
+      </c>
+      <c r="G33" t="s">
+        <v>421</v>
+      </c>
+      <c r="H33" t="s">
+        <v>422</v>
+      </c>
+      <c r="I33" t="s">
+        <v>423</v>
+      </c>
+      <c r="K33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" t="s">
+        <v>316</v>
+      </c>
+      <c r="P33" t="s">
+        <v>424</v>
+      </c>
+      <c r="W33" t="s">
+        <v>83</v>
+      </c>
+      <c r="X33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>427</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59">
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="n">
+        <v>897670</v>
+      </c>
+      <c r="G34" t="s">
+        <v>429</v>
+      </c>
+      <c r="H34" t="s">
+        <v>430</v>
+      </c>
+      <c r="K34" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="s">
+        <v>80</v>
+      </c>
+      <c r="R34" t="s">
+        <v>81</v>
+      </c>
+      <c r="S34" t="s">
+        <v>125</v>
+      </c>
+      <c r="T34" t="s">
+        <v>431</v>
+      </c>
+      <c r="W34" t="s">
+        <v>83</v>
+      </c>
+      <c r="X34" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59">
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="n">
+        <v>303142</v>
+      </c>
+      <c r="G35" t="s">
+        <v>392</v>
+      </c>
+      <c r="H35" t="s">
+        <v>435</v>
+      </c>
+      <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" t="s">
+        <v>316</v>
+      </c>
+      <c r="P35" t="s">
+        <v>436</v>
+      </c>
+      <c r="R35" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" t="s">
+        <v>437</v>
+      </c>
+      <c r="T35" t="s">
+        <v>438</v>
+      </c>
+      <c r="W35" t="s">
+        <v>83</v>
+      </c>
+      <c r="X35" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>998</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1036512</v>
+      </c>
+      <c r="G36" t="s">
+        <v>441</v>
+      </c>
+      <c r="H36" t="s">
+        <v>442</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36" t="s">
+        <v>100</v>
+      </c>
+      <c r="S36" t="s">
+        <v>443</v>
+      </c>
+      <c r="T36" t="s">
+        <v>305</v>
+      </c>
+      <c r="W36" t="s">
+        <v>83</v>
+      </c>
+      <c r="X36" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>444</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>445</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59">
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100249</v>
+      </c>
+      <c r="H37" t="s">
+        <v>447</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" t="s">
+        <v>316</v>
+      </c>
+      <c r="P37" t="s">
+        <v>448</v>
+      </c>
+      <c r="W37" t="s">
+        <v>83</v>
+      </c>
+      <c r="X37" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>450</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>370</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59">
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>242</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" t="n">
+        <v>510476</v>
+      </c>
+      <c r="G38" t="s">
+        <v>308</v>
+      </c>
+      <c r="H38" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" t="s">
+        <v>453</v>
+      </c>
+      <c r="K38" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="s">
+        <v>80</v>
+      </c>
+      <c r="R38" t="s">
+        <v>81</v>
+      </c>
+      <c r="S38" t="s">
+        <v>140</v>
+      </c>
+      <c r="T38" t="s">
+        <v>454</v>
+      </c>
+      <c r="W38" t="s">
+        <v>83</v>
+      </c>
+      <c r="X38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>780</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59">
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="n">
+        <v>465340</v>
+      </c>
+      <c r="G39" t="s">
+        <v>457</v>
+      </c>
+      <c r="H39" t="s">
+        <v>458</v>
+      </c>
+      <c r="K39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="s">
+        <v>80</v>
+      </c>
+      <c r="R39" t="s">
+        <v>81</v>
+      </c>
+      <c r="S39" t="s">
+        <v>125</v>
+      </c>
+      <c r="T39" t="s">
+        <v>431</v>
+      </c>
+      <c r="W39" t="s">
+        <v>83</v>
+      </c>
+      <c r="X39" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1100</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59">
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="n">
+        <v>465395</v>
+      </c>
+      <c r="H40" t="s">
+        <v>461</v>
+      </c>
+      <c r="K40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="s">
+        <v>80</v>
+      </c>
+      <c r="R40" t="s">
+        <v>100</v>
+      </c>
+      <c r="S40" t="s">
+        <v>462</v>
+      </c>
+      <c r="W40" t="s">
+        <v>83</v>
+      </c>
+      <c r="X40" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>759</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59">
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="n">
+        <v>565628</v>
+      </c>
+      <c r="G41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H41" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" t="s">
+        <v>316</v>
+      </c>
+      <c r="P41" t="s">
+        <v>155</v>
+      </c>
+      <c r="R41" t="s">
+        <v>100</v>
+      </c>
+      <c r="S41" t="s">
+        <v>156</v>
+      </c>
+      <c r="T41" t="s">
+        <v>157</v>
+      </c>
+      <c r="U41" t="s">
+        <v>158</v>
+      </c>
+      <c r="W41" t="s">
+        <v>83</v>
+      </c>
+      <c r="X41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59">
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="n">
+        <v>634629</v>
+      </c>
+      <c r="G42" t="s">
+        <v>467</v>
+      </c>
+      <c r="H42" t="s">
+        <v>468</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P42" t="s">
+        <v>80</v>
+      </c>
+      <c r="R42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S42" t="s">
+        <v>469</v>
+      </c>
+      <c r="T42" t="s">
+        <v>470</v>
+      </c>
+      <c r="W42" t="s">
+        <v>83</v>
+      </c>
+      <c r="X42" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>472</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59">
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="n">
+        <v>818213</v>
+      </c>
+      <c r="H43" t="s">
+        <v>473</v>
+      </c>
+      <c r="K43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R43" t="s">
+        <v>100</v>
+      </c>
+      <c r="S43" t="s">
+        <v>474</v>
+      </c>
+      <c r="T43" t="s">
+        <v>189</v>
+      </c>
+      <c r="W43" t="s">
+        <v>83</v>
+      </c>
+      <c r="X43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>476</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>799</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>287</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59">
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" t="n">
+        <v>943895</v>
+      </c>
+      <c r="G44" t="s">
+        <v>429</v>
+      </c>
+      <c r="H44" t="s">
+        <v>478</v>
+      </c>
+      <c r="K44" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="s">
+        <v>80</v>
+      </c>
+      <c r="R44" t="s">
+        <v>100</v>
+      </c>
+      <c r="S44" t="s">
+        <v>156</v>
+      </c>
+      <c r="T44" t="s">
+        <v>93</v>
+      </c>
+      <c r="W44" t="s">
+        <v>83</v>
+      </c>
+      <c r="X44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>480</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59">
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" t="n">
+        <v>562928</v>
+      </c>
+      <c r="H45" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" t="s">
+        <v>80</v>
+      </c>
+      <c r="R45" t="s">
+        <v>81</v>
+      </c>
+      <c r="S45" t="s">
+        <v>82</v>
+      </c>
+      <c r="W45" t="s">
+        <v>482</v>
+      </c>
+      <c r="X45" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59">
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1032405</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" t="s">
+        <v>80</v>
+      </c>
+      <c r="R46" t="s">
+        <v>81</v>
+      </c>
+      <c r="S46" t="s">
+        <v>82</v>
+      </c>
+      <c r="T46" t="s">
+        <v>92</v>
+      </c>
+      <c r="U46" t="s">
+        <v>93</v>
+      </c>
+      <c r="W46" t="s">
+        <v>482</v>
+      </c>
+      <c r="X46" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59">
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="n">
+        <v>354937</v>
+      </c>
+      <c r="H47" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" t="s">
+        <v>68</v>
+      </c>
+      <c r="P47" t="s">
+        <v>80</v>
+      </c>
+      <c r="R47" t="s">
+        <v>100</v>
+      </c>
+      <c r="S47" t="s">
+        <v>101</v>
+      </c>
+      <c r="T47" t="s">
+        <v>102</v>
+      </c>
+      <c r="W47" t="s">
+        <v>482</v>
+      </c>
+      <c r="X47" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>19</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59">
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="n">
+        <v>724390</v>
+      </c>
+      <c r="H48" t="s">
+        <v>111</v>
+      </c>
+      <c r="K48" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" t="s">
+        <v>68</v>
+      </c>
+      <c r="P48" t="s">
+        <v>80</v>
+      </c>
+      <c r="R48" t="s">
+        <v>100</v>
+      </c>
+      <c r="S48" t="s">
+        <v>112</v>
+      </c>
+      <c r="W48" t="s">
+        <v>482</v>
+      </c>
+      <c r="X48" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59">
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" t="n">
+        <v>559794</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="K49" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" t="s">
+        <v>80</v>
+      </c>
+      <c r="R49" t="s">
+        <v>100</v>
+      </c>
+      <c r="S49" t="s">
+        <v>118</v>
+      </c>
+      <c r="T49" t="s">
+        <v>119</v>
+      </c>
+      <c r="W49" t="s">
+        <v>482</v>
+      </c>
+      <c r="X49" t="s">
+        <v>483</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59">
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" t="n">
+        <v>557365</v>
+      </c>
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P50" t="s">
+        <v>80</v>
+      </c>
+      <c r="R50" t="s">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s">
+        <v>125</v>
+      </c>
+      <c r="T50" t="s">
+        <v>102</v>
+      </c>
+      <c r="W50" t="s">
+        <v>482</v>
+      </c>
+      <c r="X50" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>699</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59">
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="n">
+        <v>509461</v>
+      </c>
+      <c r="H51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" t="s">
+        <v>80</v>
+      </c>
+      <c r="R51" t="s">
+        <v>100</v>
+      </c>
+      <c r="S51" t="s">
+        <v>131</v>
+      </c>
+      <c r="T51" t="s">
+        <v>132</v>
+      </c>
+      <c r="U51" t="s">
+        <v>133</v>
+      </c>
+      <c r="W51" t="s">
+        <v>482</v>
+      </c>
+      <c r="X51" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:59">
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="n">
+        <v>527820</v>
+      </c>
+      <c r="H52" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P52" t="s">
+        <v>80</v>
+      </c>
+      <c r="R52" t="s">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s">
+        <v>140</v>
+      </c>
+      <c r="W52" t="s">
+        <v>482</v>
+      </c>
+      <c r="X52" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:59">
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" t="n">
+        <v>759901</v>
+      </c>
+      <c r="H53" t="s">
+        <v>147</v>
+      </c>
+      <c r="K53" t="s">
+        <v>79</v>
+      </c>
+      <c r="L53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" t="s">
+        <v>80</v>
+      </c>
+      <c r="R53" t="s">
+        <v>148</v>
+      </c>
+      <c r="S53" t="s">
+        <v>149</v>
+      </c>
+      <c r="W53" t="s">
+        <v>482</v>
+      </c>
+      <c r="X53" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>669</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59">
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" t="n">
+        <v>565702</v>
+      </c>
+      <c r="H54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="s">
+        <v>155</v>
+      </c>
+      <c r="R54" t="s">
+        <v>100</v>
+      </c>
+      <c r="S54" t="s">
+        <v>156</v>
+      </c>
+      <c r="T54" t="s">
+        <v>157</v>
+      </c>
+      <c r="U54" t="s">
+        <v>158</v>
+      </c>
+      <c r="W54" t="s">
+        <v>482</v>
+      </c>
+      <c r="X54" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59">
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" t="n">
+        <v>875220</v>
+      </c>
+      <c r="H55" t="s">
+        <v>164</v>
+      </c>
+      <c r="K55" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" t="s">
+        <v>68</v>
+      </c>
+      <c r="P55" t="s">
+        <v>80</v>
+      </c>
+      <c r="R55" t="s">
+        <v>100</v>
+      </c>
+      <c r="S55" t="s">
+        <v>165</v>
+      </c>
+      <c r="T55" t="s">
+        <v>166</v>
+      </c>
+      <c r="U55" t="s">
+        <v>167</v>
+      </c>
+      <c r="W55" t="s">
+        <v>482</v>
+      </c>
+      <c r="X55" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59">
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" t="n">
+        <v>546555</v>
+      </c>
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
+      <c r="K56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" t="s">
+        <v>68</v>
+      </c>
+      <c r="P56" t="s">
+        <v>80</v>
+      </c>
+      <c r="R56" t="s">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s">
+        <v>125</v>
+      </c>
+      <c r="T56" t="s">
+        <v>174</v>
+      </c>
+      <c r="W56" t="s">
+        <v>482</v>
+      </c>
+      <c r="X56" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59">
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" t="n">
+        <v>553221</v>
+      </c>
+      <c r="H57" t="s">
+        <v>180</v>
+      </c>
+      <c r="K57" t="s">
+        <v>79</v>
+      </c>
+      <c r="L57" t="s">
+        <v>68</v>
+      </c>
+      <c r="P57" t="s">
+        <v>80</v>
+      </c>
+      <c r="R57" t="s">
+        <v>100</v>
+      </c>
+      <c r="S57" t="s">
+        <v>181</v>
+      </c>
+      <c r="T57" t="s">
+        <v>182</v>
+      </c>
+      <c r="W57" t="s">
+        <v>482</v>
+      </c>
+      <c r="X57" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59">
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1106361</v>
+      </c>
+      <c r="H58" t="s">
+        <v>187</v>
+      </c>
+      <c r="K58" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" t="s">
+        <v>68</v>
+      </c>
+      <c r="P58" t="s">
+        <v>80</v>
+      </c>
+      <c r="R58" t="s">
+        <v>100</v>
+      </c>
+      <c r="S58" t="s">
+        <v>188</v>
+      </c>
+      <c r="T58" t="s">
+        <v>189</v>
+      </c>
+      <c r="W58" t="s">
+        <v>482</v>
+      </c>
+      <c r="X58" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59">
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" t="n">
+        <v>166126</v>
+      </c>
+      <c r="H59" t="s">
+        <v>199</v>
+      </c>
+      <c r="K59" t="s">
+        <v>79</v>
+      </c>
+      <c r="L59" t="s">
+        <v>68</v>
+      </c>
+      <c r="P59" t="s">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s">
+        <v>200</v>
+      </c>
+      <c r="W59" t="s">
+        <v>482</v>
+      </c>
+      <c r="X59" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59">
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" t="n">
+        <v>659501</v>
+      </c>
+      <c r="H60" t="s">
+        <v>193</v>
+      </c>
+      <c r="K60" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" t="s">
+        <v>80</v>
+      </c>
+      <c r="R60" t="s">
+        <v>100</v>
+      </c>
+      <c r="S60" t="s">
+        <v>194</v>
+      </c>
+      <c r="T60" t="s">
+        <v>167</v>
+      </c>
+      <c r="W60" t="s">
+        <v>482</v>
+      </c>
+      <c r="X60" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59">
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" t="n">
+        <v>857627</v>
+      </c>
+      <c r="H61" t="s">
+        <v>206</v>
+      </c>
+      <c r="K61" t="s">
+        <v>79</v>
+      </c>
+      <c r="L61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P61" t="s">
+        <v>80</v>
+      </c>
+      <c r="R61" t="s">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s">
+        <v>82</v>
+      </c>
+      <c r="T61" t="s">
+        <v>92</v>
+      </c>
+      <c r="U61" t="s">
+        <v>93</v>
+      </c>
+      <c r="W61" t="s">
+        <v>482</v>
+      </c>
+      <c r="X61" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59">
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1095042</v>
+      </c>
+      <c r="H62" t="s">
+        <v>218</v>
+      </c>
+      <c r="K62" t="s">
+        <v>79</v>
+      </c>
+      <c r="L62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="s">
+        <v>219</v>
+      </c>
+      <c r="R62" t="s">
+        <v>100</v>
+      </c>
+      <c r="S62" t="s">
+        <v>68</v>
+      </c>
+      <c r="T62" t="s">
+        <v>189</v>
+      </c>
+      <c r="W62" t="s">
+        <v>482</v>
+      </c>
+      <c r="X62" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59">
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" t="n">
+        <v>277947</v>
+      </c>
+      <c r="H63" t="s">
+        <v>212</v>
+      </c>
+      <c r="K63" t="s">
+        <v>79</v>
+      </c>
+      <c r="L63" t="s">
+        <v>68</v>
+      </c>
+      <c r="P63" t="s">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s">
+        <v>257</v>
+      </c>
+      <c r="W63" t="s">
+        <v>482</v>
+      </c>
+      <c r="X63" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59">
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" t="n">
+        <v>853459</v>
+      </c>
+      <c r="H64" t="s">
+        <v>262</v>
+      </c>
+      <c r="K64" t="s">
+        <v>79</v>
+      </c>
+      <c r="L64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P64" t="s">
+        <v>80</v>
+      </c>
+      <c r="R64" t="s">
+        <v>100</v>
+      </c>
+      <c r="S64" t="s">
+        <v>263</v>
+      </c>
+      <c r="T64" t="s">
+        <v>236</v>
+      </c>
+      <c r="W64" t="s">
+        <v>482</v>
+      </c>
+      <c r="X64" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:59">
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" t="n">
+        <v>556757</v>
+      </c>
+      <c r="H65" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" t="s">
+        <v>79</v>
+      </c>
+      <c r="L65" t="s">
+        <v>68</v>
+      </c>
+      <c r="P65" t="s">
+        <v>80</v>
+      </c>
+      <c r="R65" t="s">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s">
+        <v>140</v>
+      </c>
+      <c r="T65" t="s">
+        <v>93</v>
+      </c>
+      <c r="U65" t="s">
+        <v>229</v>
+      </c>
+      <c r="W65" t="s">
+        <v>482</v>
+      </c>
+      <c r="X65" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:59">
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" t="n">
+        <v>858700</v>
+      </c>
+      <c r="H66" t="s">
+        <v>234</v>
+      </c>
+      <c r="K66" t="s">
+        <v>79</v>
+      </c>
+      <c r="L66" t="s">
+        <v>68</v>
+      </c>
+      <c r="P66" t="s">
+        <v>80</v>
+      </c>
+      <c r="R66" t="s">
+        <v>100</v>
+      </c>
+      <c r="S66" t="s">
+        <v>235</v>
+      </c>
+      <c r="T66" t="s">
+        <v>236</v>
+      </c>
+      <c r="U66" t="s">
+        <v>102</v>
+      </c>
+      <c r="W66" t="s">
+        <v>482</v>
+      </c>
+      <c r="X66" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:59">
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1056614</v>
+      </c>
+      <c r="H67" t="s">
+        <v>243</v>
+      </c>
+      <c r="K67" t="s">
+        <v>79</v>
+      </c>
+      <c r="L67" t="s">
+        <v>68</v>
+      </c>
+      <c r="P67" t="s">
+        <v>80</v>
+      </c>
+      <c r="R67" t="s">
+        <v>268</v>
+      </c>
+      <c r="S67" t="s">
+        <v>269</v>
+      </c>
+      <c r="T67" t="s">
+        <v>270</v>
+      </c>
+      <c r="W67" t="s">
+        <v>482</v>
+      </c>
+      <c r="X67" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>949</v>
+      </c>
+      <c r="BF67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59">
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1124669</v>
+      </c>
+      <c r="K68" t="s">
+        <v>79</v>
+      </c>
+      <c r="L68" t="s">
+        <v>68</v>
+      </c>
+      <c r="P68" t="s">
+        <v>80</v>
+      </c>
+      <c r="R68" t="s">
+        <v>100</v>
+      </c>
+      <c r="S68" t="s">
+        <v>252</v>
+      </c>
+      <c r="T68" t="s">
+        <v>253</v>
+      </c>
+      <c r="W68" t="s">
+        <v>482</v>
+      </c>
+      <c r="X68" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:59">
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1092592</v>
+      </c>
+      <c r="H69" t="s">
+        <v>243</v>
+      </c>
+      <c r="K69" t="s">
+        <v>79</v>
+      </c>
+      <c r="L69" t="s">
+        <v>68</v>
+      </c>
+      <c r="P69" t="s">
+        <v>80</v>
+      </c>
+      <c r="R69" t="s">
+        <v>100</v>
+      </c>
+      <c r="S69" t="s">
+        <v>244</v>
+      </c>
+      <c r="W69" t="s">
+        <v>482</v>
+      </c>
+      <c r="X69" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BF69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:59">
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" t="n">
+        <v>438023</v>
+      </c>
+      <c r="H70" t="s">
+        <v>223</v>
+      </c>
+      <c r="K70" t="s">
+        <v>79</v>
+      </c>
+      <c r="L70" t="s">
+        <v>68</v>
+      </c>
+      <c r="P70" t="s">
+        <v>80</v>
+      </c>
+      <c r="R70" t="s">
+        <v>100</v>
+      </c>
+      <c r="S70" t="s">
+        <v>224</v>
+      </c>
+      <c r="T70" t="s">
+        <v>225</v>
+      </c>
+      <c r="W70" t="s">
+        <v>482</v>
+      </c>
+      <c r="X70" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:59">
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1000121</v>
+      </c>
+      <c r="H71" t="s">
+        <v>212</v>
+      </c>
+      <c r="K71" t="s">
+        <v>79</v>
+      </c>
+      <c r="L71" t="s">
+        <v>68</v>
+      </c>
+      <c r="P71" t="s">
+        <v>80</v>
+      </c>
+      <c r="R71" t="s">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s">
+        <v>213</v>
+      </c>
+      <c r="W71" t="s">
+        <v>482</v>
+      </c>
+      <c r="X71" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/MyExcel.xlsx
+++ b/MyExcel.xlsx
@@ -1,358 +1,357 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Предложения" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Предложения" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
-    <definedName localSheetId="0" name="AASRA">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$BG$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Предложения!$A$3:$BG$3</definedName>
+    <definedName name="AASRA" localSheetId="0">#REF!</definedName>
     <definedName name="AASRA">#REF!</definedName>
-    <definedName localSheetId="0" name="ACKIL">#REF!</definedName>
+    <definedName name="ACKIL" localSheetId="0">#REF!</definedName>
     <definedName name="ACKIL">#REF!</definedName>
-    <definedName localSheetId="0" name="AGDMR">#REF!</definedName>
+    <definedName name="AGDMR" localSheetId="0">#REF!</definedName>
     <definedName name="AGDMR">#REF!</definedName>
-    <definedName localSheetId="0" name="ANTTQ">#REF!</definedName>
+    <definedName name="ANTTQ" localSheetId="0">#REF!</definedName>
     <definedName name="ANTTQ">#REF!</definedName>
-    <definedName localSheetId="0" name="ASLKJ">#REF!</definedName>
+    <definedName name="ASLKJ" localSheetId="0">#REF!</definedName>
     <definedName name="ASLKJ">#REF!</definedName>
-    <definedName localSheetId="0" name="AYPYI">#REF!</definedName>
+    <definedName name="AYPYI" localSheetId="0">#REF!</definedName>
     <definedName name="AYPYI">#REF!</definedName>
-    <definedName localSheetId="0" name="BBESC">#REF!</definedName>
+    <definedName name="BBESC" localSheetId="0">#REF!</definedName>
     <definedName name="BBESC">#REF!</definedName>
-    <definedName localSheetId="0" name="BNUIH">#REF!</definedName>
+    <definedName name="BNUIH" localSheetId="0">#REF!</definedName>
     <definedName name="BNUIH">#REF!</definedName>
-    <definedName localSheetId="0" name="CANUU">#REF!</definedName>
+    <definedName name="CANUU" localSheetId="0">#REF!</definedName>
     <definedName name="CANUU">#REF!</definedName>
-    <definedName localSheetId="0" name="CDQCY">#REF!</definedName>
+    <definedName name="CDQCY" localSheetId="0">#REF!</definedName>
     <definedName name="CDQCY">#REF!</definedName>
-    <definedName localSheetId="0" name="CFULS">#REF!</definedName>
+    <definedName name="CFULS" localSheetId="0">#REF!</definedName>
     <definedName name="CFULS">#REF!</definedName>
-    <definedName localSheetId="0" name="CGSPG">#REF!</definedName>
+    <definedName name="CGSPG" localSheetId="0">#REF!</definedName>
     <definedName name="CGSPG">#REF!</definedName>
-    <definedName localSheetId="0" name="CLQXN">#REF!</definedName>
+    <definedName name="CLQXN" localSheetId="0">#REF!</definedName>
     <definedName name="CLQXN">#REF!</definedName>
-    <definedName localSheetId="0" name="CLYEI">#REF!</definedName>
+    <definedName name="CLYEI" localSheetId="0">#REF!</definedName>
     <definedName name="CLYEI">#REF!</definedName>
-    <definedName localSheetId="0" name="CPCWO">#REF!</definedName>
+    <definedName name="CPCWO" localSheetId="0">#REF!</definedName>
     <definedName name="CPCWO">#REF!</definedName>
-    <definedName localSheetId="0" name="CYLVP">#REF!</definedName>
+    <definedName name="CYLVP" localSheetId="0">#REF!</definedName>
     <definedName name="CYLVP">#REF!</definedName>
-    <definedName localSheetId="0" name="DCEWY">#REF!</definedName>
+    <definedName name="DCEWY" localSheetId="0">#REF!</definedName>
     <definedName name="DCEWY">#REF!</definedName>
-    <definedName localSheetId="0" name="DFFHB">#REF!</definedName>
+    <definedName name="DFFHB" localSheetId="0">#REF!</definedName>
     <definedName name="DFFHB">#REF!</definedName>
-    <definedName localSheetId="0" name="DHGUV">#REF!</definedName>
+    <definedName name="DHGUV" localSheetId="0">#REF!</definedName>
     <definedName name="DHGUV">#REF!</definedName>
-    <definedName localSheetId="0" name="DMUET">#REF!</definedName>
+    <definedName name="DMUET" localSheetId="0">#REF!</definedName>
     <definedName name="DMUET">#REF!</definedName>
-    <definedName localSheetId="0" name="DUVDE">#REF!</definedName>
+    <definedName name="DUVDE" localSheetId="0">#REF!</definedName>
     <definedName name="DUVDE">#REF!</definedName>
-    <definedName localSheetId="0" name="DVBQP">#REF!</definedName>
+    <definedName name="DVBQP" localSheetId="0">#REF!</definedName>
     <definedName name="DVBQP">#REF!</definedName>
-    <definedName localSheetId="0" name="ECNTR">#REF!</definedName>
+    <definedName name="ECNTR" localSheetId="0">#REF!</definedName>
     <definedName name="ECNTR">#REF!</definedName>
-    <definedName localSheetId="0" name="EHCUH">#REF!</definedName>
+    <definedName name="EHCUH" localSheetId="0">#REF!</definedName>
     <definedName name="EHCUH">#REF!</definedName>
-    <definedName localSheetId="0" name="EOKHF">#REF!</definedName>
+    <definedName name="EOKHF" localSheetId="0">#REF!</definedName>
     <definedName name="EOKHF">#REF!</definedName>
-    <definedName localSheetId="0" name="EQCIG">#REF!</definedName>
+    <definedName name="EQCIG" localSheetId="0">#REF!</definedName>
     <definedName name="EQCIG">#REF!</definedName>
-    <definedName localSheetId="0" name="ETCJQ">#REF!</definedName>
+    <definedName name="ETCJQ" localSheetId="0">#REF!</definedName>
     <definedName name="ETCJQ">#REF!</definedName>
-    <definedName localSheetId="0" name="FASWP">#REF!</definedName>
+    <definedName name="FASWP" localSheetId="0">#REF!</definedName>
     <definedName name="FASWP">#REF!</definedName>
-    <definedName localSheetId="0" name="FEDHD">#REF!</definedName>
+    <definedName name="FEDHD" localSheetId="0">#REF!</definedName>
     <definedName name="FEDHD">#REF!</definedName>
-    <definedName localSheetId="0" name="FMLOT">#REF!</definedName>
+    <definedName name="FMLOT" localSheetId="0">#REF!</definedName>
     <definedName name="FMLOT">#REF!</definedName>
-    <definedName localSheetId="0" name="FNGGJ">#REF!</definedName>
+    <definedName name="FNGGJ" localSheetId="0">#REF!</definedName>
     <definedName name="FNGGJ">#REF!</definedName>
-    <definedName localSheetId="0" name="FOCKC">#REF!</definedName>
+    <definedName name="FOCKC" localSheetId="0">#REF!</definedName>
     <definedName name="FOCKC">#REF!</definedName>
-    <definedName localSheetId="0" name="FPRYL">#REF!</definedName>
+    <definedName name="FPRYL" localSheetId="0">#REF!</definedName>
     <definedName name="FPRYL">#REF!</definedName>
-    <definedName localSheetId="0" name="FREKA">#REF!</definedName>
+    <definedName name="FREKA" localSheetId="0">#REF!</definedName>
     <definedName name="FREKA">#REF!</definedName>
-    <definedName localSheetId="0" name="FTLXN">#REF!</definedName>
+    <definedName name="FTLXN" localSheetId="0">#REF!</definedName>
     <definedName name="FTLXN">#REF!</definedName>
-    <definedName localSheetId="0" name="GAUAU">#REF!</definedName>
+    <definedName name="GAUAU" localSheetId="0">#REF!</definedName>
     <definedName name="GAUAU">#REF!</definedName>
-    <definedName localSheetId="0" name="GHUJN">#REF!</definedName>
+    <definedName name="GHUJN" localSheetId="0">#REF!</definedName>
     <definedName name="GHUJN">#REF!</definedName>
-    <definedName localSheetId="0" name="GITWY">#REF!</definedName>
+    <definedName name="GITWY" localSheetId="0">#REF!</definedName>
     <definedName name="GITWY">#REF!</definedName>
-    <definedName localSheetId="0" name="GLFTT">#REF!</definedName>
+    <definedName name="GLFTT" localSheetId="0">#REF!</definedName>
     <definedName name="GLFTT">#REF!</definedName>
-    <definedName localSheetId="0" name="GLRSX">#REF!</definedName>
+    <definedName name="GLRSX" localSheetId="0">#REF!</definedName>
     <definedName name="GLRSX">#REF!</definedName>
-    <definedName localSheetId="0" name="GMJHN">#REF!</definedName>
+    <definedName name="GMJHN" localSheetId="0">#REF!</definedName>
     <definedName name="GMJHN">#REF!</definedName>
-    <definedName localSheetId="0" name="GNWTB">#REF!</definedName>
+    <definedName name="GNWTB" localSheetId="0">#REF!</definedName>
     <definedName name="GNWTB">#REF!</definedName>
-    <definedName localSheetId="0" name="GTBTG">#REF!</definedName>
+    <definedName name="GTBTG" localSheetId="0">#REF!</definedName>
     <definedName name="GTBTG">#REF!</definedName>
-    <definedName localSheetId="0" name="HDMTB">#REF!</definedName>
+    <definedName name="HDMTB" localSheetId="0">#REF!</definedName>
     <definedName name="HDMTB">#REF!</definedName>
-    <definedName localSheetId="0" name="HULKN">#REF!</definedName>
+    <definedName name="HULKN" localSheetId="0">#REF!</definedName>
     <definedName name="HULKN">#REF!</definedName>
-    <definedName localSheetId="0" name="HWEJA">#REF!</definedName>
+    <definedName name="HWEJA" localSheetId="0">#REF!</definedName>
     <definedName name="HWEJA">#REF!</definedName>
-    <definedName localSheetId="0" name="IMYJP">#REF!</definedName>
+    <definedName name="IMYJP" localSheetId="0">#REF!</definedName>
     <definedName name="IMYJP">#REF!</definedName>
-    <definedName localSheetId="0" name="IQFNC">#REF!</definedName>
+    <definedName name="IQFNC" localSheetId="0">#REF!</definedName>
     <definedName name="IQFNC">#REF!</definedName>
-    <definedName localSheetId="0" name="IUBTX">#REF!</definedName>
+    <definedName name="IUBTX" localSheetId="0">#REF!</definedName>
     <definedName name="IUBTX">#REF!</definedName>
-    <definedName localSheetId="0" name="IUKFT">#REF!</definedName>
+    <definedName name="IUKFT" localSheetId="0">#REF!</definedName>
     <definedName name="IUKFT">#REF!</definedName>
-    <definedName localSheetId="0" name="IWKAU">#REF!</definedName>
+    <definedName name="IWKAU" localSheetId="0">#REF!</definedName>
     <definedName name="IWKAU">#REF!</definedName>
-    <definedName localSheetId="0" name="JIKSV">#REF!</definedName>
+    <definedName name="JIKSV" localSheetId="0">#REF!</definedName>
     <definedName name="JIKSV">#REF!</definedName>
-    <definedName localSheetId="0" name="JWEDM">#REF!</definedName>
+    <definedName name="JWEDM" localSheetId="0">#REF!</definedName>
     <definedName name="JWEDM">#REF!</definedName>
-    <definedName localSheetId="0" name="KBGAR">#REF!</definedName>
+    <definedName name="KBGAR" localSheetId="0">#REF!</definedName>
     <definedName name="KBGAR">#REF!</definedName>
-    <definedName localSheetId="0" name="KBVTX">#REF!</definedName>
+    <definedName name="KBVTX" localSheetId="0">#REF!</definedName>
     <definedName name="KBVTX">#REF!</definedName>
-    <definedName localSheetId="0" name="KFIAX">#REF!</definedName>
+    <definedName name="KFIAX" localSheetId="0">#REF!</definedName>
     <definedName name="KFIAX">#REF!</definedName>
-    <definedName localSheetId="0" name="KLSJV">#REF!</definedName>
+    <definedName name="KLSJV" localSheetId="0">#REF!</definedName>
     <definedName name="KLSJV">#REF!</definedName>
-    <definedName localSheetId="0" name="KQOKC">#REF!</definedName>
+    <definedName name="KQOKC" localSheetId="0">#REF!</definedName>
     <definedName name="KQOKC">#REF!</definedName>
-    <definedName localSheetId="0" name="LGLFE">#REF!</definedName>
+    <definedName name="LGLFE" localSheetId="0">#REF!</definedName>
     <definedName name="LGLFE">#REF!</definedName>
-    <definedName localSheetId="0" name="LJUNW">#REF!</definedName>
+    <definedName name="LJUNW" localSheetId="0">#REF!</definedName>
     <definedName name="LJUNW">#REF!</definedName>
-    <definedName localSheetId="0" name="LLXSS">#REF!</definedName>
+    <definedName name="LLXSS" localSheetId="0">#REF!</definedName>
     <definedName name="LLXSS">#REF!</definedName>
-    <definedName localSheetId="0" name="LMBCV">#REF!</definedName>
+    <definedName name="LMBCV" localSheetId="0">#REF!</definedName>
     <definedName name="LMBCV">#REF!</definedName>
-    <definedName localSheetId="0" name="LYXCF">#REF!</definedName>
+    <definedName name="LYXCF" localSheetId="0">#REF!</definedName>
     <definedName name="LYXCF">#REF!</definedName>
-    <definedName localSheetId="0" name="MCFPV">#REF!</definedName>
+    <definedName name="MCFPV" localSheetId="0">#REF!</definedName>
     <definedName name="MCFPV">#REF!</definedName>
-    <definedName localSheetId="0" name="MGXCI">#REF!</definedName>
+    <definedName name="MGXCI" localSheetId="0">#REF!</definedName>
     <definedName name="MGXCI">#REF!</definedName>
-    <definedName localSheetId="0" name="MHHFA">#REF!</definedName>
+    <definedName name="MHHFA" localSheetId="0">#REF!</definedName>
     <definedName name="MHHFA">#REF!</definedName>
-    <definedName localSheetId="0" name="MSBWS">#REF!</definedName>
+    <definedName name="MSBWS" localSheetId="0">#REF!</definedName>
     <definedName name="MSBWS">#REF!</definedName>
-    <definedName localSheetId="0" name="MSGHC">#REF!</definedName>
+    <definedName name="MSGHC" localSheetId="0">#REF!</definedName>
     <definedName name="MSGHC">#REF!</definedName>
-    <definedName localSheetId="0" name="MVVEG">#REF!</definedName>
+    <definedName name="MVVEG" localSheetId="0">#REF!</definedName>
     <definedName name="MVVEG">#REF!</definedName>
-    <definedName localSheetId="0" name="NJBMY">#REF!</definedName>
+    <definedName name="NJBMY" localSheetId="0">#REF!</definedName>
     <definedName name="NJBMY">#REF!</definedName>
-    <definedName localSheetId="0" name="NLWVG">#REF!</definedName>
+    <definedName name="NLWVG" localSheetId="0">#REF!</definedName>
     <definedName name="NLWVG">#REF!</definedName>
-    <definedName localSheetId="0" name="NPJAJ">#REF!</definedName>
+    <definedName name="NPJAJ" localSheetId="0">#REF!</definedName>
     <definedName name="NPJAJ">#REF!</definedName>
-    <definedName localSheetId="0" name="NWMTX">#REF!</definedName>
+    <definedName name="NWMTX" localSheetId="0">#REF!</definedName>
     <definedName name="NWMTX">#REF!</definedName>
-    <definedName localSheetId="0" name="OHHXQ">#REF!</definedName>
+    <definedName name="OHHXQ" localSheetId="0">#REF!</definedName>
     <definedName name="OHHXQ">#REF!</definedName>
-    <definedName localSheetId="0" name="OHKMK">#REF!</definedName>
+    <definedName name="OHKMK" localSheetId="0">#REF!</definedName>
     <definedName name="OHKMK">#REF!</definedName>
-    <definedName localSheetId="0" name="OKXMI">#REF!</definedName>
+    <definedName name="OKXMI" localSheetId="0">#REF!</definedName>
     <definedName name="OKXMI">#REF!</definedName>
-    <definedName localSheetId="0" name="ONOKX">#REF!</definedName>
+    <definedName name="ONOKX" localSheetId="0">#REF!</definedName>
     <definedName name="ONOKX">#REF!</definedName>
-    <definedName localSheetId="0" name="OOPRS">#REF!</definedName>
+    <definedName name="OOPRS" localSheetId="0">#REF!</definedName>
     <definedName name="OOPRS">#REF!</definedName>
-    <definedName localSheetId="0" name="OPICS">#REF!</definedName>
+    <definedName name="OPICS" localSheetId="0">#REF!</definedName>
     <definedName name="OPICS">#REF!</definedName>
-    <definedName localSheetId="0" name="OVTUQ">#REF!</definedName>
+    <definedName name="OVTUQ" localSheetId="0">#REF!</definedName>
     <definedName name="OVTUQ">#REF!</definedName>
-    <definedName localSheetId="0" name="OYKCJ">#REF!</definedName>
+    <definedName name="OYKCJ" localSheetId="0">#REF!</definedName>
     <definedName name="OYKCJ">#REF!</definedName>
-    <definedName localSheetId="0" name="PBWND">#REF!</definedName>
+    <definedName name="PBWND" localSheetId="0">#REF!</definedName>
     <definedName name="PBWND">#REF!</definedName>
-    <definedName localSheetId="0" name="PCPAV">#REF!</definedName>
+    <definedName name="PCPAV" localSheetId="0">#REF!</definedName>
     <definedName name="PCPAV">#REF!</definedName>
-    <definedName localSheetId="0" name="PJUCO">#REF!</definedName>
+    <definedName name="PJUCO" localSheetId="0">#REF!</definedName>
     <definedName name="PJUCO">#REF!</definedName>
-    <definedName localSheetId="0" name="PJVEF">#REF!</definedName>
+    <definedName name="PJVEF" localSheetId="0">#REF!</definedName>
     <definedName name="PJVEF">#REF!</definedName>
-    <definedName localSheetId="0" name="PNXJL">#REF!</definedName>
+    <definedName name="PNXJL" localSheetId="0">#REF!</definedName>
     <definedName name="PNXJL">#REF!</definedName>
-    <definedName localSheetId="0" name="PUCWL">#REF!</definedName>
+    <definedName name="PUCWL" localSheetId="0">#REF!</definedName>
     <definedName name="PUCWL">#REF!</definedName>
-    <definedName localSheetId="0" name="QGCTP">#REF!</definedName>
+    <definedName name="QGCTP" localSheetId="0">#REF!</definedName>
     <definedName name="QGCTP">#REF!</definedName>
-    <definedName localSheetId="0" name="QIQWA">#REF!</definedName>
+    <definedName name="QIQWA" localSheetId="0">#REF!</definedName>
     <definedName name="QIQWA">#REF!</definedName>
-    <definedName localSheetId="0" name="QRBHQ">#REF!</definedName>
+    <definedName name="QRBHQ" localSheetId="0">#REF!</definedName>
     <definedName name="QRBHQ">#REF!</definedName>
-    <definedName localSheetId="0" name="QRUCF">#REF!</definedName>
+    <definedName name="QRUCF" localSheetId="0">#REF!</definedName>
     <definedName name="QRUCF">#REF!</definedName>
-    <definedName localSheetId="0" name="QSSXY">#REF!</definedName>
+    <definedName name="QSSXY" localSheetId="0">#REF!</definedName>
     <definedName name="QSSXY">#REF!</definedName>
-    <definedName localSheetId="0" name="QYFVU">#REF!</definedName>
+    <definedName name="QYFVU" localSheetId="0">#REF!</definedName>
     <definedName name="QYFVU">#REF!</definedName>
-    <definedName localSheetId="0" name="RACRJ">#REF!</definedName>
+    <definedName name="RACRJ" localSheetId="0">#REF!</definedName>
     <definedName name="RACRJ">#REF!</definedName>
-    <definedName localSheetId="0" name="RAKUQ">#REF!</definedName>
+    <definedName name="RAKUQ" localSheetId="0">#REF!</definedName>
     <definedName name="RAKUQ">#REF!</definedName>
-    <definedName localSheetId="0" name="RFGME">#REF!</definedName>
+    <definedName name="RFGME" localSheetId="0">#REF!</definedName>
     <definedName name="RFGME">#REF!</definedName>
-    <definedName localSheetId="0" name="RJPVI">#REF!</definedName>
+    <definedName name="RJPVI" localSheetId="0">#REF!</definedName>
     <definedName name="RJPVI">#REF!</definedName>
-    <definedName localSheetId="0" name="RWVIW">#REF!</definedName>
+    <definedName name="RWVIW" localSheetId="0">#REF!</definedName>
     <definedName name="RWVIW">#REF!</definedName>
-    <definedName localSheetId="0" name="SDDHJ">#REF!</definedName>
+    <definedName name="SDDHJ" localSheetId="0">#REF!</definedName>
     <definedName name="SDDHJ">#REF!</definedName>
-    <definedName localSheetId="0" name="SGTLL">#REF!</definedName>
+    <definedName name="SGTLL" localSheetId="0">#REF!</definedName>
     <definedName name="SGTLL">#REF!</definedName>
-    <definedName localSheetId="0" name="SNNSA">#REF!</definedName>
+    <definedName name="SNNSA" localSheetId="0">#REF!</definedName>
     <definedName name="SNNSA">#REF!</definedName>
-    <definedName localSheetId="0" name="SQMHO">#REF!</definedName>
+    <definedName name="SQMHO" localSheetId="0">#REF!</definedName>
     <definedName name="SQMHO">#REF!</definedName>
-    <definedName localSheetId="0" name="SRXMB">#REF!</definedName>
+    <definedName name="SRXMB" localSheetId="0">#REF!</definedName>
     <definedName name="SRXMB">#REF!</definedName>
-    <definedName localSheetId="0" name="STRMF">#REF!</definedName>
+    <definedName name="STRMF" localSheetId="0">#REF!</definedName>
     <definedName name="STRMF">#REF!</definedName>
-    <definedName localSheetId="0" name="SYTRE">#REF!</definedName>
+    <definedName name="SYTRE" localSheetId="0">#REF!</definedName>
     <definedName name="SYTRE">#REF!</definedName>
-    <definedName localSheetId="0" name="TBYCK">#REF!</definedName>
+    <definedName name="TBYCK" localSheetId="0">#REF!</definedName>
     <definedName name="TBYCK">#REF!</definedName>
-    <definedName localSheetId="0" name="TFQLL">#REF!</definedName>
+    <definedName name="TFQLL" localSheetId="0">#REF!</definedName>
     <definedName name="TFQLL">#REF!</definedName>
-    <definedName localSheetId="0" name="TLYVF">#REF!</definedName>
+    <definedName name="TLYVF" localSheetId="0">#REF!</definedName>
     <definedName name="TLYVF">#REF!</definedName>
-    <definedName localSheetId="0" name="TNMDH">#REF!</definedName>
+    <definedName name="TNMDH" localSheetId="0">#REF!</definedName>
     <definedName name="TNMDH">#REF!</definedName>
-    <definedName localSheetId="0" name="TOBDY">#REF!</definedName>
+    <definedName name="TOBDY" localSheetId="0">#REF!</definedName>
     <definedName name="TOBDY">#REF!</definedName>
-    <definedName localSheetId="0" name="TRKTJ">#REF!</definedName>
+    <definedName name="TRKTJ" localSheetId="0">#REF!</definedName>
     <definedName name="TRKTJ">#REF!</definedName>
-    <definedName localSheetId="0" name="TTCET">#REF!</definedName>
+    <definedName name="TTCET" localSheetId="0">#REF!</definedName>
     <definedName name="TTCET">#REF!</definedName>
-    <definedName localSheetId="0" name="UETLU">#REF!</definedName>
+    <definedName name="UETLU" localSheetId="0">#REF!</definedName>
     <definedName name="UETLU">#REF!</definedName>
-    <definedName localSheetId="0" name="ULRNI">#REF!</definedName>
+    <definedName name="ULRNI" localSheetId="0">#REF!</definedName>
     <definedName name="ULRNI">#REF!</definedName>
-    <definedName localSheetId="0" name="UMNKA">#REF!</definedName>
+    <definedName name="UMNKA" localSheetId="0">#REF!</definedName>
     <definedName name="UMNKA">#REF!</definedName>
-    <definedName localSheetId="0" name="UQTPW">#REF!</definedName>
+    <definedName name="UQTPW" localSheetId="0">#REF!</definedName>
     <definedName name="UQTPW">#REF!</definedName>
-    <definedName localSheetId="0" name="URMOO">#REF!</definedName>
+    <definedName name="URMOO" localSheetId="0">#REF!</definedName>
     <definedName name="URMOO">#REF!</definedName>
-    <definedName localSheetId="0" name="UVNXH">#REF!</definedName>
+    <definedName name="UVNXH" localSheetId="0">#REF!</definedName>
     <definedName name="UVNXH">#REF!</definedName>
-    <definedName localSheetId="0" name="VBFLA">#REF!</definedName>
+    <definedName name="VBFLA" localSheetId="0">#REF!</definedName>
     <definedName name="VBFLA">#REF!</definedName>
-    <definedName localSheetId="0" name="VHIIK">#REF!</definedName>
+    <definedName name="VHIIK" localSheetId="0">#REF!</definedName>
     <definedName name="VHIIK">#REF!</definedName>
-    <definedName localSheetId="0" name="VLOXH">#REF!</definedName>
+    <definedName name="VLOXH" localSheetId="0">#REF!</definedName>
     <definedName name="VLOXH">#REF!</definedName>
-    <definedName localSheetId="0" name="WCYHT">#REF!</definedName>
+    <definedName name="WCYHT" localSheetId="0">#REF!</definedName>
     <definedName name="WCYHT">#REF!</definedName>
-    <definedName localSheetId="0" name="WDKQU">#REF!</definedName>
+    <definedName name="WDKQU" localSheetId="0">#REF!</definedName>
     <definedName name="WDKQU">#REF!</definedName>
-    <definedName localSheetId="0" name="WFHIE">#REF!</definedName>
+    <definedName name="WFHIE" localSheetId="0">#REF!</definedName>
     <definedName name="WFHIE">#REF!</definedName>
-    <definedName localSheetId="0" name="WGSDL">#REF!</definedName>
+    <definedName name="WGSDL" localSheetId="0">#REF!</definedName>
     <definedName name="WGSDL">#REF!</definedName>
-    <definedName localSheetId="0" name="WJSBB">#REF!</definedName>
+    <definedName name="WJSBB" localSheetId="0">#REF!</definedName>
     <definedName name="WJSBB">#REF!</definedName>
-    <definedName localSheetId="0" name="WSTML">#REF!</definedName>
+    <definedName name="WSTML" localSheetId="0">#REF!</definedName>
     <definedName name="WSTML">#REF!</definedName>
-    <definedName localSheetId="0" name="WUKCJ">#REF!</definedName>
+    <definedName name="WUKCJ" localSheetId="0">#REF!</definedName>
     <definedName name="WUKCJ">#REF!</definedName>
-    <definedName localSheetId="0" name="WWUCJ">#REF!</definedName>
+    <definedName name="WWUCJ" localSheetId="0">#REF!</definedName>
     <definedName name="WWUCJ">#REF!</definedName>
-    <definedName localSheetId="0" name="XADEO">#REF!</definedName>
+    <definedName name="XADEO" localSheetId="0">#REF!</definedName>
     <definedName name="XADEO">#REF!</definedName>
-    <definedName localSheetId="0" name="XCVKB">#REF!</definedName>
+    <definedName name="XCVKB" localSheetId="0">#REF!</definedName>
     <definedName name="XCVKB">#REF!</definedName>
-    <definedName localSheetId="0" name="XHOBI">#REF!</definedName>
+    <definedName name="XHOBI" localSheetId="0">#REF!</definedName>
     <definedName name="XHOBI">#REF!</definedName>
-    <definedName localSheetId="0" name="XISSU">#REF!</definedName>
+    <definedName name="XISSU" localSheetId="0">#REF!</definedName>
     <definedName name="XISSU">#REF!</definedName>
-    <definedName localSheetId="0" name="XOYIQ">#REF!</definedName>
+    <definedName name="XOYIQ" localSheetId="0">#REF!</definedName>
     <definedName name="XOYIQ">#REF!</definedName>
-    <definedName localSheetId="0" name="XSRJL">#REF!</definedName>
+    <definedName name="XSRJL" localSheetId="0">#REF!</definedName>
     <definedName name="XSRJL">#REF!</definedName>
-    <definedName localSheetId="0" name="XUYWB">#REF!</definedName>
+    <definedName name="XUYWB" localSheetId="0">#REF!</definedName>
     <definedName name="XUYWB">#REF!</definedName>
-    <definedName localSheetId="0" name="YEHCB">#REF!</definedName>
+    <definedName name="YEHCB" localSheetId="0">#REF!</definedName>
     <definedName name="YEHCB">#REF!</definedName>
-    <definedName localSheetId="0" name="YGWHC">#REF!</definedName>
+    <definedName name="YGWHC" localSheetId="0">#REF!</definedName>
     <definedName name="YGWHC">#REF!</definedName>
-    <definedName localSheetId="0" name="YRTKU">#REF!</definedName>
+    <definedName name="YRTKU" localSheetId="0">#REF!</definedName>
     <definedName name="YRTKU">#REF!</definedName>
-    <definedName localSheetId="0" name="YTRAA">#REF!</definedName>
+    <definedName name="YTRAA" localSheetId="0">#REF!</definedName>
     <definedName name="YTRAA">#REF!</definedName>
-    <definedName localSheetId="0" name="YUWDU">#REF!</definedName>
+    <definedName name="YUWDU" localSheetId="0">#REF!</definedName>
     <definedName name="YUWDU">#REF!</definedName>
-    <definedName localSheetId="0" name="ВН_ОТ">#REF!</definedName>
+    <definedName name="ВН_ОТ" localSheetId="0">#REF!</definedName>
     <definedName name="ВН_ОТ">#REF!</definedName>
-    <definedName localSheetId="0" name="Внутренняя_отделка_дома">#REF!</definedName>
+    <definedName name="Внутренняя_отделка_дома" localSheetId="0">#REF!</definedName>
     <definedName name="Внутренняя_отделка_дома">#REF!</definedName>
-    <definedName localSheetId="0" name="Высота_потолка">#REF!</definedName>
+    <definedName name="Высота_потолка" localSheetId="0">#REF!</definedName>
     <definedName name="Высота_потолка">#REF!</definedName>
-    <definedName localSheetId="0" name="Год_постройки_дома">#REF!</definedName>
+    <definedName name="Год_постройки_дома" localSheetId="0">#REF!</definedName>
     <definedName name="Год_постройки_дома">#REF!</definedName>
-    <definedName localSheetId="0" name="Да_Нет">#REF!</definedName>
+    <definedName name="Да_Нет" localSheetId="0">#REF!</definedName>
     <definedName name="Да_Нет">#REF!</definedName>
-    <definedName localSheetId="0" name="Количество_надземных_этажей">#REF!</definedName>
+    <definedName name="Количество_надземных_этажей" localSheetId="0">#REF!</definedName>
     <definedName name="Количество_надземных_этажей">#REF!</definedName>
-    <definedName localSheetId="0" name="Количество_подземных_этажей">#REF!</definedName>
+    <definedName name="Количество_подземных_этажей" localSheetId="0">#REF!</definedName>
     <definedName name="Количество_подземных_этажей">#REF!</definedName>
-    <definedName localSheetId="0" name="Кондиционаирование_и_вентиляция">#REF!</definedName>
+    <definedName name="Кондиционаирование_и_вентиляция" localSheetId="0">#REF!</definedName>
     <definedName name="Кондиционаирование_и_вентиляция">#REF!</definedName>
-    <definedName localSheetId="0" name="Конструкция_здания">#REF!</definedName>
+    <definedName name="Конструкция_здания" localSheetId="0">#REF!</definedName>
     <definedName name="Конструкция_здания">#REF!</definedName>
-    <definedName localSheetId="0" name="Материал_каркаса">#REF!</definedName>
+    <definedName name="Материал_каркаса" localSheetId="0">#REF!</definedName>
     <definedName name="Материал_каркаса">#REF!</definedName>
-    <definedName localSheetId="0" name="Материал_кровли">#REF!</definedName>
+    <definedName name="Материал_кровли" localSheetId="0">#REF!</definedName>
     <definedName name="Материал_кровли">#REF!</definedName>
-    <definedName localSheetId="0" name="Материал_стен">#REF!</definedName>
+    <definedName name="Материал_стен" localSheetId="0">#REF!</definedName>
     <definedName name="Материал_стен">#REF!</definedName>
-    <definedName localSheetId="0" name="Материал_стен_ЕГРНИ">#REF!</definedName>
+    <definedName name="Материал_стен_ЕГРНИ" localSheetId="0">#REF!</definedName>
     <definedName name="Материал_стен_ЕГРНИ">#REF!</definedName>
-    <definedName localSheetId="0" name="Назначение1">#REF!</definedName>
+    <definedName name="Назначение1" localSheetId="0">#REF!</definedName>
     <definedName name="Назначение1">#REF!</definedName>
-    <definedName localSheetId="0" name="Назначение3">#REF!</definedName>
+    <definedName name="Назначение3" localSheetId="0">#REF!</definedName>
     <definedName name="Назначение3">#REF!</definedName>
-    <definedName localSheetId="0" name="Наружная_отделка">#REF!</definedName>
+    <definedName name="Наружная_отделка" localSheetId="0">#REF!</definedName>
     <definedName name="Наружная_отделка">#REF!</definedName>
-    <definedName localSheetId="0" name="Обновление">#REF!</definedName>
+    <definedName name="Обновление" localSheetId="0">#REF!</definedName>
     <definedName name="Обновление">#REF!</definedName>
-    <definedName localSheetId="0" name="Отопление">#REF!</definedName>
+    <definedName name="Отопление" localSheetId="0">#REF!</definedName>
     <definedName name="Отопление">#REF!</definedName>
-    <definedName localSheetId="0" name="Пролет">#REF!</definedName>
+    <definedName name="Пролет" localSheetId="0">#REF!</definedName>
     <definedName name="Пролет">#REF!</definedName>
-    <definedName localSheetId="0" name="Санузлы">#REF!</definedName>
+    <definedName name="Санузлы" localSheetId="0">#REF!</definedName>
     <definedName name="Санузлы">#REF!</definedName>
-    <definedName localSheetId="0" name="Снабжение">#REF!</definedName>
+    <definedName name="Снабжение" localSheetId="0">#REF!</definedName>
     <definedName name="Снабжение">#REF!</definedName>
-    <definedName localSheetId="0" name="Строительная_готовность_дома">#REF!</definedName>
+    <definedName name="Строительная_готовность_дома" localSheetId="0">#REF!</definedName>
     <definedName name="Строительная_готовность_дома">#REF!</definedName>
-    <definedName localSheetId="0" name="Тип_объекта">#REF!</definedName>
+    <definedName name="Тип_объекта" localSheetId="0">#REF!</definedName>
     <definedName name="Тип_объекта">#REF!</definedName>
-    <definedName localSheetId="0" name="Тип_строения">#REF!</definedName>
+    <definedName name="Тип_строения" localSheetId="0">#REF!</definedName>
     <definedName name="Тип_строения">#REF!</definedName>
-    <definedName localSheetId="0" name="Шаг_колонн">#REF!</definedName>
+    <definedName name="Шаг_колонн" localSheetId="0">#REF!</definedName>
     <definedName name="Шаг_колонн">#REF!</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet!$A$3:$BG$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Предложения!$A$3:$BG$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="401">
   <si>
     <t>Форма - 03. "Предложения продажи"</t>
   </si>
@@ -619,15 +618,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>HTMLs/562928.html</t>
-  </si>
-  <si>
-    <t>53.932790000</t>
-  </si>
-  <si>
-    <t>27.649952000</t>
-  </si>
-  <si>
     <t>+375 17 215-00-90, +375 29 688-88-11</t>
   </si>
   <si>
@@ -643,15 +633,6 @@
     <t>Кирпич</t>
   </si>
   <si>
-    <t>HTMLs/1032405.html</t>
-  </si>
-  <si>
-    <t>53.917204000</t>
-  </si>
-  <si>
-    <t>27.590227000</t>
-  </si>
-  <si>
     <t>+375 44 737-65-24, +375 17 362-28-07</t>
   </si>
   <si>
@@ -676,15 +657,6 @@
     <t xml:space="preserve">  От 20.5 евро с НДС за м2</t>
   </si>
   <si>
-    <t>HTMLs/354937.html</t>
-  </si>
-  <si>
-    <t>53.927664000</t>
-  </si>
-  <si>
-    <t>27.683375000</t>
-  </si>
-  <si>
     <t>продажа или аренда - не из классификатора</t>
   </si>
   <si>
@@ -697,15 +669,6 @@
     <t>6 этажей</t>
   </si>
   <si>
-    <t>HTMLs/724390.html</t>
-  </si>
-  <si>
-    <t>53.908961000</t>
-  </si>
-  <si>
-    <t>27.522073000</t>
-  </si>
-  <si>
     <t>+375 17 240-19-64, +375 29 182-01-11</t>
   </si>
   <si>
@@ -715,15 +678,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>HTMLs/559794.html</t>
-  </si>
-  <si>
-    <t>54.307738000</t>
-  </si>
-  <si>
-    <t>26.840397000</t>
-  </si>
-  <si>
     <t>долевое строительство - не из классификатора</t>
   </si>
   <si>
@@ -736,15 +690,6 @@
     <t>8 этажей</t>
   </si>
   <si>
-    <t>HTMLs/557365.html</t>
-  </si>
-  <si>
-    <t>53.891556000</t>
-  </si>
-  <si>
-    <t>27.527126000</t>
-  </si>
-  <si>
     <t>+375 29 660-46-05, +375 44 574-80-50</t>
   </si>
   <si>
@@ -763,15 +708,6 @@
     <t xml:space="preserve">  Телефонная сеть, компьютерная сеть, евроремонт, вентиляция, кондиционирование, охрана, парковка</t>
   </si>
   <si>
-    <t>HTMLs/509461.html</t>
-  </si>
-  <si>
-    <t>53.834269000</t>
-  </si>
-  <si>
-    <t>27.580451000</t>
-  </si>
-  <si>
     <t>+375 44 770-67-06, +375 17 202-43-71</t>
   </si>
   <si>
@@ -787,15 +723,6 @@
     <t xml:space="preserve">  Помещения с отделкой под ключ, чистовые полы. Цена с отделкой.</t>
   </si>
   <si>
-    <t>HTMLs/527820.html</t>
-  </si>
-  <si>
-    <t>53.940093000</t>
-  </si>
-  <si>
-    <t>27.478932000</t>
-  </si>
-  <si>
     <t>+375 29 681-00-38</t>
   </si>
   <si>
@@ -808,15 +735,6 @@
     <t>1 - 9 этажей</t>
   </si>
   <si>
-    <t>HTMLs/759901.html</t>
-  </si>
-  <si>
-    <t>53.866901000</t>
-  </si>
-  <si>
-    <t>27.509434000</t>
-  </si>
-  <si>
     <t>+375 17 234-28-91, +375 29 365-76-57, +375 29 670-77-97</t>
   </si>
   <si>
@@ -838,15 +756,6 @@
     <t xml:space="preserve">  КРЕДИТ ПОД 15%! РАССРОЧКА ДО ЯНВАРЯ 2019г. Льготы предусмотренные Декретом Президента Республики Беларусь №6 от 07.05.2012 г. ЦЕНА С НДС.</t>
   </si>
   <si>
-    <t>HTMLs/565702.html</t>
-  </si>
-  <si>
-    <t>53.914873000</t>
-  </si>
-  <si>
-    <t>27.391408000</t>
-  </si>
-  <si>
     <t>+375 29 621-10-42</t>
   </si>
   <si>
@@ -865,15 +774,6 @@
     <t xml:space="preserve">  Имеется помещение 301,6 кв.м. на 1-ом этаже с двумя отдельными входами!</t>
   </si>
   <si>
-    <t>HTMLs/875220.html</t>
-  </si>
-  <si>
-    <t>53.917692000</t>
-  </si>
-  <si>
-    <t>27.503207000</t>
-  </si>
-  <si>
     <t>+375 29 681-76-06, +375 29 334-01-01</t>
   </si>
   <si>
@@ -886,15 +786,6 @@
     <t xml:space="preserve">  Аренда, продажа офисов от 50 кв.м</t>
   </si>
   <si>
-    <t>HTMLs/546555.html</t>
-  </si>
-  <si>
-    <t>53.861169000</t>
-  </si>
-  <si>
-    <t>27.479346000</t>
-  </si>
-  <si>
     <t>+375 29 303-00-33, +375 17 393-07-00</t>
   </si>
   <si>
@@ -907,15 +798,6 @@
     <t xml:space="preserve">  Современные инженерные системыТелефонная сеть, компьютерная сеть, евроремонт, вентиляция, кондиционирование, бесшумные лифты, охрана, видео-наблюдение, гаражи, парковка, свободная планировка</t>
   </si>
   <si>
-    <t>HTMLs/553221.html</t>
-  </si>
-  <si>
-    <t>53.946609000</t>
-  </si>
-  <si>
-    <t>27.684748000</t>
-  </si>
-  <si>
     <t>+375 29 664-30-59</t>
   </si>
   <si>
@@ -925,15 +807,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>HTMLs/1106361.html</t>
-  </si>
-  <si>
-    <t>53.902400000</t>
-  </si>
-  <si>
-    <t>27.550200000</t>
-  </si>
-  <si>
     <t>+375 29 688-66-84</t>
   </si>
   <si>
@@ -943,15 +816,6 @@
     <t>12 этажей</t>
   </si>
   <si>
-    <t>HTMLs/659501.html</t>
-  </si>
-  <si>
-    <t>53.903769000</t>
-  </si>
-  <si>
-    <t>27.585672000</t>
-  </si>
-  <si>
     <t>+375 17 200-86-23, +375 29 603-17-00</t>
   </si>
   <si>
@@ -964,15 +828,6 @@
     <t xml:space="preserve">  Телефонная сеть, компьютерная сеть (оптоволокно), евроремонт, вентиляция, кондиционирование, бесшумные лифты, охрана, видео - наблюдение, парковка.</t>
   </si>
   <si>
-    <t>HTMLs/166126.html</t>
-  </si>
-  <si>
-    <t>53.895280000</t>
-  </si>
-  <si>
-    <t>27.540729000</t>
-  </si>
-  <si>
     <t>+375 29 772-40-45, +375 29 128-29-40</t>
   </si>
   <si>
@@ -982,15 +837,6 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>HTMLs/857627.html</t>
-  </si>
-  <si>
-    <t>53.917233000</t>
-  </si>
-  <si>
-    <t>27.590123000</t>
-  </si>
-  <si>
     <t>+375 17 261-44-56, +375 17 261-44-65, +375 17 261-44-73</t>
   </si>
   <si>
@@ -1000,30 +846,12 @@
     <t>4 этажей</t>
   </si>
   <si>
-    <t>HTMLs/1000121.html</t>
-  </si>
-  <si>
-    <t>53.913210000</t>
-  </si>
-  <si>
-    <t>27.533867000</t>
-  </si>
-  <si>
     <t>+375 29 651-59-13, +375 17 508-13-30</t>
   </si>
   <si>
     <t>Колодищи</t>
   </si>
   <si>
-    <t>HTMLs/1095042.html</t>
-  </si>
-  <si>
-    <t>53.955315000</t>
-  </si>
-  <si>
-    <t>27.778226000</t>
-  </si>
-  <si>
     <t>+375 29 152-77-97, +375 29 194-70-94</t>
   </si>
   <si>
@@ -1033,30 +861,12 @@
     <t>42</t>
   </si>
   <si>
-    <t>HTMLs/438023.html</t>
-  </si>
-  <si>
-    <t>53.908334000</t>
-  </si>
-  <si>
-    <t>27.516302000</t>
-  </si>
-  <si>
     <t>а</t>
   </si>
   <si>
     <t>33 этажей</t>
   </si>
   <si>
-    <t>HTMLs/556757.html</t>
-  </si>
-  <si>
-    <t>53.907588000</t>
-  </si>
-  <si>
-    <t>27.549894000</t>
-  </si>
-  <si>
     <t>+375 29 603-17-00, +375 17 200-86-23</t>
   </si>
   <si>
@@ -1072,15 +882,6 @@
     <t xml:space="preserve">  Телефонная сеть, компьютерная сеть, евроремонт, вентиляция, кондиционирование, бесшумные лифты, видео-наблюдение, парковка</t>
   </si>
   <si>
-    <t>HTMLs/858700.html</t>
-  </si>
-  <si>
-    <t>53.910569000</t>
-  </si>
-  <si>
-    <t>27.505372000</t>
-  </si>
-  <si>
     <t>Продажа</t>
   </si>
   <si>
@@ -1096,51 +897,18 @@
     <t xml:space="preserve">  Помещения с возможностью проживания!</t>
   </si>
   <si>
-    <t>HTMLs/1092592.html</t>
-  </si>
-  <si>
-    <t>53.938130000</t>
-  </si>
-  <si>
-    <t>27.596628000</t>
-  </si>
-  <si>
-    <t>+375 29 688-22-00</t>
-  </si>
-  <si>
-    <t>HTMLs/1124850.html</t>
-  </si>
-  <si>
     <t>Орловская</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>HTMLs/1124669.html</t>
-  </si>
-  <si>
-    <t>53.932700000</t>
-  </si>
-  <si>
-    <t>27.555800000</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
     <t xml:space="preserve">  Оптоволокно, газовая котельная, паркинг</t>
   </si>
   <si>
-    <t>HTMLs/277947.html</t>
-  </si>
-  <si>
-    <t>53.955600000</t>
-  </si>
-  <si>
-    <t>27.620200000</t>
-  </si>
-  <si>
     <t>+375 29 142-44-21, +375 44 731-54-28, +375 17 336-01-32</t>
   </si>
   <si>
@@ -1150,15 +918,6 @@
     <t xml:space="preserve">  Круглосуточная охрана,доступ в помещение 24ч,openspace,потолки 4м, Класс А,высококачественная отделка, су, лифты, телефонные линии, высокоскоростной интернет, метро, ресторан на цокольном этаже центра</t>
   </si>
   <si>
-    <t>HTMLs/853459.html</t>
-  </si>
-  <si>
-    <t>53.926054000</t>
-  </si>
-  <si>
-    <t>27.614670000</t>
-  </si>
-  <si>
     <t>Переулок</t>
   </si>
   <si>
@@ -1172,15 +931,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Предусмотрена возможность долгосрочной аренды с правом выкупа.</t>
-  </si>
-  <si>
-    <t>HTMLs/1056614.html</t>
-  </si>
-  <si>
-    <t>53.953169000</t>
-  </si>
-  <si>
-    <t>27.600315000</t>
   </si>
   <si>
     <t>Год
@@ -1811,68 +1561,61 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
       <name val="Courier New"/>
+      <family val="3"/>
       <charset val="204"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color rgb="FF008080"/>
-      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -1994,95 +1737,98 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment textRotation="90" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment textRotation="90" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" textRotation="90" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 3" xfId="1"/>
-    <cellStyle builtinId="8" name="Гиперссылка" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2341,127 +2087,124 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BQ32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BH14" sqref="BH14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="16.28515625"/>
-    <col customWidth="1" max="6" min="6" width="21.42578125"/>
-    <col customWidth="1" max="7" min="7" width="30.7109375"/>
-    <col customWidth="1" max="8" min="8" width="26.85546875"/>
-    <col customWidth="1" max="9" min="9" width="50.140625"/>
-    <col customWidth="1" max="10" min="10" width="19.140625"/>
-    <col customWidth="1" max="12" min="12" width="28.28515625"/>
-    <col customWidth="1" max="13" min="13" width="17"/>
-    <col customWidth="1" max="19" min="19" width="24.7109375"/>
-    <col customWidth="1" max="20" min="20" width="40.140625"/>
-    <col customWidth="1" max="24" min="24" width="58.5703125"/>
-    <col customWidth="1" max="25" min="25" width="20.85546875"/>
-    <col customWidth="1" max="35" min="35" width="22.5703125"/>
-    <col customWidth="1" max="58" min="58" width="90.42578125"/>
-    <col customWidth="1" max="59" min="59" width="40.7109375"/>
-    <col customWidth="1" max="60" min="60" width="16.140625"/>
-    <col customWidth="1" max="61" min="61" width="19.85546875"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="40.140625" customWidth="1"/>
+    <col min="24" max="24" width="58.5703125" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="35" max="35" width="22.5703125" customWidth="1"/>
+    <col min="58" max="58" width="65.5703125" customWidth="1"/>
+    <col min="59" max="59" width="19.7109375" customWidth="1"/>
+    <col min="60" max="60" width="16.140625" customWidth="1"/>
+    <col min="61" max="61" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="12.75" r="2" s="10" spans="1:69">
+    <row r="2" spans="1:61" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="8" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="3" t="n"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
-      <c r="W2" s="2" t="n"/>
-      <c r="X2" s="2" t="n"/>
-      <c r="Y2" s="2" t="n"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="4" t="n"/>
-      <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="4" t="n"/>
-      <c r="AD2" s="4" t="n"/>
-      <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="4" t="n"/>
-      <c r="AG2" s="4" t="n"/>
-      <c r="AH2" s="5" t="n"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="5"/>
       <c r="AI2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="4" t="n"/>
-      <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="5" t="n"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="5"/>
       <c r="AM2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="4" t="n"/>
-      <c r="AO2" s="4" t="n"/>
-      <c r="AP2" s="4" t="n"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
       <c r="AQ2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="AR2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="8" t="n"/>
-      <c r="AT2" s="8" t="n"/>
-      <c r="AU2" s="8" t="n"/>
-      <c r="AV2" s="8" t="n"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
       <c r="AW2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="8" t="n"/>
-      <c r="AY2" s="8" t="n"/>
-      <c r="AZ2" s="8" t="n"/>
-      <c r="BA2" s="8" t="n"/>
-      <c r="BB2" s="24" t="n"/>
-      <c r="BC2" s="8" t="n"/>
-      <c r="BD2" s="8" t="n"/>
-      <c r="BE2" s="8" t="n"/>
-      <c r="BF2" s="9" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="21" spans="1:69">
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="9"/>
+    </row>
+    <row r="3" spans="1:61" s="21" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -2588,7 +2331,7 @@
       <c r="AP3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AQ3" s="18" t="n"/>
+      <c r="AQ3" s="18"/>
       <c r="AR3" s="19" t="s">
         <v>51</v>
       </c>
@@ -2604,7 +2347,7 @@
       <c r="AV3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AW3" s="18" t="n"/>
+      <c r="AW3" s="18"/>
       <c r="AX3" s="16" t="s">
         <v>56</v>
       </c>
@@ -2632,7 +2375,7 @@
       <c r="BF3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="BG3" s="30" t="s">
+      <c r="BG3" s="27" t="s">
         <v>65</v>
       </c>
       <c r="BH3" s="21" t="s">
@@ -2642,1888 +2385,106 @@
         <v>67</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="27" spans="1:69">
-      <c r="A4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28" t="n">
-        <v>42907</v>
-      </c>
-      <c r="F4" s="27" t="n">
-        <v>48465</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="27" t="n">
-        <v>21325</v>
-      </c>
-      <c r="BG4" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:69">
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="n">
-        <v>562928</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" t="s">
-        <v>82</v>
-      </c>
-      <c r="X5" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:69">
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1032405</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V6" t="s">
-        <v>93</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:69">
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="n">
-        <v>354937</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19.46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" t="s">
-        <v>100</v>
-      </c>
-      <c r="T7" t="s">
-        <v>101</v>
-      </c>
-      <c r="U7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69">
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="n">
-        <v>724390</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" t="s">
-        <v>100</v>
-      </c>
-      <c r="T8" t="s">
-        <v>112</v>
-      </c>
-      <c r="X8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>114</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>115</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:69">
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" t="n">
-        <v>559794</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" t="s">
-        <v>118</v>
-      </c>
-      <c r="U9" t="s">
-        <v>119</v>
-      </c>
-      <c r="X9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>120</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:69">
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="n">
-        <v>557365</v>
-      </c>
-      <c r="G10" t="n">
-        <v>699.1900000000001</v>
-      </c>
-      <c r="I10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" t="s">
-        <v>125</v>
-      </c>
-      <c r="U10" t="s">
-        <v>102</v>
-      </c>
-      <c r="X10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:69">
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="n">
-        <v>509461</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" t="s">
-        <v>131</v>
-      </c>
-      <c r="U11" t="s">
-        <v>132</v>
-      </c>
-      <c r="V11" t="s">
-        <v>133</v>
-      </c>
-      <c r="X11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>136</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:69">
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="n">
-        <v>527820</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" t="s">
-        <v>79</v>
-      </c>
-      <c r="M12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" t="s">
-        <v>140</v>
-      </c>
-      <c r="X12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>144</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>145</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69">
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="n">
-        <v>759901</v>
-      </c>
-      <c r="G13" t="n">
-        <v>669.87</v>
-      </c>
-      <c r="I13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" t="s">
-        <v>148</v>
-      </c>
-      <c r="T13" t="s">
-        <v>149</v>
-      </c>
-      <c r="X13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>151</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:69">
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="n">
-        <v>565702</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>155</v>
-      </c>
-      <c r="S14" t="s">
-        <v>100</v>
-      </c>
-      <c r="T14" t="s">
-        <v>156</v>
-      </c>
-      <c r="U14" t="s">
-        <v>157</v>
-      </c>
-      <c r="V14" t="s">
-        <v>158</v>
-      </c>
-      <c r="X14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:69">
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="n">
-        <v>875220</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s">
-        <v>100</v>
-      </c>
-      <c r="T15" t="s">
-        <v>165</v>
-      </c>
-      <c r="U15" t="s">
-        <v>166</v>
-      </c>
-      <c r="V15" t="s">
-        <v>167</v>
-      </c>
-      <c r="X15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>169</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>171</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69">
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" t="n">
-        <v>546555</v>
-      </c>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T16" t="s">
-        <v>125</v>
-      </c>
-      <c r="U16" t="s">
-        <v>174</v>
-      </c>
-      <c r="X16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>178</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:69">
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="n">
-        <v>553221</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="I17" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" t="s">
-        <v>100</v>
-      </c>
-      <c r="T17" t="s">
-        <v>181</v>
-      </c>
-      <c r="U17" t="s">
-        <v>182</v>
-      </c>
-      <c r="X17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>184</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>185</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:69">
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1106361</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" t="s">
-        <v>100</v>
-      </c>
-      <c r="T18" t="s">
-        <v>188</v>
-      </c>
-      <c r="U18" t="s">
-        <v>189</v>
-      </c>
-      <c r="X18" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>191</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:69">
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" t="n">
-        <v>659501</v>
-      </c>
-      <c r="G19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s">
-        <v>193</v>
-      </c>
-      <c r="L19" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
-        <v>100</v>
-      </c>
-      <c r="T19" t="s">
-        <v>194</v>
-      </c>
-      <c r="U19" t="s">
-        <v>167</v>
-      </c>
-      <c r="X19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>197</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:69">
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="n">
-        <v>166126</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>80</v>
-      </c>
-      <c r="U20" t="s">
-        <v>200</v>
-      </c>
-      <c r="X20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>201</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>202</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>203</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:69">
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" t="n">
-        <v>857627</v>
-      </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" t="s">
-        <v>79</v>
-      </c>
-      <c r="M21" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" t="s">
-        <v>81</v>
-      </c>
-      <c r="T21" t="s">
-        <v>82</v>
-      </c>
-      <c r="U21" t="s">
-        <v>92</v>
-      </c>
-      <c r="V21" t="s">
-        <v>93</v>
-      </c>
-      <c r="X21" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>209</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:69">
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1000121</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" t="s">
-        <v>212</v>
-      </c>
-      <c r="L22" t="s">
-        <v>79</v>
-      </c>
-      <c r="M22" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s">
-        <v>81</v>
-      </c>
-      <c r="T22" t="s">
-        <v>213</v>
-      </c>
-      <c r="X22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>215</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>216</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:69">
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1095042</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="I23" t="s">
-        <v>218</v>
-      </c>
-      <c r="L23" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>219</v>
-      </c>
-      <c r="S23" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" t="s">
-        <v>68</v>
-      </c>
-      <c r="U23" t="s">
-        <v>189</v>
-      </c>
-      <c r="X23" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>220</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>221</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:69">
-      <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" t="n">
-        <v>438023</v>
-      </c>
-      <c r="G24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s">
-        <v>223</v>
-      </c>
-      <c r="L24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>80</v>
-      </c>
-      <c r="S24" t="s">
-        <v>100</v>
-      </c>
-      <c r="T24" t="s">
-        <v>224</v>
-      </c>
-      <c r="U24" t="s">
-        <v>225</v>
-      </c>
-      <c r="X24" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>113</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>227</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:69">
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" t="n">
-        <v>556757</v>
-      </c>
-      <c r="G25" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="I25" t="s">
-        <v>124</v>
-      </c>
-      <c r="L25" t="s">
-        <v>79</v>
-      </c>
-      <c r="M25" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>80</v>
-      </c>
-      <c r="S25" t="s">
-        <v>81</v>
-      </c>
-      <c r="T25" t="s">
-        <v>140</v>
-      </c>
-      <c r="U25" t="s">
-        <v>93</v>
-      </c>
-      <c r="V25" t="s">
-        <v>229</v>
-      </c>
-      <c r="X25" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>230</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>231</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>232</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:69">
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="n">
-        <v>858700</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" t="s">
-        <v>234</v>
-      </c>
-      <c r="L26" t="s">
-        <v>79</v>
-      </c>
-      <c r="M26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>80</v>
-      </c>
-      <c r="S26" t="s">
-        <v>100</v>
-      </c>
-      <c r="T26" t="s">
-        <v>235</v>
-      </c>
-      <c r="U26" t="s">
-        <v>236</v>
-      </c>
-      <c r="V26" t="s">
-        <v>102</v>
-      </c>
-      <c r="X26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>238</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>239</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:69">
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1092592</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I27" t="s">
-        <v>243</v>
-      </c>
-      <c r="L27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>80</v>
-      </c>
-      <c r="S27" t="s">
-        <v>100</v>
-      </c>
-      <c r="T27" t="s">
-        <v>244</v>
-      </c>
-      <c r="X27" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>246</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>247</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>248</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:69">
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1124850</v>
-      </c>
-      <c r="G28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s">
-        <v>250</v>
-      </c>
-      <c r="L28" t="s">
-        <v>79</v>
-      </c>
-      <c r="M28" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>80</v>
-      </c>
-      <c r="X28" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:69">
-      <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1124669</v>
-      </c>
-      <c r="G29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s"/>
-      <c r="L29" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" t="s">
-        <v>100</v>
-      </c>
-      <c r="T29" t="s">
-        <v>252</v>
-      </c>
-      <c r="U29" t="s">
-        <v>253</v>
-      </c>
-      <c r="X29" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>254</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>255</v>
-      </c>
-      <c r="BI29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:69">
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" t="n">
-        <v>277947</v>
-      </c>
-      <c r="G30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s">
-        <v>212</v>
-      </c>
-      <c r="L30" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>80</v>
-      </c>
-      <c r="U30" t="s">
-        <v>257</v>
-      </c>
-      <c r="X30" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF30" t="s">
-        <v>258</v>
-      </c>
-      <c r="BG30" t="s">
-        <v>259</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>260</v>
-      </c>
-      <c r="BI30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:69">
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" t="n">
-        <v>853459</v>
-      </c>
-      <c r="G31" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="I31" t="s">
-        <v>262</v>
-      </c>
-      <c r="L31" t="s">
-        <v>79</v>
-      </c>
-      <c r="M31" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>80</v>
-      </c>
-      <c r="S31" t="s">
-        <v>100</v>
-      </c>
-      <c r="T31" t="s">
-        <v>263</v>
-      </c>
-      <c r="U31" t="s">
-        <v>236</v>
-      </c>
-      <c r="X31" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>237</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>264</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>265</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>266</v>
-      </c>
-      <c r="BI31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:69">
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1056614</v>
-      </c>
-      <c r="G32" t="n">
-        <v>949.95</v>
-      </c>
-      <c r="I32" t="s">
-        <v>243</v>
-      </c>
-      <c r="L32" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>80</v>
-      </c>
-      <c r="S32" t="s">
-        <v>268</v>
-      </c>
-      <c r="T32" t="s">
-        <v>269</v>
-      </c>
-      <c r="U32" t="s">
-        <v>270</v>
-      </c>
-      <c r="X32" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>271</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>272</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>274</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>275</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A3:BG4"/>
-  <hyperlinks>
-    <hyperlink ref="BG4" r:id="rId1"/>
-    <hyperlink ref="BG5" r:id="rId2"/>
-    <hyperlink ref="BG6" r:id="rId3"/>
-    <hyperlink ref="BG7" r:id="rId4"/>
-    <hyperlink ref="BG8" r:id="rId5"/>
-    <hyperlink ref="BG9" r:id="rId6"/>
-    <hyperlink ref="BG10" r:id="rId7"/>
-    <hyperlink ref="BG11" r:id="rId8"/>
-    <hyperlink ref="BG12" r:id="rId9"/>
-    <hyperlink ref="BG13" r:id="rId10"/>
-    <hyperlink ref="BG14" r:id="rId11"/>
-    <hyperlink ref="BG15" r:id="rId12"/>
-    <hyperlink ref="BG16" r:id="rId13"/>
-    <hyperlink ref="BG17" r:id="rId14"/>
-    <hyperlink ref="BG18" r:id="rId15"/>
-    <hyperlink ref="BG19" r:id="rId16"/>
-    <hyperlink ref="BG20" r:id="rId17"/>
-    <hyperlink ref="BG21" r:id="rId18"/>
-    <hyperlink ref="BG22" r:id="rId19"/>
-    <hyperlink ref="BG23" r:id="rId20"/>
-    <hyperlink ref="BG24" r:id="rId21"/>
-    <hyperlink ref="BG25" r:id="rId22"/>
-    <hyperlink ref="BG26" r:id="rId23"/>
-    <hyperlink ref="BG27" r:id="rId24"/>
-    <hyperlink ref="BG28" r:id="rId25"/>
-    <hyperlink ref="BG29" r:id="rId26"/>
-    <hyperlink ref="BG30" r:id="rId27"/>
-    <hyperlink ref="BG31" r:id="rId28"/>
-    <hyperlink ref="BG32" r:id="rId29"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <autoFilter ref="A3:BG3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Лист2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:BG71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="12.75" r="2" s="10" spans="1:59">
+    <row r="2" spans="1:59" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="3" t="n"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
-      <c r="W2" s="2" t="n"/>
-      <c r="X2" s="2" t="n"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
       <c r="Y2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="4" t="n"/>
-      <c r="AA2" s="4" t="n"/>
-      <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="4" t="n"/>
-      <c r="AD2" s="4" t="n"/>
-      <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="4" t="n"/>
-      <c r="AG2" s="5" t="n"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="5"/>
       <c r="AH2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" s="4" t="n"/>
-      <c r="AJ2" s="4" t="n"/>
-      <c r="AK2" s="5" t="n"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="5"/>
       <c r="AL2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AM2" s="4" t="n"/>
-      <c r="AN2" s="4" t="n"/>
-      <c r="AO2" s="4" t="n"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
       <c r="AP2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="AQ2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="8" t="n"/>
-      <c r="AS2" s="8" t="n"/>
-      <c r="AT2" s="8" t="n"/>
-      <c r="AU2" s="8" t="n"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
       <c r="AV2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AW2" s="8" t="n"/>
-      <c r="AX2" s="8" t="n"/>
-      <c r="AY2" s="8" t="n"/>
-      <c r="AZ2" s="8" t="n"/>
-      <c r="BA2" s="8" t="n"/>
-      <c r="BB2" s="24" t="n"/>
-      <c r="BC2" s="8" t="n"/>
-      <c r="BD2" s="8" t="n"/>
-      <c r="BE2" s="8" t="n"/>
-      <c r="BF2" s="9" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="99" r="3" s="21" spans="1:59">
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="9"/>
+    </row>
+    <row r="3" spans="1:59" s="21" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -4609,7 +2570,7 @@
         <v>37</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="AD3" s="14" t="s">
         <v>39</v>
@@ -4647,7 +2608,7 @@
       <c r="AO3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AP3" s="18" t="n"/>
+      <c r="AP3" s="18"/>
       <c r="AQ3" s="19" t="s">
         <v>51</v>
       </c>
@@ -4663,7 +2624,7 @@
       <c r="AU3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AV3" s="18" t="n"/>
+      <c r="AV3" s="18"/>
       <c r="AW3" s="16" t="s">
         <v>56</v>
       </c>
@@ -4695,17 +2656,17 @@
         <v>64</v>
       </c>
       <c r="BG3" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59">
-      <c r="A4" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="25">
         <v>42907</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>48465</v>
       </c>
       <c r="L4" t="s">
@@ -4723,21 +2684,21 @@
       <c r="P4" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>21325</v>
       </c>
       <c r="BG4" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" t="n">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="25">
         <v>42915</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>55665</v>
       </c>
       <c r="L5" t="s">
@@ -4747,23 +2708,23 @@
         <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="BG5" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" t="n">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="25">
         <v>42915</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>134124</v>
       </c>
       <c r="L6" t="s">
@@ -4773,33 +2734,33 @@
         <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>279</v>
+        <v>196</v>
       </c>
       <c r="BG6" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1087691</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="K7" t="s">
         <v>79</v>
@@ -4811,10 +2772,10 @@
         <v>80</v>
       </c>
       <c r="R7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S7" t="s">
-        <v>281</v>
+        <v>198</v>
       </c>
       <c r="W7" t="s">
         <v>83</v>
@@ -4823,51 +2784,51 @@
         <v>84</v>
       </c>
       <c r="Y7" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="AE7" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="AH7" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="AL7" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="AQ7" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX7" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX7">
         <v>2200</v>
       </c>
       <c r="AY7" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="BF7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1035344</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="H8" t="s">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -4882,10 +2843,10 @@
         <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="T8" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="W8" t="s">
         <v>83</v>
@@ -4894,57 +2855,57 @@
         <v>84</v>
       </c>
       <c r="Y8" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE8" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="AH8" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="AL8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ8" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR8" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS8" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT8" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU8" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX8" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX8">
         <v>994</v>
       </c>
       <c r="AY8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1048364</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="K9" t="s">
         <v>79</v>
@@ -4956,16 +2917,16 @@
         <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S9" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
       <c r="T9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U9" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="W9" t="s">
         <v>83</v>
@@ -4974,57 +2935,57 @@
         <v>84</v>
       </c>
       <c r="Y9" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="AE9" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="AH9" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="AL9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ9" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR9" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS9" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT9" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU9" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX9" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX9">
         <v>799</v>
       </c>
       <c r="AY9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1073820</v>
       </c>
       <c r="H10" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="K10" t="s">
         <v>79</v>
@@ -5036,13 +2997,13 @@
         <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="S10" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="T10" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="W10" t="s">
         <v>83</v>
@@ -5051,51 +3012,51 @@
         <v>84</v>
       </c>
       <c r="AH10" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="AQ10" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR10" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS10" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT10" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU10" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX10" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX10">
         <v>1079</v>
       </c>
       <c r="AY10" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="BF10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1106434</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s">
         <v>79</v>
@@ -5107,13 +3068,13 @@
         <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S11" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="T11" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="W11" t="s">
         <v>83</v>
@@ -5122,54 +3083,54 @@
         <v>84</v>
       </c>
       <c r="Y11" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AE11" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="AH11" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="AJ11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ11" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR11" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS11" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT11" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU11" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AX11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>527833</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
         <v>79</v>
@@ -5184,7 +3145,7 @@
         <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="W12" t="s">
         <v>83</v>
@@ -5193,36 +3154,36 @@
         <v>84</v>
       </c>
       <c r="AE12" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="AH12" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="AX12" t="s">
         <v>77</v>
       </c>
       <c r="BF12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1023736</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="K13" t="s">
         <v>79</v>
@@ -5231,19 +3192,19 @@
         <v>68</v>
       </c>
       <c r="M13" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="P13" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="R13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S13" t="s">
         <v>68</v>
       </c>
       <c r="T13" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="W13" t="s">
         <v>83</v>
@@ -5252,54 +3213,54 @@
         <v>84</v>
       </c>
       <c r="Y13" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AE13" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="AH13" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="AL13" t="s">
         <v>86</v>
       </c>
       <c r="AQ13" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR13" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS13" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT13" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU13" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX13" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX13">
         <v>750</v>
       </c>
       <c r="AY13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>712024</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -5311,10 +3272,10 @@
         <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="S14" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="W14" t="s">
         <v>83</v>
@@ -5323,48 +3284,48 @@
         <v>84</v>
       </c>
       <c r="Y14" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE14" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="AH14" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="AL14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ14" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU14" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX14" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX14">
         <v>669</v>
       </c>
       <c r="AY14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>1057467</v>
       </c>
       <c r="G15" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="H15" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="K15" t="s">
         <v>79</v>
@@ -5376,16 +3337,16 @@
         <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S15" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="T15" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="U15" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="W15" t="s">
         <v>83</v>
@@ -5394,57 +3355,57 @@
         <v>84</v>
       </c>
       <c r="Y15" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AE15" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="AH15" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
       <c r="AJ15" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="AL15" t="s">
         <v>86</v>
       </c>
       <c r="AQ15" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR15" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="AS15" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT15" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU15" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AX15" t="s">
         <v>77</v>
       </c>
       <c r="BF15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>1105963</v>
       </c>
       <c r="H16" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
@@ -5456,13 +3417,13 @@
         <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S16" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="T16" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="W16" t="s">
         <v>83</v>
@@ -5471,45 +3432,45 @@
         <v>84</v>
       </c>
       <c r="Y16" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE16" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="AH16" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="AL16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ16" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX16" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX16">
         <v>1050</v>
       </c>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>345710</v>
       </c>
       <c r="H17" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="I17" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="K17" t="s">
         <v>79</v>
@@ -5521,16 +3482,16 @@
         <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S17" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="T17" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="U17" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="W17" t="s">
         <v>83</v>
@@ -5539,51 +3500,51 @@
         <v>84</v>
       </c>
       <c r="Y17" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AH17" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="AQ17" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR17" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS17" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT17" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX17" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX17">
         <v>1000</v>
       </c>
       <c r="AY17" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="BF17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>1116372</v>
       </c>
       <c r="H18" t="s">
-        <v>334</v>
+        <v>251</v>
       </c>
       <c r="K18" t="s">
         <v>79</v>
@@ -5598,7 +3559,7 @@
         <v>81</v>
       </c>
       <c r="S18" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="W18" t="s">
         <v>83</v>
@@ -5607,30 +3568,30 @@
         <v>84</v>
       </c>
       <c r="AH18" t="s">
-        <v>335</v>
+        <v>252</v>
       </c>
       <c r="AX18" t="s">
         <v>77</v>
       </c>
       <c r="BF18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>901600</v>
       </c>
       <c r="H19" t="s">
-        <v>337</v>
+        <v>254</v>
       </c>
       <c r="K19" t="s">
         <v>79</v>
@@ -5642,13 +3603,13 @@
         <v>80</v>
       </c>
       <c r="R19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S19" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="T19" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="W19" t="s">
         <v>83</v>
@@ -5657,54 +3618,54 @@
         <v>84</v>
       </c>
       <c r="AE19" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="AH19" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="AQ19" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR19" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS19" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT19" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU19" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX19" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX19">
         <v>1200</v>
       </c>
       <c r="AY19" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="BF19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:59">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
         <v>76</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>907741</v>
       </c>
       <c r="G20" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="H20" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="K20" t="s">
         <v>79</v>
@@ -5719,13 +3680,13 @@
         <v>81</v>
       </c>
       <c r="S20" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="T20" t="s">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="U20" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="W20" t="s">
         <v>83</v>
@@ -5734,63 +3695,63 @@
         <v>84</v>
       </c>
       <c r="Y20" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AE20" t="s">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="AH20" t="s">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="AJ20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL20" t="s">
         <v>86</v>
       </c>
       <c r="AQ20" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR20" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS20" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT20" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU20" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX20" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX20">
         <v>1500</v>
       </c>
       <c r="AY20" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="BF20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
         <v>76</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1038178</v>
       </c>
       <c r="G21" t="s">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="H21" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="K21" t="s">
         <v>79</v>
@@ -5802,10 +3763,10 @@
         <v>80</v>
       </c>
       <c r="R21" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S21" t="s">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="W21" t="s">
         <v>83</v>
@@ -5814,51 +3775,51 @@
         <v>84</v>
       </c>
       <c r="AH21" t="s">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="AQ21" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR21" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS21" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT21" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU21" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX21" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX21">
         <v>528</v>
       </c>
       <c r="AY21" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="BF21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
         <v>76</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1118465</v>
       </c>
       <c r="G22" t="s">
-        <v>355</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="K22" t="s">
         <v>79</v>
@@ -5873,10 +3834,10 @@
         <v>81</v>
       </c>
       <c r="S22" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="T22" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
       <c r="W22" t="s">
         <v>83</v>
@@ -5885,54 +3846,54 @@
         <v>84</v>
       </c>
       <c r="AH22" t="s">
-        <v>358</v>
+        <v>275</v>
       </c>
       <c r="AJ22" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="AQ22" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR22" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS22" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT22" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU22" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX22" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX22">
         <v>1200</v>
       </c>
       <c r="AY22" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="BF22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:59">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1054296</v>
       </c>
       <c r="G23" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="H23" t="s">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="K23" t="s">
         <v>79</v>
@@ -5944,7 +3905,7 @@
         <v>80</v>
       </c>
       <c r="T23" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="W23" t="s">
         <v>83</v>
@@ -5953,60 +3914,60 @@
         <v>84</v>
       </c>
       <c r="Y23" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="AE23" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="AH23" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="AJ23" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="AL23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ23" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR23" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="AS23" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT23" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU23" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AX23" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
       <c r="AY23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:59">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
         <v>76</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>949353</v>
       </c>
       <c r="G24" t="s">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="H24" t="s">
-        <v>368</v>
+        <v>285</v>
       </c>
       <c r="K24" t="s">
         <v>79</v>
@@ -6018,13 +3979,13 @@
         <v>80</v>
       </c>
       <c r="R24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S24" t="s">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="T24" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="W24" t="s">
         <v>83</v>
@@ -6033,57 +3994,57 @@
         <v>84</v>
       </c>
       <c r="Y24" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="AE24" t="s">
-        <v>370</v>
+        <v>287</v>
       </c>
       <c r="AH24" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
       <c r="AL24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ24" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR24" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS24" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU24" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AX24" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="AY24" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="BF24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:59">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>961185</v>
       </c>
       <c r="G25" t="s">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="H25" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="K25" t="s">
         <v>79</v>
@@ -6101,7 +4062,7 @@
         <v>82</v>
       </c>
       <c r="T25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="W25" t="s">
         <v>83</v>
@@ -6110,57 +4071,57 @@
         <v>84</v>
       </c>
       <c r="Y25" t="s">
-        <v>375</v>
+        <v>292</v>
       </c>
       <c r="AE25" t="s">
-        <v>376</v>
+        <v>293</v>
       </c>
       <c r="AH25" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="AJ25" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="AL25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ25" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR25" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="AS25" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="AT25" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="AU25" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX25" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX25">
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>690600</v>
       </c>
       <c r="G26" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="H26" t="s">
-        <v>378</v>
+        <v>295</v>
       </c>
       <c r="K26" t="s">
         <v>79</v>
@@ -6175,10 +4136,10 @@
         <v>81</v>
       </c>
       <c r="S26" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="T26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="W26" t="s">
         <v>83</v>
@@ -6187,54 +4148,54 @@
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE26" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="AH26" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="AL26" t="s">
         <v>86</v>
       </c>
       <c r="AQ26" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR26" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS26" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT26" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU26" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX26" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX26">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>994003</v>
       </c>
       <c r="G27" t="s">
-        <v>380</v>
+        <v>297</v>
       </c>
       <c r="H27" t="s">
-        <v>381</v>
+        <v>298</v>
       </c>
       <c r="K27" t="s">
         <v>79</v>
@@ -6246,13 +4207,13 @@
         <v>80</v>
       </c>
       <c r="R27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S27" t="s">
-        <v>382</v>
+        <v>299</v>
       </c>
       <c r="T27" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
       <c r="W27" t="s">
         <v>83</v>
@@ -6261,63 +4222,63 @@
         <v>84</v>
       </c>
       <c r="Y27" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AE27" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="AH27" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="AJ27" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="AL27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ27" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR27" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS27" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT27" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU27" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX27" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX27">
         <v>1050</v>
       </c>
       <c r="AY27" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="BF27" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:59">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>635059</v>
       </c>
       <c r="G28" t="s">
-        <v>387</v>
+        <v>304</v>
       </c>
       <c r="H28" t="s">
-        <v>388</v>
+        <v>305</v>
       </c>
       <c r="K28" t="s">
         <v>79</v>
@@ -6332,7 +4293,7 @@
         <v>81</v>
       </c>
       <c r="S28" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
       <c r="W28" t="s">
         <v>83</v>
@@ -6341,51 +4302,51 @@
         <v>84</v>
       </c>
       <c r="Y28" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="AE28" t="s">
-        <v>390</v>
+        <v>307</v>
       </c>
       <c r="AH28" t="s">
-        <v>391</v>
+        <v>308</v>
       </c>
       <c r="AL28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR28" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS28" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU28" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AX28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
         <v>76</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>933491</v>
       </c>
       <c r="G29" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="H29" t="s">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="I29" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="K29" t="s">
         <v>79</v>
@@ -6394,22 +4355,22 @@
         <v>68</v>
       </c>
       <c r="M29" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="P29" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="R29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S29" t="s">
-        <v>396</v>
+        <v>313</v>
       </c>
       <c r="T29" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="U29" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="W29" t="s">
         <v>83</v>
@@ -6418,54 +4379,54 @@
         <v>84</v>
       </c>
       <c r="Y29" t="s">
-        <v>363</v>
+        <v>280</v>
       </c>
       <c r="AH29" t="s">
-        <v>398</v>
+        <v>315</v>
       </c>
       <c r="AQ29" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR29" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS29" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT29" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU29" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX29" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX29">
         <v>583</v>
       </c>
       <c r="AY29" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="BF29" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:59">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
         <v>76</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>885343</v>
       </c>
       <c r="G30" t="s">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="H30" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
         <v>79</v>
@@ -6477,13 +4438,13 @@
         <v>80</v>
       </c>
       <c r="R30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S30" t="s">
-        <v>402</v>
+        <v>319</v>
       </c>
       <c r="T30" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="W30" t="s">
         <v>83</v>
@@ -6492,63 +4453,63 @@
         <v>84</v>
       </c>
       <c r="Y30" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="AE30" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="AH30" t="s">
-        <v>405</v>
+        <v>322</v>
       </c>
       <c r="AJ30" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL30" t="s">
         <v>86</v>
       </c>
       <c r="AQ30" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR30" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS30" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT30" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU30" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AX30" t="s">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="AY30" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:59">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
         <v>76</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>744502</v>
       </c>
       <c r="G31" t="s">
-        <v>407</v>
+        <v>324</v>
       </c>
       <c r="H31" t="s">
-        <v>408</v>
+        <v>325</v>
       </c>
       <c r="I31" t="s">
-        <v>409</v>
+        <v>326</v>
       </c>
       <c r="K31" t="s">
         <v>79</v>
@@ -6560,13 +4521,13 @@
         <v>80</v>
       </c>
       <c r="R31" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S31" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="T31" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="W31" t="s">
         <v>83</v>
@@ -6575,60 +4536,60 @@
         <v>84</v>
       </c>
       <c r="AE31" t="s">
-        <v>412</v>
+        <v>329</v>
       </c>
       <c r="AH31" t="s">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="AJ31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL31" t="s">
         <v>86</v>
       </c>
       <c r="AQ31" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR31" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS31" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT31" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU31" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX31" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX31">
         <v>849</v>
       </c>
       <c r="AY31" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="BF31" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="32" spans="1:59">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
         <v>76</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>679802</v>
       </c>
       <c r="G32" t="s">
-        <v>415</v>
+        <v>332</v>
       </c>
       <c r="H32" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="K32" t="s">
         <v>79</v>
@@ -6640,16 +4601,16 @@
         <v>80</v>
       </c>
       <c r="R32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S32" t="s">
-        <v>417</v>
+        <v>334</v>
       </c>
       <c r="T32" t="s">
-        <v>418</v>
+        <v>335</v>
       </c>
       <c r="U32" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="W32" t="s">
         <v>83</v>
@@ -6658,36 +4619,36 @@
         <v>84</v>
       </c>
       <c r="AH32" t="s">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="AX32" t="s">
         <v>77</v>
       </c>
       <c r="BF32" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="33" spans="1:59">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>984916</v>
       </c>
       <c r="G33" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="H33" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="I33" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
         <v>79</v>
@@ -6696,10 +4657,10 @@
         <v>68</v>
       </c>
       <c r="M33" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="P33" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="W33" t="s">
         <v>83</v>
@@ -6708,63 +4669,63 @@
         <v>84</v>
       </c>
       <c r="Y33" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="AE33" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="AH33" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="AJ33" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="AL33" t="s">
         <v>86</v>
       </c>
       <c r="AQ33" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR33" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS33" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT33" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU33" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX33" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX33">
         <v>1200</v>
       </c>
       <c r="AY33" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="BF33" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:59">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
         <v>76</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>897670</v>
       </c>
       <c r="G34" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="H34" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="K34" t="s">
         <v>79</v>
@@ -6779,10 +4740,10 @@
         <v>81</v>
       </c>
       <c r="S34" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="T34" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="W34" t="s">
         <v>83</v>
@@ -6791,63 +4752,63 @@
         <v>84</v>
       </c>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE34" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="AH34" t="s">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="AJ34" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ34" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR34" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS34" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT34" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU34" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX34" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX34">
         <v>1000</v>
       </c>
       <c r="AY34" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="BF34" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:59">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>303142</v>
       </c>
       <c r="G35" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="H35" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
       <c r="K35" t="s">
         <v>79</v>
@@ -6856,19 +4817,19 @@
         <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="P35" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="R35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S35" t="s">
-        <v>437</v>
+        <v>354</v>
       </c>
       <c r="T35" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
       <c r="W35" t="s">
         <v>83</v>
@@ -6877,60 +4838,60 @@
         <v>84</v>
       </c>
       <c r="Y35" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="AE35" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="AH35" t="s">
-        <v>439</v>
+        <v>356</v>
       </c>
       <c r="AL35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ35" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR35" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS35" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT35" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU35" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX35" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX35">
         <v>998</v>
       </c>
       <c r="AY35" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="BF35" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
         <v>76</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>1036512</v>
       </c>
       <c r="G36" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
       <c r="H36" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
       <c r="K36" t="s">
         <v>79</v>
@@ -6942,13 +4903,13 @@
         <v>80</v>
       </c>
       <c r="R36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S36" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="T36" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="W36" t="s">
         <v>83</v>
@@ -6957,30 +4918,30 @@
         <v>84</v>
       </c>
       <c r="AH36" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
       <c r="AX36" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="BF36" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
         <v>76</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>100249</v>
       </c>
       <c r="H37" t="s">
-        <v>447</v>
+        <v>364</v>
       </c>
       <c r="K37" t="s">
         <v>79</v>
@@ -6989,10 +4950,10 @@
         <v>68</v>
       </c>
       <c r="M37" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="P37" t="s">
-        <v>448</v>
+        <v>365</v>
       </c>
       <c r="W37" t="s">
         <v>83</v>
@@ -7001,54 +4962,54 @@
         <v>84</v>
       </c>
       <c r="AH37" t="s">
-        <v>449</v>
+        <v>366</v>
       </c>
       <c r="AL37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AQ37" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR37" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS37" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="AT37" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU37" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX37" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX37">
         <v>370</v>
       </c>
       <c r="BF37" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:59">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
         <v>76</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>510476</v>
       </c>
       <c r="G38" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s">
-        <v>452</v>
+        <v>369</v>
       </c>
       <c r="I38" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
       <c r="K38" t="s">
         <v>79</v>
@@ -7063,10 +5024,10 @@
         <v>81</v>
       </c>
       <c r="S38" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="T38" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="W38" t="s">
         <v>83</v>
@@ -7075,60 +5036,60 @@
         <v>84</v>
       </c>
       <c r="AE38" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="AH38" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="AJ38" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ38" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR38" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS38" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT38" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU38" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX38" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX38">
         <v>780</v>
       </c>
       <c r="AY38" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="BF38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:59">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
         <v>76</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>465340</v>
       </c>
       <c r="G39" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="H39" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="K39" t="s">
         <v>79</v>
@@ -7143,10 +5104,10 @@
         <v>81</v>
       </c>
       <c r="S39" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="T39" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="W39" t="s">
         <v>83</v>
@@ -7155,57 +5116,57 @@
         <v>84</v>
       </c>
       <c r="Y39" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE39" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="AH39" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="AL39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ39" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR39" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS39" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT39" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU39" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX39" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX39">
         <v>1100</v>
       </c>
       <c r="AY39" t="s">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="BF39" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="40" spans="1:59">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
         <v>76</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>465395</v>
       </c>
       <c r="H40" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="K40" t="s">
         <v>79</v>
@@ -7217,10 +5178,10 @@
         <v>80</v>
       </c>
       <c r="R40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S40" t="s">
-        <v>462</v>
+        <v>379</v>
       </c>
       <c r="W40" t="s">
         <v>83</v>
@@ -7229,60 +5190,60 @@
         <v>84</v>
       </c>
       <c r="Y40" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE40" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="AH40" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
       <c r="AJ40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ40" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR40" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS40" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT40" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU40" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX40" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX40">
         <v>759</v>
       </c>
       <c r="AY40" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="41" spans="1:59">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
         <v>76</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>565628</v>
       </c>
       <c r="G41" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s">
         <v>79</v>
@@ -7291,22 +5252,22 @@
         <v>68</v>
       </c>
       <c r="M41" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="R41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S41" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="T41" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="U41" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="W41" t="s">
         <v>83</v>
@@ -7315,54 +5276,54 @@
         <v>84</v>
       </c>
       <c r="AH41" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
       <c r="AJ41" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL41" t="s">
         <v>86</v>
       </c>
       <c r="AQ41" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR41" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS41" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT41" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU41" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AX41" t="s">
         <v>77</v>
       </c>
       <c r="BF41" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:59">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
         <v>76</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>634629</v>
       </c>
       <c r="G42" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="H42" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="K42" t="s">
         <v>79</v>
@@ -7374,13 +5335,13 @@
         <v>80</v>
       </c>
       <c r="R42" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S42" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="T42" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
       <c r="W42" t="s">
         <v>83</v>
@@ -7389,51 +5350,51 @@
         <v>84</v>
       </c>
       <c r="Y42" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="AE42" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="AH42" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="AL42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AQ42" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR42" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS42" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT42" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU42" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX42" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX42">
         <v>3200</v>
       </c>
     </row>
-    <row r="43" spans="1:59">
+    <row r="43" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
         <v>76</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>818213</v>
       </c>
       <c r="H43" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
         <v>79</v>
@@ -7445,13 +5406,13 @@
         <v>80</v>
       </c>
       <c r="R43" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S43" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="T43" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="W43" t="s">
         <v>83</v>
@@ -7460,54 +5421,54 @@
         <v>84</v>
       </c>
       <c r="Y43" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE43" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="AH43" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="AL43" t="s">
         <v>86</v>
       </c>
       <c r="AR43" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS43" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU43" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX43" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX43">
         <v>799</v>
       </c>
       <c r="AY43" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="BF43" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
         <v>76</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>943895</v>
       </c>
       <c r="G44" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="H44" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="K44" t="s">
         <v>79</v>
@@ -7519,13 +5480,13 @@
         <v>80</v>
       </c>
       <c r="R44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S44" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="T44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="W44" t="s">
         <v>83</v>
@@ -7534,43 +5495,43 @@
         <v>84</v>
       </c>
       <c r="Y44" t="s">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="AE44" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="AH44" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="AJ44" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="AL44" t="s">
         <v>86</v>
       </c>
       <c r="AQ44" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AR44" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AS44" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AT44" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="AU44" t="s">
-        <v>286</v>
-      </c>
-      <c r="AX44" t="n">
+        <v>203</v>
+      </c>
+      <c r="AX44">
         <v>1000</v>
       </c>
       <c r="BF44" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>74</v>
       </c>
@@ -7580,7 +5541,7 @@
       <c r="E45" t="s">
         <v>76</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>562928</v>
       </c>
       <c r="H45" t="s">
@@ -7602,10 +5563,10 @@
         <v>82</v>
       </c>
       <c r="W45" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X45" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE45" t="s">
         <v>85</v>
@@ -7620,7 +5581,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:59">
+    <row r="46" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>74</v>
       </c>
@@ -7630,11 +5591,11 @@
       <c r="E46" t="s">
         <v>76</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1032405</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s">
         <v>79</v>
@@ -7652,31 +5613,31 @@
         <v>82</v>
       </c>
       <c r="T46" t="s">
+        <v>89</v>
+      </c>
+      <c r="U46" t="s">
+        <v>90</v>
+      </c>
+      <c r="W46" t="s">
+        <v>399</v>
+      </c>
+      <c r="X46" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL46" t="s">
         <v>92</v>
       </c>
-      <c r="U46" t="s">
-        <v>93</v>
-      </c>
-      <c r="W46" t="s">
-        <v>482</v>
-      </c>
-      <c r="X46" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX46" t="n">
+      <c r="AX46">
         <v>13</v>
       </c>
       <c r="BF46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:59">
+    <row r="47" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>74</v>
       </c>
@@ -7686,11 +5647,11 @@
       <c r="E47" t="s">
         <v>76</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>354937</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s">
         <v>79</v>
@@ -7702,51 +5663,51 @@
         <v>80</v>
       </c>
       <c r="R47" t="s">
+        <v>94</v>
+      </c>
+      <c r="S47" t="s">
+        <v>95</v>
+      </c>
+      <c r="T47" t="s">
+        <v>96</v>
+      </c>
+      <c r="W47" t="s">
+        <v>399</v>
+      </c>
+      <c r="X47" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX47">
+        <v>19</v>
+      </c>
+      <c r="BF47" t="s">
         <v>100</v>
       </c>
-      <c r="S47" t="s">
-        <v>101</v>
-      </c>
-      <c r="T47" t="s">
-        <v>102</v>
-      </c>
-      <c r="W47" t="s">
-        <v>482</v>
-      </c>
-      <c r="X47" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>19</v>
-      </c>
-      <c r="BF47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:59">
+    </row>
+    <row r="48" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
         <v>76</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>724390</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s">
         <v>79</v>
@@ -7758,19 +5719,19 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S48" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="W48" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X48" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE48" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="AL48" t="s">
         <v>86</v>
@@ -7782,7 +5743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:59">
+    <row r="49" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>74</v>
       </c>
@@ -7792,11 +5753,11 @@
       <c r="E49" t="s">
         <v>76</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>559794</v>
       </c>
       <c r="H49" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s">
         <v>79</v>
@@ -7808,39 +5769,39 @@
         <v>80</v>
       </c>
       <c r="R49" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S49" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="T49" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="W49" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X49" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AX49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:59">
+    <row r="50" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>76</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>557365</v>
       </c>
       <c r="H50" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K50" t="s">
         <v>79</v>
@@ -7855,42 +5816,42 @@
         <v>81</v>
       </c>
       <c r="S50" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="T50" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="W50" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X50" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE50" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX50" t="n">
+        <v>111</v>
+      </c>
+      <c r="AX50">
         <v>699</v>
       </c>
       <c r="BF50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:59">
+    <row r="51" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
         <v>76</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>509461</v>
       </c>
       <c r="H51" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="K51" t="s">
         <v>79</v>
@@ -7902,51 +5863,51 @@
         <v>80</v>
       </c>
       <c r="R51" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S51" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="T51" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="U51" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="W51" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X51" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE51" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="AL51" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX51" t="n">
+        <v>116</v>
+      </c>
+      <c r="AX51">
         <v>7</v>
       </c>
       <c r="BF51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:59">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
         <v>76</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>527820</v>
       </c>
       <c r="H52" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s">
         <v>79</v>
@@ -7961,19 +5922,19 @@
         <v>81</v>
       </c>
       <c r="S52" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="W52" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X52" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE52" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="AJ52" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="AL52" t="s">
         <v>86</v>
@@ -7982,24 +5943,24 @@
         <v>77</v>
       </c>
       <c r="BF52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:59">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>76</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>759901</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="K53" t="s">
         <v>79</v>
@@ -8011,45 +5972,45 @@
         <v>80</v>
       </c>
       <c r="R53" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="S53" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="W53" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X53" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE53" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AJ53" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX53" t="n">
+        <v>96</v>
+      </c>
+      <c r="AX53">
         <v>669</v>
       </c>
       <c r="BF53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:59">
+    <row r="54" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
         <v>76</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>565702</v>
       </c>
       <c r="H54" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="K54" t="s">
         <v>79</v>
@@ -8058,31 +6019,31 @@
         <v>68</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="R54" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S54" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="T54" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="U54" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="W54" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X54" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE54" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="AJ54" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="AL54" t="s">
         <v>86</v>
@@ -8091,10 +6052,10 @@
         <v>77</v>
       </c>
       <c r="BF54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:59">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>74</v>
       </c>
@@ -8104,11 +6065,11 @@
       <c r="E55" t="s">
         <v>76</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>875220</v>
       </c>
       <c r="H55" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="K55" t="s">
         <v>79</v>
@@ -8120,40 +6081,40 @@
         <v>80</v>
       </c>
       <c r="R55" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S55" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="T55" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="U55" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="W55" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X55" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE55" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL55" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX55" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX55">
         <v>11</v>
       </c>
       <c r="BF55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:59">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>74</v>
       </c>
@@ -8163,11 +6124,11 @@
       <c r="E56" t="s">
         <v>76</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>546555</v>
       </c>
       <c r="H56" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="K56" t="s">
         <v>79</v>
@@ -8182,22 +6143,22 @@
         <v>81</v>
       </c>
       <c r="S56" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="T56" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="W56" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X56" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE56" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="AJ56" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL56" t="s">
         <v>86</v>
@@ -8206,10 +6167,10 @@
         <v>77</v>
       </c>
       <c r="BF56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:59">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>74</v>
       </c>
@@ -8219,11 +6180,11 @@
       <c r="E57" t="s">
         <v>76</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>553221</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="K57" t="s">
         <v>79</v>
@@ -8235,51 +6196,51 @@
         <v>80</v>
       </c>
       <c r="R57" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S57" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="T57" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="W57" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X57" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE57" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="AJ57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL57" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX57" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX57">
         <v>5</v>
       </c>
       <c r="BF57" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:59">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>74</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E58" t="s">
         <v>76</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>1106361</v>
       </c>
       <c r="H58" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="K58" t="s">
         <v>79</v>
@@ -8291,28 +6252,28 @@
         <v>80</v>
       </c>
       <c r="R58" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S58" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="T58" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="W58" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X58" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE58" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="AJ58" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL58" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AX58" t="s">
         <v>77</v>
@@ -8321,7 +6282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:59">
+    <row r="59" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>74</v>
       </c>
@@ -8331,11 +6292,11 @@
       <c r="E59" t="s">
         <v>76</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>166126</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="K59" t="s">
         <v>79</v>
@@ -8347,25 +6308,25 @@
         <v>80</v>
       </c>
       <c r="T59" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="W59" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X59" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE59" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="AX59" t="s">
         <v>77</v>
       </c>
       <c r="BF59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:59">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>74</v>
       </c>
@@ -8375,11 +6336,11 @@
       <c r="E60" t="s">
         <v>76</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>659501</v>
       </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="K60" t="s">
         <v>79</v>
@@ -8391,22 +6352,22 @@
         <v>80</v>
       </c>
       <c r="R60" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S60" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="T60" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="W60" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X60" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE60" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="AX60" t="s">
         <v>77</v>
@@ -8415,7 +6376,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:59">
+    <row r="61" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>74</v>
       </c>
@@ -8425,11 +6386,11 @@
       <c r="E61" t="s">
         <v>76</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>857627</v>
       </c>
       <c r="H61" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="K61" t="s">
         <v>79</v>
@@ -8447,25 +6408,25 @@
         <v>82</v>
       </c>
       <c r="T61" t="s">
+        <v>89</v>
+      </c>
+      <c r="U61" t="s">
+        <v>90</v>
+      </c>
+      <c r="W61" t="s">
+        <v>399</v>
+      </c>
+      <c r="X61" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL61" t="s">
         <v>92</v>
-      </c>
-      <c r="U61" t="s">
-        <v>93</v>
-      </c>
-      <c r="W61" t="s">
-        <v>482</v>
-      </c>
-      <c r="X61" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>208</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>95</v>
       </c>
       <c r="AX61" t="s">
         <v>77</v>
@@ -8474,7 +6435,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:59">
+    <row r="62" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>74</v>
       </c>
@@ -8484,11 +6445,11 @@
       <c r="E62" t="s">
         <v>76</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>1095042</v>
       </c>
       <c r="H62" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="K62" t="s">
         <v>79</v>
@@ -8497,40 +6458,40 @@
         <v>68</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="R62" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S62" t="s">
         <v>68</v>
       </c>
       <c r="T62" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="W62" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X62" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE62" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="AJ62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL62" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX62" t="n">
+        <v>99</v>
+      </c>
+      <c r="AX62">
         <v>5</v>
       </c>
       <c r="BF62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:59">
+    <row r="63" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>74</v>
       </c>
@@ -8540,11 +6501,11 @@
       <c r="E63" t="s">
         <v>76</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>277947</v>
       </c>
       <c r="H63" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="K63" t="s">
         <v>79</v>
@@ -8556,28 +6517,28 @@
         <v>80</v>
       </c>
       <c r="T63" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="W63" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X63" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE63" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AJ63" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AX63" t="s">
         <v>77</v>
       </c>
       <c r="BF63" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:59">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>74</v>
       </c>
@@ -8587,11 +6548,11 @@
       <c r="E64" t="s">
         <v>76</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>853459</v>
       </c>
       <c r="H64" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="K64" t="s">
         <v>79</v>
@@ -8603,51 +6564,51 @@
         <v>80</v>
       </c>
       <c r="R64" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S64" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="T64" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="W64" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X64" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE64" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="AJ64" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="AL64" t="s">
         <v>86</v>
       </c>
-      <c r="AX64" t="n">
+      <c r="AX64">
         <v>13</v>
       </c>
       <c r="BF64" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="65" spans="1:59">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E65" t="s">
         <v>76</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>556757</v>
       </c>
       <c r="H65" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K65" t="s">
         <v>79</v>
@@ -8662,31 +6623,31 @@
         <v>81</v>
       </c>
       <c r="S65" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="T65" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U65" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="W65" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X65" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE65" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX65" t="n">
+        <v>170</v>
+      </c>
+      <c r="AX65">
         <v>11</v>
       </c>
       <c r="BF65" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:59">
+    <row r="66" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>74</v>
       </c>
@@ -8696,11 +6657,11 @@
       <c r="E66" t="s">
         <v>76</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>858700</v>
       </c>
       <c r="H66" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="K66" t="s">
         <v>79</v>
@@ -8712,28 +6673,28 @@
         <v>80</v>
       </c>
       <c r="R66" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S66" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="T66" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="U66" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="W66" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X66" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE66" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="AJ66" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL66" t="s">
         <v>86</v>
@@ -8742,24 +6703,24 @@
         <v>77</v>
       </c>
       <c r="BF66" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:59">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
         <v>76</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>1056614</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="K67" t="s">
         <v>79</v>
@@ -8771,44 +6732,44 @@
         <v>80</v>
       </c>
       <c r="R67" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="S67" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="T67" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="W67" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X67" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE67" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="AL67" t="s">
         <v>86</v>
       </c>
-      <c r="AX67" t="n">
+      <c r="AX67">
         <v>949</v>
       </c>
       <c r="BF67" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:59">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
         <v>76</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>1124669</v>
       </c>
       <c r="K68" t="s">
@@ -8821,25 +6782,25 @@
         <v>80</v>
       </c>
       <c r="R68" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S68" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="T68" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="W68" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X68" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE68" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="AL68" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AX68" t="s">
         <v>77</v>
@@ -8848,21 +6809,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:59">
+    <row r="69" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E69" t="s">
         <v>76</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>1092592</v>
       </c>
       <c r="H69" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="K69" t="s">
         <v>79</v>
@@ -8874,34 +6835,34 @@
         <v>80</v>
       </c>
       <c r="R69" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S69" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="W69" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X69" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE69" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="AJ69" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL69" t="s">
         <v>86</v>
       </c>
-      <c r="AX69" t="n">
+      <c r="AX69">
         <v>1000</v>
       </c>
       <c r="BF69" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:59">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>74</v>
       </c>
@@ -8911,11 +6872,11 @@
       <c r="E70" t="s">
         <v>76</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>438023</v>
       </c>
       <c r="H70" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="K70" t="s">
         <v>79</v>
@@ -8927,28 +6888,28 @@
         <v>80</v>
       </c>
       <c r="R70" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S70" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="T70" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="W70" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X70" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE70" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="AX70" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:59">
+    <row r="71" spans="3:58" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>74</v>
       </c>
@@ -8958,11 +6919,11 @@
       <c r="E71" t="s">
         <v>76</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>1000121</v>
       </c>
       <c r="H71" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="K71" t="s">
         <v>79</v>
@@ -8977,19 +6938,19 @@
         <v>81</v>
       </c>
       <c r="S71" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="W71" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="X71" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="AE71" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="AJ71" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AL71" t="s">
         <v>86</v>
@@ -9008,6 +6969,6 @@
     <hyperlink ref="BG5" r:id="rId2"/>
     <hyperlink ref="BG6" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>